--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417EEE5-2C57-4171-B435-D130D17C0350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5A8B8F-4FAB-4CC7-94A0-056C268DAFE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -916,8 +916,56 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,54 +1022,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1351,9 +1351,9 @@
   <dimension ref="A1:BG94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AJ32" sqref="AJ32:AM32"/>
+      <selection pane="bottomLeft" activeCell="Y42" sqref="Y42:AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1370,139 +1370,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="29" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="26">
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="42">
         <v>45078</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="29" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="26">
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="42">
         <v>45107</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="28"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="33" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1627,41 +1627,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1784,33 +1784,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1933,35 +1933,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -1994,43 +1994,43 @@
       <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23">
         <v>45079</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43">
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23">
         <v>45082</v>
       </c>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="41" t="s">
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -2063,43 +2063,43 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="43">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23">
         <v>45079</v>
       </c>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43">
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>45082</v>
       </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="41" t="s">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10"/>
@@ -2132,43 +2132,43 @@
       <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23">
         <v>45079</v>
       </c>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43">
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23">
         <v>45082</v>
       </c>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="41" t="s">
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10"/>
@@ -2201,35 +2201,35 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2262,43 +2262,43 @@
       <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="43">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23">
         <v>45082</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43">
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23">
         <v>45084</v>
       </c>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="41" t="s">
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -2331,43 +2331,43 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="44">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="27">
         <v>45083</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="43">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="23">
         <v>45084</v>
       </c>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="41" t="s">
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2400,43 +2400,43 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23">
         <v>45083</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43">
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23">
         <v>45085</v>
       </c>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="41" t="s">
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2469,35 +2469,35 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2530,41 +2530,41 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="43">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23">
         <v>45085</v>
       </c>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43">
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23">
         <v>45086</v>
       </c>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="41" t="s">
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2597,41 +2597,41 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="43">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23">
         <v>45085</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43">
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23">
         <v>45085</v>
       </c>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="41" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2664,35 +2664,35 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2725,13 +2725,13 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
@@ -2742,26 +2742,26 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="45">
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="28">
         <v>45090</v>
       </c>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="43">
+      <c r="T19" s="28"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="23">
         <v>45093</v>
       </c>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="48">
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="30">
         <v>0.5</v>
       </c>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="36"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2794,13 +2794,13 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
@@ -2811,26 +2811,26 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="46">
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="25">
         <v>45096</v>
       </c>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43">
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23">
         <v>45099</v>
       </c>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="48">
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="30">
         <v>0.1</v>
       </c>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="52"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="32"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2863,13 +2863,13 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2880,26 +2880,26 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="46">
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="25">
         <v>45089</v>
       </c>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="45">
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="28">
         <v>45090</v>
       </c>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="53">
+      <c r="W21" s="28"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="26">
         <v>0.8</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2932,13 +2932,13 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2949,26 +2949,26 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="45">
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="28">
         <v>45090</v>
       </c>
-      <c r="T22" s="45"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="43">
+      <c r="T22" s="28"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="23">
         <v>45093</v>
       </c>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="48">
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="30">
         <v>0.5</v>
       </c>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="32"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -3001,13 +3001,13 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
@@ -3018,26 +3018,26 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="46">
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="25">
         <v>45096</v>
       </c>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43">
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23">
         <v>45099</v>
       </c>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="53">
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="26">
         <v>0.1</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -3070,13 +3070,13 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3087,26 +3087,26 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="46">
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="25">
         <v>45089</v>
       </c>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="45">
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="28">
         <v>45090</v>
       </c>
-      <c r="W24" s="45"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="48">
+      <c r="W24" s="28"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="30">
         <v>0.8</v>
       </c>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="52"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="32"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -3139,13 +3139,13 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="18" t="s">
         <v>77</v>
       </c>
@@ -3156,26 +3156,26 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="55">
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="29">
         <v>45097</v>
       </c>
-      <c r="T25" s="45"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="43">
+      <c r="T25" s="28"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="23">
         <v>45099</v>
       </c>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="53" t="s">
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3208,13 +3208,13 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3225,26 +3225,26 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="46">
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="25">
         <v>45090</v>
       </c>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43">
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23">
         <v>45091</v>
       </c>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="48" t="s">
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="52"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="32"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3277,13 +3277,13 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="14" t="s">
         <v>79</v>
       </c>
@@ -3294,20 +3294,20 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="52"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3340,13 +3340,13 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="14" t="s">
         <v>80</v>
       </c>
@@ -3357,26 +3357,26 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="46">
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="25">
         <v>45091</v>
       </c>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43">
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23">
         <v>45092</v>
       </c>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="41" t="s">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3409,8 +3409,8 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3426,20 +3426,20 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3472,8 +3472,8 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3489,26 +3489,26 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="21" t="s">
+      <c r="P30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="46">
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="25">
         <v>45086</v>
       </c>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43">
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23">
         <v>45089</v>
       </c>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="41" t="s">
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3541,8 +3541,8 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3558,26 +3558,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="21" t="s">
+      <c r="P31" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="46">
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="25">
         <v>45097</v>
       </c>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43">
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23">
         <v>45099</v>
       </c>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="41" t="s">
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3610,8 +3610,8 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3627,26 +3627,26 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="21" t="s">
+      <c r="P32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="46">
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="25">
         <v>45086</v>
       </c>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43">
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23">
         <v>45089</v>
       </c>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="41" t="s">
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3679,8 +3679,8 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3696,26 +3696,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="21" t="s">
+      <c r="P33" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="46">
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="25">
         <v>45086</v>
       </c>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43">
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23">
         <v>45089</v>
       </c>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="53" t="s">
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3748,8 +3748,8 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3765,26 +3765,26 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="21" t="s">
+      <c r="P34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="55">
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="29">
         <v>45086</v>
       </c>
-      <c r="T34" s="45"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="43">
+      <c r="T34" s="28"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="23">
         <v>45091</v>
       </c>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="53">
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3817,8 +3817,8 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3834,26 +3834,26 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="21" t="s">
+      <c r="P35" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="46">
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="25">
         <v>45098</v>
       </c>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43">
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23">
         <v>45100</v>
       </c>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="41" t="s">
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3886,8 +3886,8 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3903,20 +3903,20 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="21" t="s">
+      <c r="P36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3949,8 +3949,8 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -3966,20 +3966,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="21" t="s">
+      <c r="P37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -4012,8 +4012,8 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -4029,26 +4029,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="46">
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="25">
         <v>45098</v>
       </c>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43">
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23">
         <v>45100</v>
       </c>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="41" t="s">
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4081,8 +4081,8 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4098,26 +4098,26 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="46">
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="25">
         <v>45092</v>
       </c>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43">
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23">
         <v>45100</v>
       </c>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="41" t="s">
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4150,8 +4150,8 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4167,26 +4167,26 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="21" t="s">
+      <c r="P40" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="46">
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="25">
         <v>45098</v>
       </c>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43">
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23">
         <v>45100</v>
       </c>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="41" t="s">
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4219,8 +4219,8 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4236,26 +4236,26 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="21" t="s">
+      <c r="P41" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="46">
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="25">
         <v>45089</v>
       </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43">
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23">
         <v>45090</v>
       </c>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4288,8 +4288,8 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4305,26 +4305,26 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="21" t="s">
+      <c r="P42" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="46">
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="25">
         <v>45092</v>
       </c>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43">
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23">
         <v>45100</v>
       </c>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="41" t="s">
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4357,8 +4357,8 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4374,26 +4374,26 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="21" t="s">
+      <c r="P43" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="46">
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="25">
         <v>45086</v>
       </c>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43">
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23">
         <v>45092</v>
       </c>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="53">
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4426,8 +4426,8 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4443,26 +4443,26 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="21" t="s">
+      <c r="P44" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="46">
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="25">
         <v>45092</v>
       </c>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43">
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23">
         <v>45089</v>
       </c>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="41" t="s">
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4495,8 +4495,8 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4512,26 +4512,26 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="21" t="s">
+      <c r="P45" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="46">
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="25">
         <v>45096</v>
       </c>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43">
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23">
         <v>45098</v>
       </c>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="41" t="s">
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4564,8 +4564,8 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -4581,26 +4581,26 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="21" t="s">
+      <c r="P46" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="46">
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="25">
         <v>45092</v>
       </c>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="44">
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="27">
         <v>45097</v>
       </c>
-      <c r="W46" s="45"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="41" t="s">
+      <c r="W46" s="28"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4633,8 +4633,8 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -4650,20 +4650,20 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="21" t="s">
+      <c r="P47" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4696,8 +4696,8 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4713,20 +4713,20 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="21" t="s">
+      <c r="P48" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4759,8 +4759,8 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4776,26 +4776,26 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="21" t="s">
+      <c r="P49" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="46">
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="25">
         <v>45096</v>
       </c>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43">
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23">
         <v>45097</v>
       </c>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="41" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4828,8 +4828,8 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -4845,26 +4845,26 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="21" t="s">
+      <c r="P50" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="43">
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="23">
         <v>45092</v>
       </c>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43">
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23">
         <v>45100</v>
       </c>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="41" t="s">
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4897,8 +4897,8 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -4914,26 +4914,26 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="21" t="s">
+      <c r="P51" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="46">
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="25">
         <v>45092</v>
       </c>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="44">
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="27">
         <v>45097</v>
       </c>
-      <c r="W51" s="45"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="41" t="s">
+      <c r="W51" s="28"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4966,8 +4966,8 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -4983,26 +4983,26 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="21" t="s">
+      <c r="P52" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="46">
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="25">
         <v>45090</v>
       </c>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43">
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23">
         <v>45092</v>
       </c>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="41" t="s">
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5035,8 +5035,8 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -5052,20 +5052,20 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="21" t="s">
+      <c r="P53" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5098,8 +5098,8 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -5115,26 +5115,26 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="21" t="s">
+      <c r="P54" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="46">
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="25">
         <v>45086</v>
       </c>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43">
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23">
         <v>45092</v>
       </c>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="53">
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5167,8 +5167,8 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -5184,26 +5184,26 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="21" t="s">
+      <c r="P55" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="46">
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="25">
         <v>45098</v>
       </c>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43">
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23">
         <v>45100</v>
       </c>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="41" t="s">
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5236,8 +5236,8 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -5253,26 +5253,26 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="21" t="s">
+      <c r="P56" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="46">
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="25">
         <v>45086</v>
       </c>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43">
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23">
         <v>45089</v>
       </c>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="53" t="s">
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5305,8 +5305,8 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -5322,26 +5322,26 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="21" t="s">
+      <c r="P57" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="46">
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="25">
         <v>45090</v>
       </c>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43">
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23">
         <v>45091</v>
       </c>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="53">
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="26">
         <v>0.2</v>
       </c>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5374,8 +5374,8 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -5391,26 +5391,26 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="21" t="s">
+      <c r="P58" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="46">
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="25">
         <v>45092</v>
       </c>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43">
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23">
         <v>45097</v>
       </c>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="41" t="s">
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5443,8 +5443,8 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -5460,20 +5460,20 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="21" t="s">
+      <c r="P59" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5506,8 +5506,8 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -5523,26 +5523,26 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="21" t="s">
+      <c r="P60" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="46">
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="25">
         <v>45096</v>
       </c>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43">
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23">
         <v>45097</v>
       </c>
-      <c r="W60" s="43"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="41" t="s">
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5575,8 +5575,8 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5592,26 +5592,26 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="21" t="s">
+      <c r="P61" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="46">
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="25">
         <v>45092</v>
       </c>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43">
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23">
         <v>45100</v>
       </c>
-      <c r="W61" s="43"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="41" t="s">
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5644,8 +5644,8 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -5661,26 +5661,26 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="17"/>
-      <c r="P62" s="21" t="s">
+      <c r="P62" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="46">
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="25">
         <v>45092</v>
       </c>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43">
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23">
         <v>45097</v>
       </c>
-      <c r="W62" s="43"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="41" t="s">
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z62" s="41"/>
-      <c r="AA62" s="41"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5713,8 +5713,8 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5730,26 +5730,26 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="21" t="s">
+      <c r="P63" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="46">
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="25">
         <v>45086</v>
       </c>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43">
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23">
         <v>45090</v>
       </c>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="53">
-        <v>0.8</v>
-      </c>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="41"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5782,8 +5782,8 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5799,26 +5799,26 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="21" t="s">
+      <c r="P64" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="46">
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="25">
         <v>45092</v>
       </c>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43">
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23">
         <v>45100</v>
       </c>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="41" t="s">
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5851,8 +5851,8 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5868,26 +5868,26 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="21" t="s">
+      <c r="P65" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="46">
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="25">
         <v>45086</v>
       </c>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43">
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23">
         <v>45092</v>
       </c>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="53">
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="26">
         <v>0.7</v>
       </c>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5920,8 +5920,8 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5937,26 +5937,26 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="17"/>
-      <c r="P66" s="21" t="s">
+      <c r="P66" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="46">
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="25">
         <v>45086</v>
       </c>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43">
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23">
         <v>45089</v>
       </c>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="53" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5989,8 +5989,8 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -6006,26 +6006,26 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="21" t="s">
+      <c r="P67" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="46">
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="25">
         <v>45086</v>
       </c>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43">
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23">
         <v>45091</v>
       </c>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="53">
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6058,8 +6058,8 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -6073,18 +6073,18 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="41"/>
-      <c r="Z68" s="41"/>
-      <c r="AA68" s="41"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6117,8 +6117,8 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -6132,18 +6132,18 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6176,8 +6176,8 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -6191,18 +6191,18 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="41"/>
-      <c r="Z70" s="41"/>
-      <c r="AA70" s="41"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6235,8 +6235,8 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6250,18 +6250,18 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="42"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="41"/>
-      <c r="Z71" s="41"/>
-      <c r="AA71" s="41"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6294,8 +6294,8 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6309,18 +6309,18 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="41"/>
-      <c r="AA72" s="41"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6353,8 +6353,8 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6368,18 +6368,18 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6412,8 +6412,8 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6427,18 +6427,18 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="41"/>
-      <c r="AA74" s="41"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6471,8 +6471,8 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6486,18 +6486,18 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6530,8 +6530,8 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6545,18 +6545,18 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6589,8 +6589,8 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6604,18 +6604,18 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="21"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6648,8 +6648,8 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6663,18 +6663,18 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="17"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="42"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="41"/>
-      <c r="Z78" s="41"/>
-      <c r="AA78" s="41"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6715,18 +6715,18 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="17"/>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="42"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="41"/>
-      <c r="Z79" s="41"/>
-      <c r="AA79" s="41"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6767,18 +6767,18 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="41"/>
-      <c r="Z80" s="41"/>
-      <c r="AA80" s="41"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6819,18 +6819,18 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="41"/>
-      <c r="Z81" s="41"/>
-      <c r="AA81" s="41"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6871,18 +6871,18 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6923,18 +6923,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="42"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="43"/>
-      <c r="Y83" s="41"/>
-      <c r="Z83" s="41"/>
-      <c r="AA83" s="41"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6975,18 +6975,18 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="17"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
-      <c r="AA84" s="41"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7120,39 +7120,382 @@
     </row>
   </sheetData>
   <mergeCells count="433">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
     <mergeCell ref="P83:R83"/>
     <mergeCell ref="S83:U83"/>
     <mergeCell ref="V83:X83"/>
@@ -7177,382 +7520,39 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5A8B8F-4FAB-4CC7-94A0-056C268DAFE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F63457D-7405-4DDE-8AF9-87C0AEB6633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -916,56 +916,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,6 +974,54 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1351,158 +1351,158 @@
   <dimension ref="A1:BG94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="Y42" sqref="Y42:AA42"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="3.25" style="1"/>
-    <col min="15" max="15" width="9.25" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.25" style="1"/>
-    <col min="19" max="19" width="4.08203125" style="1" customWidth="1"/>
-    <col min="20" max="27" width="3.25" style="1"/>
-    <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
-    <col min="30" max="32" width="3.25" style="1"/>
-    <col min="33" max="33" width="3.25" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.25" style="1"/>
+    <col min="1" max="14" width="3.26953125" style="1"/>
+    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3.26953125" style="1"/>
+    <col min="19" max="19" width="4.08984375" style="1" customWidth="1"/>
+    <col min="20" max="27" width="3.26953125" style="1"/>
+    <col min="28" max="29" width="3.26953125" style="1" customWidth="1"/>
+    <col min="30" max="32" width="3.26953125" style="1"/>
+    <col min="33" max="33" width="3.26953125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="51" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="45" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="42">
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="26">
         <v>45078</v>
       </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="45" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="42">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="26">
         <v>45107</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="28"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="49" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49" t="s">
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="48" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1627,41 +1627,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49" t="s">
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1784,33 +1784,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1933,35 +1933,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -1994,43 +1994,43 @@
       <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22" t="s">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43">
         <v>45079</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23">
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43">
         <v>45082</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="21" t="s">
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -2063,43 +2063,43 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43">
         <v>45079</v>
       </c>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43">
         <v>45082</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="21" t="s">
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10"/>
@@ -2132,43 +2132,43 @@
       <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43">
         <v>45079</v>
       </c>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23">
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43">
         <v>45082</v>
       </c>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="21" t="s">
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10"/>
@@ -2201,35 +2201,35 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2262,43 +2262,43 @@
       <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23">
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43">
         <v>45082</v>
       </c>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23">
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43">
         <v>45084</v>
       </c>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="21" t="s">
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -2331,43 +2331,43 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22" t="s">
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="27">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="44">
         <v>45083</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="23">
+      <c r="T13" s="45"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="43">
         <v>45084</v>
       </c>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="21" t="s">
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2400,43 +2400,43 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23">
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43">
         <v>45083</v>
       </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23">
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43">
         <v>45085</v>
       </c>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="21" t="s">
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2469,35 +2469,35 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2530,41 +2530,41 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23">
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43">
         <v>45085</v>
       </c>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23">
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43">
         <v>45086</v>
       </c>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="21" t="s">
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2597,41 +2597,41 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23">
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43">
         <v>45085</v>
       </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23">
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43">
         <v>45085</v>
       </c>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="21" t="s">
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2664,35 +2664,35 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2725,13 +2725,13 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
@@ -2742,26 +2742,26 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="28">
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="45">
         <v>45090</v>
       </c>
-      <c r="T19" s="28"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="23">
+      <c r="T19" s="45"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="43">
         <v>45093</v>
       </c>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="30">
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="48">
         <v>0.5</v>
       </c>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="36"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="50"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2794,13 +2794,13 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
@@ -2811,26 +2811,26 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="33" t="s">
+      <c r="P20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="25">
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="46">
         <v>45096</v>
       </c>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23">
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43">
         <v>45099</v>
       </c>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="30">
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="48">
         <v>0.1</v>
       </c>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="32"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="52"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2863,13 +2863,13 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2880,26 +2880,26 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="33" t="s">
+      <c r="P21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="25">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="46">
         <v>45089</v>
       </c>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="28">
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="45">
         <v>45090</v>
       </c>
-      <c r="W21" s="28"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="26">
+      <c r="W21" s="45"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="53">
         <v>0.8</v>
       </c>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2932,13 +2932,13 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2949,26 +2949,26 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="33" t="s">
+      <c r="P22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="28">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="45">
         <v>45090</v>
       </c>
-      <c r="T22" s="28"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="23">
+      <c r="T22" s="45"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="43">
         <v>45093</v>
       </c>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="30">
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="48">
         <v>0.5</v>
       </c>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="32"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="52"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -3001,13 +3001,13 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
@@ -3018,26 +3018,26 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="25">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="46">
         <v>45096</v>
       </c>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23">
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43">
         <v>45099</v>
       </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="26">
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="53">
         <v>0.1</v>
       </c>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -3070,13 +3070,13 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3087,26 +3087,26 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="25">
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="46">
         <v>45089</v>
       </c>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="28">
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="45">
         <v>45090</v>
       </c>
-      <c r="W24" s="28"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="30">
+      <c r="W24" s="45"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="48">
         <v>0.8</v>
       </c>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="32"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="52"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -3139,13 +3139,13 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="18" t="s">
         <v>77</v>
       </c>
@@ -3156,26 +3156,26 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="33" t="s">
+      <c r="P25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="29">
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="55">
         <v>45097</v>
       </c>
-      <c r="T25" s="28"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="23">
+      <c r="T25" s="45"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="43">
         <v>45099</v>
       </c>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="26" t="s">
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3208,13 +3208,13 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3225,26 +3225,26 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="33" t="s">
+      <c r="P26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="25">
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="46">
         <v>45090</v>
       </c>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23">
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43">
         <v>45091</v>
       </c>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="30" t="s">
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="32"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="52"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3277,13 +3277,13 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="14" t="s">
         <v>79</v>
       </c>
@@ -3294,20 +3294,20 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="32"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="52"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3340,13 +3340,13 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="14" t="s">
         <v>80</v>
       </c>
@@ -3357,26 +3357,26 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="25">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="46">
         <v>45091</v>
       </c>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23">
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43">
         <v>45092</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="21" t="s">
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3409,8 +3409,8 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3426,20 +3426,20 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="33" t="s">
+      <c r="P29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3472,8 +3472,8 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3489,26 +3489,26 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="33" t="s">
+      <c r="P30" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="25">
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="46">
         <v>45086</v>
       </c>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23">
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43">
         <v>45089</v>
       </c>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="21" t="s">
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3541,8 +3541,8 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3558,26 +3558,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="33" t="s">
+      <c r="P31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="25">
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="46">
         <v>45097</v>
       </c>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23">
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43">
         <v>45099</v>
       </c>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="21" t="s">
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3610,8 +3610,8 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3627,26 +3627,26 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="33" t="s">
+      <c r="P32" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="25">
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="46">
         <v>45086</v>
       </c>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23">
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43">
         <v>45089</v>
       </c>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="21" t="s">
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3679,8 +3679,8 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3696,26 +3696,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="33" t="s">
+      <c r="P33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="46">
         <v>45086</v>
       </c>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23">
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43">
         <v>45089</v>
       </c>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="26" t="s">
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3748,8 +3748,8 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3765,26 +3765,26 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="33" t="s">
+      <c r="P34" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="29">
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="55">
         <v>45086</v>
       </c>
-      <c r="T34" s="28"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="23">
+      <c r="T34" s="45"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="43">
         <v>45091</v>
       </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="26">
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="53">
         <v>0.3</v>
       </c>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3817,8 +3817,8 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3834,26 +3834,26 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="25">
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="46">
         <v>45098</v>
       </c>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23">
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43">
         <v>45100</v>
       </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="21" t="s">
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3886,8 +3886,8 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3903,20 +3903,20 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3949,8 +3949,8 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -3966,20 +3966,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="33" t="s">
+      <c r="P37" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -4012,8 +4012,8 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -4029,26 +4029,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="33" t="s">
+      <c r="P38" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="25">
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="46">
         <v>45098</v>
       </c>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23">
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43">
         <v>45100</v>
       </c>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="21" t="s">
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4081,8 +4081,8 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4098,26 +4098,26 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="33" t="s">
+      <c r="P39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="25">
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="46">
         <v>45092</v>
       </c>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23">
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43">
         <v>45100</v>
       </c>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="21" t="s">
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4150,8 +4150,8 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4167,26 +4167,26 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="33" t="s">
+      <c r="P40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="25">
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="46">
         <v>45098</v>
       </c>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23">
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43">
         <v>45100</v>
       </c>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="21" t="s">
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4219,8 +4219,8 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4236,26 +4236,26 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="33" t="s">
+      <c r="P41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="25">
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="46">
         <v>45089</v>
       </c>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23">
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43">
         <v>45090</v>
       </c>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="26" t="s">
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4288,8 +4288,8 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4305,26 +4305,26 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="33" t="s">
+      <c r="P42" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="25">
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="46">
         <v>45092</v>
       </c>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23">
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43">
         <v>45100</v>
       </c>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="21" t="s">
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4357,8 +4357,8 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4374,26 +4374,26 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="33" t="s">
+      <c r="P43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="25">
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="46">
         <v>45086</v>
       </c>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23">
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43">
         <v>45092</v>
       </c>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="26">
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="53">
         <v>0.5</v>
       </c>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4426,8 +4426,8 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4443,26 +4443,26 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="33" t="s">
+      <c r="P44" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="25">
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="46">
         <v>45092</v>
       </c>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23">
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43">
         <v>45089</v>
       </c>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="21" t="s">
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4495,8 +4495,8 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4512,26 +4512,26 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="33" t="s">
+      <c r="P45" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="25">
-        <v>45096</v>
-      </c>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23">
-        <v>45098</v>
-      </c>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="46">
+        <v>45090</v>
+      </c>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43">
+        <v>45090</v>
+      </c>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4544,7 +4544,7 @@
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
+      <c r="AN45" s="10"/>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
@@ -4564,8 +4564,8 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -4581,26 +4581,26 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="33" t="s">
+      <c r="P46" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="25">
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="46">
         <v>45092</v>
       </c>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="27">
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="44">
         <v>45097</v>
       </c>
-      <c r="W46" s="28"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="21" t="s">
+      <c r="W46" s="45"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4633,8 +4633,8 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -4650,20 +4650,20 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="33" t="s">
+      <c r="P47" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4696,8 +4696,8 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4713,20 +4713,20 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="33" t="s">
+      <c r="P48" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4759,8 +4759,8 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4776,26 +4776,26 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="33" t="s">
+      <c r="P49" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="25">
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="46">
         <v>45096</v>
       </c>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23">
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43">
         <v>45097</v>
       </c>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="21" t="s">
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4828,8 +4828,8 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -4845,26 +4845,26 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="33" t="s">
+      <c r="P50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="23">
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="43">
         <v>45092</v>
       </c>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23">
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43">
         <v>45100</v>
       </c>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="21" t="s">
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="41"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4897,8 +4897,8 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -4914,26 +4914,26 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="33" t="s">
+      <c r="P51" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="25">
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="46">
         <v>45092</v>
       </c>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="27">
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="44">
         <v>45097</v>
       </c>
-      <c r="W51" s="28"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="21" t="s">
+      <c r="W51" s="45"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4966,8 +4966,8 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -4983,26 +4983,26 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="33" t="s">
+      <c r="P52" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="25">
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="46">
         <v>45090</v>
       </c>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23">
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43">
         <v>45092</v>
       </c>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="21" t="s">
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="41"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5035,8 +5035,8 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -5052,20 +5052,20 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="33" t="s">
+      <c r="P53" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5098,8 +5098,8 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -5115,26 +5115,26 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="33" t="s">
+      <c r="P54" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="25">
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="46">
         <v>45086</v>
       </c>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23">
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43">
         <v>45092</v>
       </c>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="26">
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="53">
         <v>0.5</v>
       </c>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5167,8 +5167,8 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -5184,26 +5184,26 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="33" t="s">
+      <c r="P55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="25">
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="46">
         <v>45098</v>
       </c>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23">
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43">
         <v>45100</v>
       </c>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="21" t="s">
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5236,8 +5236,8 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -5253,26 +5253,26 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="33" t="s">
+      <c r="P56" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="25">
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="46">
         <v>45086</v>
       </c>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23">
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43">
         <v>45089</v>
       </c>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="26" t="s">
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="41"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5305,8 +5305,8 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -5322,26 +5322,26 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="33" t="s">
+      <c r="P57" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="25">
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="46">
         <v>45090</v>
       </c>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23">
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43">
         <v>45091</v>
       </c>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="Z57" s="41"/>
+      <c r="AA57" s="41"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5374,8 +5374,8 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -5391,26 +5391,26 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="33" t="s">
+      <c r="P58" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="25">
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="46">
         <v>45092</v>
       </c>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23">
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43">
         <v>45097</v>
       </c>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="21" t="s">
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="21"/>
+      <c r="Z58" s="41"/>
+      <c r="AA58" s="41"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5443,8 +5443,8 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -5460,20 +5460,20 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="33" t="s">
+      <c r="P59" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="41"/>
+      <c r="AA59" s="41"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5506,8 +5506,8 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -5523,26 +5523,26 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="33" t="s">
+      <c r="P60" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="25">
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="46">
         <v>45096</v>
       </c>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23">
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43">
         <v>45097</v>
       </c>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="21" t="s">
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="41"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5575,8 +5575,8 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5592,26 +5592,26 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="33" t="s">
+      <c r="P61" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="25">
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="46">
         <v>45092</v>
       </c>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23">
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43">
         <v>45100</v>
       </c>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="21" t="s">
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
+      <c r="Z61" s="41"/>
+      <c r="AA61" s="41"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5644,8 +5644,8 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -5661,26 +5661,26 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="17"/>
-      <c r="P62" s="33" t="s">
+      <c r="P62" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="25">
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="46">
         <v>45092</v>
       </c>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23">
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43">
         <v>45097</v>
       </c>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="21" t="s">
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
+      <c r="Z62" s="41"/>
+      <c r="AA62" s="41"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5713,8 +5713,8 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5730,26 +5730,26 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="33" t="s">
+      <c r="P63" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="25">
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="46">
         <v>45086</v>
       </c>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23">
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43">
         <v>45090</v>
       </c>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="26" t="s">
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z63" s="21"/>
-      <c r="AA63" s="21"/>
+      <c r="Z63" s="41"/>
+      <c r="AA63" s="41"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5782,8 +5782,8 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5799,26 +5799,26 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="33" t="s">
+      <c r="P64" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="25">
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="46">
         <v>45092</v>
       </c>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23">
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43">
         <v>45100</v>
       </c>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="21" t="s">
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
+      <c r="Z64" s="41"/>
+      <c r="AA64" s="41"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5851,8 +5851,8 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5868,26 +5868,26 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="33" t="s">
+      <c r="P65" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="25">
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="46">
         <v>45086</v>
       </c>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23">
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43">
         <v>45092</v>
       </c>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="26">
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="53">
         <v>0.7</v>
       </c>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
+      <c r="Z65" s="41"/>
+      <c r="AA65" s="41"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5920,8 +5920,8 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5937,26 +5937,26 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="17"/>
-      <c r="P66" s="33" t="s">
+      <c r="P66" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="25">
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="46">
         <v>45086</v>
       </c>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23">
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43">
         <v>45089</v>
       </c>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="26" t="s">
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
+      <c r="Z66" s="41"/>
+      <c r="AA66" s="41"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5989,8 +5989,8 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -6006,26 +6006,26 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="33" t="s">
+      <c r="P67" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="25">
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="46">
         <v>45086</v>
       </c>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23">
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43">
         <v>45091</v>
       </c>
-      <c r="W67" s="23"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z67" s="41"/>
+      <c r="AA67" s="41"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6039,7 +6039,7 @@
       <c r="AL67" s="10"/>
       <c r="AM67" s="10"/>
       <c r="AN67" s="10"/>
-      <c r="AO67" s="4"/>
+      <c r="AO67" s="10"/>
       <c r="AP67" s="4"/>
       <c r="AQ67" s="4"/>
       <c r="AR67" s="4"/>
@@ -6058,8 +6058,8 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -6073,18 +6073,18 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
+      <c r="AA68" s="41"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6117,8 +6117,8 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -6132,18 +6132,18 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6176,8 +6176,8 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -6191,18 +6191,18 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="21"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="41"/>
+      <c r="Z70" s="41"/>
+      <c r="AA70" s="41"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6235,8 +6235,8 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6250,18 +6250,18 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
-      <c r="AA71" s="21"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="41"/>
+      <c r="Z71" s="41"/>
+      <c r="AA71" s="41"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6294,8 +6294,8 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6309,18 +6309,18 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="21"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
+      <c r="AA72" s="41"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6353,8 +6353,8 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6368,18 +6368,18 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-      <c r="AA73" s="21"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="41"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6412,8 +6412,8 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6427,18 +6427,18 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="23"/>
-      <c r="W74" s="23"/>
-      <c r="X74" s="23"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6471,8 +6471,8 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6486,18 +6486,18 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
-      <c r="AA75" s="21"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+      <c r="AA75" s="41"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6530,8 +6530,8 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6545,18 +6545,18 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="21"/>
-      <c r="Z76" s="21"/>
-      <c r="AA76" s="21"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+      <c r="AA76" s="41"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6589,8 +6589,8 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6604,18 +6604,18 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="21"/>
-      <c r="Z77" s="21"/>
-      <c r="AA77" s="21"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
+      <c r="AA77" s="41"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6648,8 +6648,8 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6663,18 +6663,18 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="17"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="21"/>
-      <c r="Z78" s="21"/>
-      <c r="AA78" s="21"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+      <c r="AA78" s="41"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6715,18 +6715,18 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="17"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="23"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="23"/>
-      <c r="W79" s="23"/>
-      <c r="X79" s="23"/>
-      <c r="Y79" s="21"/>
-      <c r="Z79" s="21"/>
-      <c r="AA79" s="21"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="41"/>
+      <c r="Z79" s="41"/>
+      <c r="AA79" s="41"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6767,18 +6767,18 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="21"/>
-      <c r="Z80" s="21"/>
-      <c r="AA80" s="21"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="41"/>
+      <c r="Z80" s="41"/>
+      <c r="AA80" s="41"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6819,18 +6819,18 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="21"/>
-      <c r="AA81" s="21"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
+      <c r="AA81" s="41"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6871,18 +6871,18 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="23"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="21"/>
-      <c r="AA82" s="21"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="43"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="43"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6923,18 +6923,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21"/>
-      <c r="AA83" s="21"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="43"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6975,18 +6975,18 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="17"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="21"/>
-      <c r="AA84" s="21"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7120,170 +7120,251 @@
     </row>
   </sheetData>
   <mergeCells count="433">
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C19:G19"/>
@@ -7308,251 +7389,170 @@
     <mergeCell ref="P22:R22"/>
     <mergeCell ref="S22:U22"/>
     <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="S84:U84"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F63457D-7405-4DDE-8AF9-87C0AEB6633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1CA1F-DD7D-4DB2-B9D6-0D7A13D856D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -916,8 +916,56 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,54 +1022,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1350,159 +1350,159 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:O4"/>
+      <selection pane="bottomLeft" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="3.26953125" style="1"/>
-    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.26953125" style="1"/>
-    <col min="19" max="19" width="4.08984375" style="1" customWidth="1"/>
-    <col min="20" max="27" width="3.26953125" style="1"/>
-    <col min="28" max="29" width="3.26953125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="3.26953125" style="1"/>
-    <col min="33" max="33" width="3.26953125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.26953125" style="1"/>
+    <col min="1" max="14" width="3.25" style="1"/>
+    <col min="15" max="15" width="9.25" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3.25" style="1"/>
+    <col min="19" max="19" width="4.08203125" style="1" customWidth="1"/>
+    <col min="20" max="27" width="3.25" style="1"/>
+    <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
+    <col min="30" max="32" width="3.25" style="1"/>
+    <col min="33" max="33" width="3.25" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="29" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="26">
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="42">
         <v>45078</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="29" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="26">
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="42">
         <v>45107</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="28"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="33" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1627,41 +1627,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1784,33 +1784,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1933,35 +1933,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -1994,43 +1994,43 @@
       <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23">
         <v>45079</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43">
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23">
         <v>45082</v>
       </c>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="41" t="s">
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -2063,43 +2063,43 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="43">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23">
         <v>45079</v>
       </c>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43">
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>45082</v>
       </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="41" t="s">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10"/>
@@ -2132,43 +2132,43 @@
       <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23">
         <v>45079</v>
       </c>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43">
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23">
         <v>45082</v>
       </c>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="41" t="s">
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10"/>
@@ -2201,35 +2201,35 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2262,43 +2262,43 @@
       <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="43">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23">
         <v>45082</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43">
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23">
         <v>45084</v>
       </c>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="41" t="s">
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -2331,43 +2331,43 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="44">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="27">
         <v>45083</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="43">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="23">
         <v>45084</v>
       </c>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="41" t="s">
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2400,43 +2400,43 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23">
         <v>45083</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43">
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23">
         <v>45085</v>
       </c>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="41" t="s">
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2469,35 +2469,35 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2530,41 +2530,41 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="43">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23">
         <v>45085</v>
       </c>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43">
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23">
         <v>45086</v>
       </c>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="41" t="s">
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2597,41 +2597,41 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="43">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23">
         <v>45085</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43">
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23">
         <v>45085</v>
       </c>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="41" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2664,35 +2664,35 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2725,13 +2725,13 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
@@ -2742,26 +2742,26 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="45">
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="28">
         <v>45090</v>
       </c>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="43">
+      <c r="T19" s="28"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="23">
         <v>45093</v>
       </c>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="48">
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="30">
         <v>0.5</v>
       </c>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="36"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2794,13 +2794,13 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
@@ -2811,26 +2811,26 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="46">
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="25">
         <v>45096</v>
       </c>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43">
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23">
         <v>45099</v>
       </c>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="48">
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="30">
         <v>0.1</v>
       </c>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="52"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="32"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2863,13 +2863,13 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2880,26 +2880,26 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="46">
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="25">
         <v>45089</v>
       </c>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="45">
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="28">
         <v>45090</v>
       </c>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="53">
+      <c r="W21" s="28"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="26">
         <v>0.8</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2932,13 +2932,13 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2949,26 +2949,26 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="45">
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="28">
         <v>45090</v>
       </c>
-      <c r="T22" s="45"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="43">
+      <c r="T22" s="28"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="23">
         <v>45093</v>
       </c>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="48">
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="30">
         <v>0.5</v>
       </c>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="32"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -3001,13 +3001,13 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
@@ -3018,26 +3018,26 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="46">
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="25">
         <v>45096</v>
       </c>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43">
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23">
         <v>45099</v>
       </c>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="53">
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="26">
         <v>0.1</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -3070,13 +3070,13 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3087,26 +3087,26 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="46">
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="25">
         <v>45089</v>
       </c>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="45">
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="28">
         <v>45090</v>
       </c>
-      <c r="W24" s="45"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="48">
+      <c r="W24" s="28"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="30">
         <v>0.8</v>
       </c>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="52"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="32"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -3139,13 +3139,13 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="18" t="s">
         <v>77</v>
       </c>
@@ -3156,26 +3156,26 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="55">
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="29">
         <v>45097</v>
       </c>
-      <c r="T25" s="45"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="43">
+      <c r="T25" s="28"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="23">
         <v>45099</v>
       </c>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="53" t="s">
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3208,13 +3208,13 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3225,26 +3225,26 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="46">
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="25">
         <v>45090</v>
       </c>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43">
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23">
         <v>45091</v>
       </c>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="48" t="s">
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="52"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="32"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3277,13 +3277,13 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="14" t="s">
         <v>79</v>
       </c>
@@ -3294,20 +3294,26 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="52"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="28">
+        <v>45091</v>
+      </c>
+      <c r="T27" s="28"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="27">
+        <v>45097</v>
+      </c>
+      <c r="W27" s="28"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3321,13 +3327,13 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
@@ -3340,13 +3346,13 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="14" t="s">
         <v>80</v>
       </c>
@@ -3357,26 +3363,26 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="46">
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="25">
         <v>45091</v>
       </c>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43">
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23">
         <v>45092</v>
       </c>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="41" t="s">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3393,8 +3399,8 @@
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
@@ -3409,8 +3415,8 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3426,20 +3432,26 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="28">
+        <v>45091</v>
+      </c>
+      <c r="T29" s="28"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="27">
+        <v>45097</v>
+      </c>
+      <c r="W29" s="28"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3453,13 +3465,13 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
@@ -3472,8 +3484,8 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3489,26 +3501,26 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="21" t="s">
+      <c r="P30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="46">
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="25">
         <v>45086</v>
       </c>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43">
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23">
         <v>45089</v>
       </c>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="41" t="s">
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3541,8 +3553,8 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3558,26 +3570,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="21" t="s">
+      <c r="P31" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="46">
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="25">
         <v>45097</v>
       </c>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43">
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23">
         <v>45099</v>
       </c>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="41" t="s">
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3610,8 +3622,8 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3627,26 +3639,26 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="21" t="s">
+      <c r="P32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="46">
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="25">
         <v>45086</v>
       </c>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43">
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23">
         <v>45089</v>
       </c>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="41" t="s">
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3679,8 +3691,8 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3696,26 +3708,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="21" t="s">
+      <c r="P33" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="46">
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="25">
         <v>45086</v>
       </c>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43">
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23">
         <v>45089</v>
       </c>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="53" t="s">
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3748,8 +3760,8 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3765,26 +3777,26 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="21" t="s">
+      <c r="P34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="55">
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="29">
         <v>45086</v>
       </c>
-      <c r="T34" s="45"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="43">
+      <c r="T34" s="28"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="23">
         <v>45091</v>
       </c>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="53">
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3817,8 +3829,8 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3834,26 +3846,26 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="21" t="s">
+      <c r="P35" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="46">
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="25">
         <v>45098</v>
       </c>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43">
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23">
         <v>45100</v>
       </c>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="41" t="s">
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3886,8 +3898,8 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3903,20 +3915,26 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="21" t="s">
+      <c r="P36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="29">
+        <v>45086</v>
+      </c>
+      <c r="T36" s="28"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="23">
+        <v>45089</v>
+      </c>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3925,11 +3943,11 @@
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
@@ -3949,8 +3967,8 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -3966,20 +3984,26 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="21" t="s">
+      <c r="P37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="29">
+        <v>45086</v>
+      </c>
+      <c r="T37" s="28"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="23">
+        <v>45089</v>
+      </c>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3988,11 +4012,11 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
@@ -4012,8 +4036,8 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -4029,26 +4053,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="46">
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="25">
         <v>45098</v>
       </c>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43">
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23">
         <v>45100</v>
       </c>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="41" t="s">
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4081,8 +4105,8 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4098,26 +4122,26 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="46">
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="25">
         <v>45092</v>
       </c>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43">
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23">
         <v>45100</v>
       </c>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="41" t="s">
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4150,8 +4174,8 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4167,26 +4191,26 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="21" t="s">
+      <c r="P40" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="46">
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="25">
         <v>45098</v>
       </c>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43">
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23">
         <v>45100</v>
       </c>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="41" t="s">
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4219,8 +4243,8 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4236,26 +4260,26 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="21" t="s">
+      <c r="P41" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="46">
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="25">
         <v>45089</v>
       </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43">
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23">
         <v>45090</v>
       </c>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="53" t="s">
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4288,8 +4312,8 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4305,26 +4329,26 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="21" t="s">
+      <c r="P42" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="46">
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="25">
         <v>45092</v>
       </c>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43">
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23">
         <v>45100</v>
       </c>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="41" t="s">
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4357,8 +4381,8 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4374,26 +4398,26 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="21" t="s">
+      <c r="P43" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="46">
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="25">
         <v>45086</v>
       </c>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43">
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23">
         <v>45092</v>
       </c>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="53">
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4426,8 +4450,8 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4443,26 +4467,26 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="21" t="s">
+      <c r="P44" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="46">
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="25">
         <v>45092</v>
       </c>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43">
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23">
         <v>45089</v>
       </c>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="41" t="s">
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4495,8 +4519,8 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4512,26 +4536,26 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="21" t="s">
+      <c r="P45" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="46">
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="25">
         <v>45090</v>
       </c>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43">
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23">
         <v>45090</v>
       </c>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="41" t="s">
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4564,8 +4588,8 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -4581,26 +4605,26 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="21" t="s">
+      <c r="P46" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="46">
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="25">
         <v>45092</v>
       </c>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="44">
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="27">
         <v>45097</v>
       </c>
-      <c r="W46" s="45"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="41" t="s">
+      <c r="W46" s="28"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4633,8 +4657,8 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -4650,20 +4674,26 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="21" t="s">
+      <c r="P47" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="25">
+        <v>45086</v>
+      </c>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23">
+        <v>45089</v>
+      </c>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4672,12 +4702,12 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
+      <c r="AJ47" s="10"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-      <c r="AN47" s="4"/>
-      <c r="AO47" s="4"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="9"/>
       <c r="AP47" s="4"/>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
@@ -4696,8 +4726,8 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4713,20 +4743,26 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="21" t="s">
+      <c r="P48" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="25">
+        <v>45086</v>
+      </c>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23">
+        <v>45089</v>
+      </c>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4735,10 +4771,10 @@
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
+      <c r="AJ48" s="10"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
+      <c r="AM48" s="10"/>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
@@ -4759,8 +4795,8 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4776,26 +4812,26 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="21" t="s">
+      <c r="P49" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="46">
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="25">
         <v>45096</v>
       </c>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43">
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23">
         <v>45097</v>
       </c>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="41" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4828,8 +4864,8 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -4845,26 +4881,26 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="21" t="s">
+      <c r="P50" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="43">
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="23">
         <v>45092</v>
       </c>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43">
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23">
         <v>45100</v>
       </c>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="41" t="s">
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4897,8 +4933,8 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -4914,26 +4950,26 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="21" t="s">
+      <c r="P51" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="46">
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="25">
         <v>45092</v>
       </c>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="44">
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="27">
         <v>45097</v>
       </c>
-      <c r="W51" s="45"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="41" t="s">
+      <c r="W51" s="28"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4966,8 +5002,8 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -4983,26 +5019,26 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="21" t="s">
+      <c r="P52" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="46">
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="25">
         <v>45090</v>
       </c>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43">
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23">
         <v>45092</v>
       </c>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="41" t="s">
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5035,8 +5071,8 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -5052,20 +5088,26 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="21" t="s">
+      <c r="P53" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="25">
+        <v>45089</v>
+      </c>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23">
+        <v>45089</v>
+      </c>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5077,7 +5119,7 @@
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
       <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
+      <c r="AM53" s="10"/>
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
       <c r="AP53" s="4"/>
@@ -5098,8 +5140,8 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -5115,26 +5157,26 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="21" t="s">
+      <c r="P54" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="46">
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="25">
         <v>45086</v>
       </c>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43">
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23">
         <v>45092</v>
       </c>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="53">
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5167,8 +5209,8 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -5184,26 +5226,26 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="21" t="s">
+      <c r="P55" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="46">
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="25">
         <v>45098</v>
       </c>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43">
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23">
         <v>45100</v>
       </c>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="41" t="s">
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5236,8 +5278,8 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -5253,26 +5295,26 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="21" t="s">
+      <c r="P56" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="46">
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="25">
         <v>45086</v>
       </c>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43">
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23">
         <v>45089</v>
       </c>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="53" t="s">
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5305,8 +5347,8 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -5322,26 +5364,26 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="21" t="s">
+      <c r="P57" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="46">
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="25">
         <v>45090</v>
       </c>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43">
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23">
         <v>45091</v>
       </c>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="53">
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="26">
         <v>0.9</v>
       </c>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5374,8 +5416,8 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -5391,26 +5433,26 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="21" t="s">
+      <c r="P58" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="46">
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="25">
         <v>45092</v>
       </c>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43">
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23">
         <v>45097</v>
       </c>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="41" t="s">
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5443,8 +5485,8 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -5460,20 +5502,26 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="21" t="s">
+      <c r="P59" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="25">
+        <v>45086</v>
+      </c>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23">
+        <v>45089</v>
+      </c>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5482,10 +5530,10 @@
       <c r="AG59" s="4"/>
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
+      <c r="AJ59" s="10"/>
       <c r="AK59" s="4"/>
       <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
+      <c r="AM59" s="10"/>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
       <c r="AP59" s="4"/>
@@ -5506,8 +5554,8 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -5523,26 +5571,26 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="21" t="s">
+      <c r="P60" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="46">
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="25">
         <v>45096</v>
       </c>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43">
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23">
         <v>45097</v>
       </c>
-      <c r="W60" s="43"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="41" t="s">
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5575,8 +5623,8 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5592,26 +5640,26 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="21" t="s">
+      <c r="P61" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="46">
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="25">
         <v>45092</v>
       </c>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43">
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23">
         <v>45100</v>
       </c>
-      <c r="W61" s="43"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="41" t="s">
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5644,8 +5692,8 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -5661,26 +5709,26 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="17"/>
-      <c r="P62" s="21" t="s">
+      <c r="P62" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="46">
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="25">
         <v>45092</v>
       </c>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43">
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23">
         <v>45097</v>
       </c>
-      <c r="W62" s="43"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="41" t="s">
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z62" s="41"/>
-      <c r="AA62" s="41"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5713,8 +5761,8 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5730,26 +5778,26 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="21" t="s">
+      <c r="P63" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="46">
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="25">
         <v>45086</v>
       </c>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43">
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23">
         <v>45090</v>
       </c>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="53" t="s">
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="41"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5782,8 +5830,8 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5799,26 +5847,26 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="21" t="s">
+      <c r="P64" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="46">
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="25">
         <v>45092</v>
       </c>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43">
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23">
         <v>45100</v>
       </c>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="41" t="s">
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5851,8 +5899,8 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5868,26 +5916,26 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="21" t="s">
+      <c r="P65" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="46">
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="25">
         <v>45086</v>
       </c>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43">
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23">
         <v>45092</v>
       </c>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="53">
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="26">
         <v>0.7</v>
       </c>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5920,8 +5968,8 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5937,26 +5985,26 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="17"/>
-      <c r="P66" s="21" t="s">
+      <c r="P66" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="46">
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="25">
         <v>45086</v>
       </c>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43">
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23">
         <v>45089</v>
       </c>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="53" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5989,8 +6037,8 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -6006,26 +6054,26 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="21" t="s">
+      <c r="P67" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="46">
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="25">
         <v>45086</v>
       </c>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43">
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23">
         <v>45091</v>
       </c>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="53" t="s">
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6058,8 +6106,8 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -6073,18 +6121,18 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="41"/>
-      <c r="Z68" s="41"/>
-      <c r="AA68" s="41"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6117,8 +6165,8 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -6132,18 +6180,18 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6176,8 +6224,8 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -6191,18 +6239,18 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="41"/>
-      <c r="Z70" s="41"/>
-      <c r="AA70" s="41"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6235,8 +6283,8 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6250,18 +6298,18 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="42"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="41"/>
-      <c r="Z71" s="41"/>
-      <c r="AA71" s="41"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6294,8 +6342,8 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6309,18 +6357,18 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="41"/>
-      <c r="AA72" s="41"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6353,8 +6401,8 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6368,18 +6416,18 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6412,8 +6460,8 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6427,18 +6475,18 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="41"/>
-      <c r="AA74" s="41"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6471,8 +6519,8 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6486,18 +6534,18 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6530,8 +6578,8 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6545,18 +6593,18 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6589,8 +6637,8 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6604,18 +6652,18 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="21"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6648,8 +6696,8 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6663,18 +6711,18 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="17"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="42"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="41"/>
-      <c r="Z78" s="41"/>
-      <c r="AA78" s="41"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6715,18 +6763,18 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="17"/>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="42"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="41"/>
-      <c r="Z79" s="41"/>
-      <c r="AA79" s="41"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6767,18 +6815,18 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="41"/>
-      <c r="Z80" s="41"/>
-      <c r="AA80" s="41"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6819,18 +6867,18 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="41"/>
-      <c r="Z81" s="41"/>
-      <c r="AA81" s="41"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6871,18 +6919,18 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6923,18 +6971,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="42"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="43"/>
-      <c r="Y83" s="41"/>
-      <c r="Z83" s="41"/>
-      <c r="AA83" s="41"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6975,18 +7023,18 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="17"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
-      <c r="AA84" s="41"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7120,39 +7168,382 @@
     </row>
   </sheetData>
   <mergeCells count="433">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
     <mergeCell ref="P83:R83"/>
     <mergeCell ref="S83:U83"/>
     <mergeCell ref="V83:X83"/>
@@ -7177,382 +7568,39 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD97DF-927B-4746-91AB-89374DCAAAE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E32CE2B-415C-4586-842E-1F562C93009A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -629,15 +629,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,19 +645,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,52 +669,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1007,8 +966,8 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1020,24 +979,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2">
@@ -1132,32 +1091,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1175,10 +1134,10 @@
       <c r="Q2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="10" t="s">
         <v>78</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -1196,10 +1155,10 @@
       <c r="X2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="10" t="s">
         <v>78</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -1217,10 +1176,10 @@
       <c r="AE2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="10" t="s">
         <v>78</v>
       </c>
       <c r="AH2" s="2" t="s">
@@ -1241,18 +1200,18 @@
     </row>
     <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1283,28 +1242,28 @@
     </row>
     <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>45079</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>45082</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="13"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1333,28 +1292,28 @@
     </row>
     <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>45079</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>45082</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="13"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1383,28 +1342,28 @@
     </row>
     <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>45079</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>45082</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="13"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1433,18 +1392,18 @@
     </row>
     <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1475,30 +1434,30 @@
     </row>
     <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>45082</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>45084</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1525,30 +1484,30 @@
     </row>
     <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>45083</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>45084</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1575,31 +1534,31 @@
     </row>
     <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>45083</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>45085</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1625,18 +1584,18 @@
     </row>
     <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1667,32 +1626,32 @@
     </row>
     <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>45085</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>45086</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1717,31 +1676,31 @@
     </row>
     <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>45085</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>45085</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1767,18 +1726,18 @@
     </row>
     <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1813,34 +1772,34 @@
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>45086</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>45089</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="14"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1865,34 +1824,34 @@
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>45086</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>45089</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1917,34 +1876,34 @@
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>45086</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>45089</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="14"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -1975,30 +1934,30 @@
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>45086</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>45089</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2027,30 +1986,30 @@
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>45086</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>45089</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -2073,36 +2032,36 @@
       <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>45086</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>45089</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="13"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -2125,36 +2084,36 @@
       <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>45086</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>45089</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2177,33 +2136,33 @@
       <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>45086</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>45089</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="13"/>
+      <c r="T22" s="11"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2235,27 +2194,27 @@
       <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>45086</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>45089</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="13"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="13"/>
+      <c r="T23" s="11"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2287,27 +2246,27 @@
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>45086</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>45089</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="13"/>
+      <c r="T24" s="11"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2339,28 +2298,28 @@
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>45086</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>45090</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="13"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -2385,35 +2344,35 @@
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>45086</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>45091</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>0.3</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -2443,29 +2402,29 @@
       <c r="E27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>45086</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>45091</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="13"/>
+      <c r="Q27" s="11"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -2495,30 +2454,30 @@
       <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>45086</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>45092</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>0.5</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="13"/>
+      <c r="Q28" s="11"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -2541,36 +2500,36 @@
       <c r="C29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>45086</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>45092</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>0.5</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="13"/>
+      <c r="Q29" s="11"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -2599,30 +2558,30 @@
       <c r="E30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>45086</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>45092</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>0.7</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="13"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
@@ -2645,24 +2604,24 @@
       <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>45089</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>45089</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2671,8 +2630,8 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="14"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="12"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -2703,18 +2662,18 @@
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>45089</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>45090</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>0.8</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2723,8 +2682,8 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -2746,27 +2705,27 @@
     <row r="33" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>45089</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>45090</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>0.8</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2775,8 +2734,8 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -2807,18 +2766,18 @@
       <c r="E34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>45089</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>45090</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2827,8 +2786,8 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -2859,18 +2818,18 @@
       <c r="E35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>45089</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>45092</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2880,7 +2839,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="13"/>
+      <c r="U35" s="11"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -2911,18 +2870,18 @@
       <c r="E36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>45090</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>45090</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2932,8 +2891,8 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -2957,24 +2916,24 @@
       <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>45090</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>45091</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2984,8 +2943,8 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -3009,24 +2968,24 @@
       <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>45090</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>45091</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>0.9</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3036,9 +2995,9 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -3061,24 +3020,24 @@
       <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>45090</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>45092</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3088,10 +3047,10 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -3110,27 +3069,27 @@
     <row r="40" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>45090</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>45093</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>0.5</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3140,10 +3099,10 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
@@ -3162,27 +3121,27 @@
     <row r="41" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>45090</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>45093</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>0.5</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3193,8 +3152,8 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -3217,24 +3176,24 @@
       <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>45091</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>45092</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3245,13 +3204,13 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -3269,24 +3228,24 @@
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>45091</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>45097</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3297,13 +3256,13 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -3321,24 +3280,24 @@
       <c r="C44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>45091</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>45097</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3347,15 +3306,15 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -3370,27 +3329,27 @@
     <row r="45" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>45092</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>45097</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3402,12 +3361,12 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -3425,24 +3384,24 @@
       <c r="C46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>45092</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>45097</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3454,12 +3413,12 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -3483,18 +3442,18 @@
       <c r="E47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>45092</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>45097</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3506,12 +3465,12 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -3535,18 +3494,18 @@
       <c r="E48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>45092</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>45097</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3558,12 +3517,12 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -3587,18 +3546,18 @@
       <c r="E49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>45092</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>45100</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3610,15 +3569,15 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="13"/>
+      <c r="W49" s="11"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -3639,18 +3598,18 @@
       <c r="E50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>45092</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>45100</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3662,15 +3621,15 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="13"/>
+      <c r="W50" s="11"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -3685,24 +3644,24 @@
       <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>45092</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>45100</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3714,15 +3673,15 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="13"/>
+      <c r="W51" s="11"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -3743,18 +3702,18 @@
       <c r="E52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>45092</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>45100</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="10"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3766,15 +3725,15 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="13"/>
+      <c r="W52" s="11"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
@@ -3795,18 +3754,18 @@
       <c r="E53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>45092</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>45100</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="10"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3818,15 +3777,15 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="13"/>
+      <c r="W53" s="11"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="13"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -3841,24 +3800,24 @@
       <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>45096</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>45097</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="10"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3874,8 +3833,8 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -3899,18 +3858,18 @@
       <c r="E55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>45096</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>45097</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="10"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3926,11 +3885,11 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -3942,27 +3901,27 @@
     <row r="56" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>45096</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>45099</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <v>0.1</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3978,10 +3937,10 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
@@ -3994,27 +3953,27 @@
     <row r="57" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>45096</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>45099</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <v>0.1</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="10"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -4030,10 +3989,10 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
@@ -4046,27 +4005,27 @@
     <row r="58" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>45097</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>45099</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="10"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -4083,9 +4042,9 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
@@ -4101,24 +4060,24 @@
       <c r="C59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>45097</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>45099</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="10"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -4135,9 +4094,9 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
@@ -4159,18 +4118,18 @@
       <c r="E60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>45098</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>45100</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="10"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -4188,9 +4147,9 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -4211,18 +4170,18 @@
       <c r="E61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>45098</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>45100</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="10"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -4240,9 +4199,9 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -4263,18 +4222,18 @@
       <c r="E62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>45098</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>45100</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="10"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4292,9 +4251,9 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -4309,24 +4268,24 @@
       <c r="C63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>45098</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>45100</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="10"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4344,9 +4303,9 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -4362,12 +4321,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E32CE2B-415C-4586-842E-1F562C93009A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55020DAD-72FC-4A63-9971-32D91BA4D12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -965,17 +965,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.58203125" customWidth="1"/>
+    <col min="9" max="38" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1240,7 +1240,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1290,7 +1290,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1340,7 +1340,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1390,7 +1390,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1432,7 +1432,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1482,7 +1482,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1532,7 +1532,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1582,7 +1582,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1624,7 +1624,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1674,7 +1674,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1724,7 +1724,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1922,7 +1922,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -1974,7 +1974,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -2182,7 +2182,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -2234,7 +2234,7 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
     </row>
-    <row r="24" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -2286,7 +2286,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
@@ -2357,7 +2357,7 @@
         <v>45091</v>
       </c>
       <c r="H26" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2390,7 +2390,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -2442,7 +2442,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -2546,7 +2546,7 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -2650,7 +2650,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -2754,7 +2754,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
@@ -2806,7 +2806,7 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -2858,7 +2858,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -2874,7 +2874,7 @@
         <v>45090</v>
       </c>
       <c r="G36" s="5">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>15</v>
@@ -2997,7 +2997,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -3049,8 +3049,8 @@
       <c r="T39" s="1"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -3365,8 +3365,8 @@
       <c r="X45" s="11"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -3413,8 +3413,8 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="11"/>
@@ -3430,7 +3430,7 @@
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
     </row>
-    <row r="47" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
@@ -3469,8 +3469,8 @@
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -3482,7 +3482,7 @@
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
     </row>
-    <row r="48" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -3517,8 +3517,8 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="11"/>
@@ -3534,7 +3534,7 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -3586,7 +3586,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -3690,7 +3690,7 @@
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
     </row>
-    <row r="52" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -3742,7 +3742,7 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -3846,7 +3846,7 @@
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
     </row>
-    <row r="55" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -4015,10 +4015,10 @@
         <v>23</v>
       </c>
       <c r="F58" s="5">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G58" s="5">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>28</v>
@@ -4037,14 +4037,14 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
@@ -4067,10 +4067,10 @@
         <v>23</v>
       </c>
       <c r="F59" s="5">
+        <v>45096</v>
+      </c>
+      <c r="G59" s="5">
         <v>45097</v>
-      </c>
-      <c r="G59" s="5">
-        <v>45099</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>28</v>
@@ -4093,7 +4093,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
+      <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
@@ -4106,7 +4106,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -4158,7 +4158,7 @@
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
     </row>
-    <row r="61" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -4210,7 +4210,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -4275,10 +4275,10 @@
         <v>23</v>
       </c>
       <c r="F63" s="5">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G63" s="5">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>28</v>
@@ -4296,16 +4296,16 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55020DAD-72FC-4A63-9971-32D91BA4D12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDCED1-6E32-454D-A4A3-CF796D37365D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="83">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -966,16 +966,16 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.54296875" customWidth="1"/>
+    <col min="9" max="38" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1240,7 +1240,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1290,7 +1290,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1340,7 +1340,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1390,7 +1390,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1432,7 +1432,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1482,7 +1482,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1532,7 +1532,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1582,7 +1582,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1624,7 +1624,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1674,7 +1674,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1724,7 +1724,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1770,13 +1770,13 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="5">
         <v>45086</v>
@@ -1818,14 +1818,14 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -1834,10 +1834,10 @@
         <v>45086</v>
       </c>
       <c r="G16" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>45092</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.5</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1874,22 +1874,22 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F17" s="5">
         <v>45086</v>
       </c>
       <c r="G17" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
+        <v>45092</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.5</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1922,26 +1922,26 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18" s="5">
         <v>45086</v>
       </c>
       <c r="G18" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
+        <v>45092</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.7</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1974,26 +1974,26 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G19" s="5">
-        <v>45089</v>
+        <v>45100</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2026,26 +2026,26 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G20" s="5">
-        <v>45089</v>
+        <v>45100</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2082,22 +2082,22 @@
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G21" s="5">
-        <v>45089</v>
+        <v>45100</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2130,26 +2130,26 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F22" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G22" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>15</v>
+        <v>45100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2182,26 +2182,26 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G23" s="5">
-        <v>45089</v>
+        <v>45100</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2234,17 +2234,17 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
     </row>
-    <row r="24" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F24" s="5">
         <v>45086</v>
@@ -2252,7 +2252,7 @@
       <c r="G24" s="5">
         <v>45089</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="7"/>
@@ -2286,7 +2286,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
@@ -2338,26 +2338,26 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F26" s="5">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="G26" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.5</v>
+        <v>45090</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2390,26 +2390,26 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F27" s="5">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G27" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>15</v>
+        <v>45092</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2442,26 +2442,26 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G28" s="5">
-        <v>45092</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.5</v>
+        <v>45097</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -2498,22 +2498,22 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G29" s="5">
-        <v>45092</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0.5</v>
+        <v>45097</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2546,26 +2546,26 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G30" s="5">
-        <v>45092</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.7</v>
+        <v>45097</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2598,26 +2598,26 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="5">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G31" s="5">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2650,26 +2650,26 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F32" s="5">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G32" s="5">
-        <v>45090</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.8</v>
+        <v>45100</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2702,26 +2702,26 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>34</v>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F33" s="5">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G33" s="5">
-        <v>45090</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0.8</v>
+        <v>45100</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2754,11 +2754,11 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>42</v>
@@ -2767,13 +2767,13 @@
         <v>26</v>
       </c>
       <c r="F34" s="5">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G34" s="5">
-        <v>45090</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>15</v>
+        <v>45100</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -2806,26 +2806,26 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="5">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G35" s="5">
-        <v>45092</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>15</v>
+        <v>45091</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.5</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -2858,25 +2858,25 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="5">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G36" s="5">
         <v>45091</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="7"/>
@@ -2910,17 +2910,17 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="5">
         <v>45090</v>
@@ -2928,8 +2928,8 @@
       <c r="G37" s="5">
         <v>45091</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>28</v>
+      <c r="H37" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -3018,16 +3018,16 @@
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F39" s="5">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G39" s="5">
         <v>45092</v>
@@ -3070,22 +3070,22 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" s="5">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G40" s="5">
         <v>45093</v>
       </c>
-      <c r="H40" s="6">
-        <v>0.5</v>
+      <c r="H40" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -3121,23 +3121,23 @@
     <row r="41" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
-        <v>38</v>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" s="5">
-        <v>45090</v>
+        <v>45096</v>
       </c>
       <c r="G41" s="5">
-        <v>45093</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.5</v>
+        <v>45097</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -3174,7 +3174,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>41</v>
@@ -3183,13 +3183,13 @@
         <v>24</v>
       </c>
       <c r="F42" s="5">
+        <v>45086</v>
+      </c>
+      <c r="G42" s="5">
         <v>45091</v>
       </c>
-      <c r="G42" s="5">
-        <v>45092</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>28</v>
+      <c r="H42" s="6">
+        <v>0.9</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -3199,18 +3199,18 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="Q42" s="11"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -3226,22 +3226,22 @@
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G43" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>28</v>
+        <v>45089</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -3251,18 +3251,18 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="11"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -3274,26 +3274,26 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G44" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>28</v>
+        <v>45089</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3303,18 +3303,18 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="11"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="12"/>
+      <c r="T44" s="11"/>
       <c r="U44" s="12"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -3326,26 +3326,26 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>43</v>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G45" s="5">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -3355,18 +3355,18 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="Q45" s="11"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -3382,21 +3382,21 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G46" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H46" s="4" t="s">
+        <v>45093</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="7"/>
@@ -3412,7 +3412,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="V46" s="11"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
@@ -3430,23 +3430,23 @@
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
     </row>
-    <row r="47" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G47" s="5">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>28</v>
@@ -3464,7 +3464,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="V47" s="11"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
@@ -3482,20 +3482,20 @@
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
     </row>
-    <row r="48" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G48" s="5">
         <v>45097</v>
@@ -3517,8 +3517,8 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="11"/>
@@ -3534,23 +3534,23 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G49" s="5">
-        <v>45100</v>
+        <v>45097</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>28</v>
@@ -3569,7 +3569,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="11"/>
+      <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -3586,26 +3586,26 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F50" s="5">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="G50" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>28</v>
+        <v>45090</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.8</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -3641,23 +3641,23 @@
     <row r="51" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>63</v>
+      <c r="C51" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F51" s="5">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="G51" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>28</v>
+        <v>45090</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.8</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -3690,26 +3690,26 @@
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
     </row>
-    <row r="52" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>44</v>
+      <c r="C52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F52" s="5">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G52" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>28</v>
+        <v>45093</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.5</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -3742,26 +3742,26 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>44</v>
+      <c r="C53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F53" s="5">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G53" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>28</v>
+        <v>45093</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.5</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -3797,23 +3797,23 @@
     <row r="54" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>62</v>
+      <c r="C54" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F54" s="5">
         <v>45096</v>
       </c>
       <c r="G54" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>28</v>
+        <v>45099</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.1</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -3846,26 +3846,26 @@
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
     </row>
-    <row r="55" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>44</v>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F55" s="5">
         <v>45096</v>
       </c>
       <c r="G55" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>28</v>
+        <v>45099</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.1</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -3898,26 +3898,26 @@
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
     </row>
-    <row r="56" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>33</v>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F56" s="5">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G56" s="5">
-        <v>45099</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0.1</v>
+        <v>45089</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -3950,26 +3950,26 @@
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
     </row>
-    <row r="57" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>34</v>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F57" s="5">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G57" s="5">
-        <v>45099</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0.1</v>
+        <v>45089</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -4005,23 +4005,23 @@
     <row r="58" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
-        <v>45</v>
+      <c r="C58" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F58" s="5">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G58" s="5">
-        <v>45093</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>28</v>
+        <v>45089</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -4058,22 +4058,22 @@
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F59" s="5">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G59" s="5">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -4106,26 +4106,26 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F60" s="5">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G60" s="5">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -4158,26 +4158,26 @@
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
     </row>
-    <row r="61" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F61" s="5">
-        <v>45098</v>
+        <v>45089</v>
       </c>
       <c r="G61" s="5">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -4210,23 +4210,23 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F62" s="5">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G62" s="5">
-        <v>45100</v>
+        <v>45097</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>28</v>
@@ -4266,19 +4266,19 @@
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F63" s="5">
         <v>45091</v>
       </c>
       <c r="G63" s="5">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>28</v>
@@ -4317,7 +4317,7 @@
   </sheetData>
   <autoFilter ref="C14:H63" xr:uid="{0314EF94-B00C-4FDB-B4F4-32C0BF4EEB5E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:H63">
-      <sortCondition ref="F14:F63"/>
+      <sortCondition ref="E14:E63"/>
     </sortState>
   </autoFilter>
   <mergeCells count="6">
@@ -4330,5 +4330,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDCED1-6E32-454D-A4A3-CF796D37365D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1DF3DF-E306-4764-9670-B07E4C68D35F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3417,8 +3417,8 @@
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -3469,8 +3469,8 @@
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1DF3DF-E306-4764-9670-B07E4C68D35F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF92A2-4B68-4CCA-B99F-B8FB8FC68968}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD49"/>
+      <selection pane="bottomLeft" activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3575,9 +3575,9 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF92A2-4B68-4CCA-B99F-B8FB8FC68968}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883B306-6D1E-4419-A437-505C528FDFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -966,8 +966,8 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA48" sqref="AA48"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1837,7 +1837,7 @@
         <v>45092</v>
       </c>
       <c r="H16" s="6">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1888,8 +1888,8 @@
       <c r="G17" s="5">
         <v>45092</v>
       </c>
-      <c r="H17" s="6">
-        <v>0.5</v>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1941,7 +1941,7 @@
         <v>45092</v>
       </c>
       <c r="H18" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883B306-6D1E-4419-A437-505C528FDFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B87ADDA-9B03-4EBB-8EE6-EBC7C3FF6968}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$14:$H$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$14:$AL$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="84">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -522,6 +522,13 @@
   </si>
   <si>
     <t>土</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +603,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF89C4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +710,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,8 +1033,8 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1769,13 +1836,13 @@
     <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="5">
@@ -1821,13 +1888,13 @@
     <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="5">
@@ -1873,13 +1940,13 @@
     <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="5">
@@ -1925,13 +1992,13 @@
     <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="5">
@@ -1977,13 +2044,13 @@
     <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="5">
@@ -2029,13 +2096,13 @@
     <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="5">
@@ -2081,13 +2148,13 @@
     <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="5">
@@ -2133,13 +2200,13 @@
     <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="5">
@@ -2185,13 +2252,13 @@
     <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="5">
@@ -2237,13 +2304,13 @@
     <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="5">
@@ -2289,13 +2356,13 @@
     <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="5">
@@ -2341,13 +2408,13 @@
     <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5">
@@ -2393,13 +2460,13 @@
     <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="5">
@@ -2445,13 +2512,13 @@
     <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="5">
@@ -2497,13 +2564,13 @@
     <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="5">
@@ -2549,13 +2616,13 @@
     <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="5">
@@ -2601,13 +2668,13 @@
     <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5">
@@ -2653,13 +2720,13 @@
     <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="5">
@@ -2705,13 +2772,13 @@
     <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="5">
@@ -2757,13 +2824,13 @@
     <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="5">
@@ -2809,13 +2876,13 @@
     <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="5">
@@ -2861,13 +2928,13 @@
     <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="5">
@@ -2913,13 +2980,13 @@
     <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="5">
@@ -2965,13 +3032,13 @@
     <row r="38" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="5">
@@ -3017,13 +3084,13 @@
     <row r="39" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="5">
@@ -3069,13 +3136,13 @@
     <row r="40" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="5">
@@ -3121,13 +3188,13 @@
     <row r="41" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="5">
@@ -3173,23 +3240,23 @@
     <row r="42" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="C42" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
         <v>45086</v>
       </c>
       <c r="G42" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0.9</v>
+        <v>45089</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -3203,8 +3270,8 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
@@ -3222,16 +3289,16 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="C43" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="5">
@@ -3277,13 +3344,13 @@
     <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
@@ -3292,7 +3359,7 @@
       <c r="G44" s="5">
         <v>45089</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="7"/>
@@ -3326,26 +3393,26 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
         <v>45086</v>
       </c>
       <c r="G45" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>45091</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -3359,8 +3426,8 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
@@ -3381,13 +3448,13 @@
     <row r="46" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
@@ -3433,13 +3500,13 @@
     <row r="47" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
@@ -3485,13 +3552,13 @@
     <row r="48" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
@@ -3518,7 +3585,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
+      <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="11"/>
@@ -3537,13 +3604,13 @@
     <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
@@ -3570,7 +3637,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
+      <c r="X49" s="11"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="11"/>
@@ -3589,13 +3656,13 @@
     <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="5">
@@ -3641,13 +3708,13 @@
     <row r="51" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="5">
@@ -3693,13 +3760,13 @@
     <row r="52" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="5">
@@ -3745,13 +3812,13 @@
     <row r="53" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="5">
@@ -3797,13 +3864,13 @@
     <row r="54" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="5">
@@ -3849,13 +3916,13 @@
     <row r="55" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="5">
@@ -4315,9 +4382,9 @@
       <c r="AL63" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C14:H63" xr:uid="{0314EF94-B00C-4FDB-B4F4-32C0BF4EEB5E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:H63">
-      <sortCondition ref="E14:E63"/>
+  <autoFilter ref="C14:AL14" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AL63">
+      <sortCondition ref="E14"/>
     </sortState>
   </autoFilter>
   <mergeCells count="6">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B87ADDA-9B03-4EBB-8EE6-EBC7C3FF6968}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFB725-AA5A-41B2-BBEF-1B9E334819CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -709,9 +709,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,6 +737,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1033,8 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X49" sqref="X49"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1046,24 +1046,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2">
@@ -1158,22 +1158,22 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1836,13 +1836,13 @@
     <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="5">
@@ -1888,13 +1888,13 @@
     <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="5">
@@ -1940,13 +1940,13 @@
     <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="5">
@@ -1992,13 +1992,13 @@
     <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="5">
@@ -2044,13 +2044,13 @@
     <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="5">
@@ -2096,13 +2096,13 @@
     <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="5">
@@ -2148,13 +2148,13 @@
     <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="5">
@@ -2200,13 +2200,13 @@
     <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="5">
@@ -2252,13 +2252,13 @@
     <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="5">
@@ -2304,13 +2304,13 @@
     <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="5">
@@ -2356,13 +2356,13 @@
     <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="5">
@@ -2408,13 +2408,13 @@
     <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5">
@@ -2434,12 +2434,12 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="11"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -2460,13 +2460,13 @@
     <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="5">
@@ -2486,13 +2486,13 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="11"/>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="11"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="1"/>
+      <c r="W27" s="11"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -2512,13 +2512,13 @@
     <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="5">
@@ -2538,18 +2538,18 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="11"/>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="1"/>
+      <c r="X28" s="11"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -2564,13 +2564,13 @@
     <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="5">
@@ -2590,18 +2590,18 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="11"/>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="1"/>
+      <c r="X29" s="11"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -2616,13 +2616,13 @@
     <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="5">
@@ -2642,18 +2642,18 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="11"/>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="1"/>
+      <c r="X30" s="11"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -2668,13 +2668,13 @@
     <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5">
@@ -2697,15 +2697,15 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="11"/>
+      <c r="T31" s="1"/>
       <c r="U31" s="12"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -2720,13 +2720,13 @@
     <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="5">
@@ -2749,8 +2749,8 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -2758,9 +2758,9 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -2772,13 +2772,13 @@
     <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="5">
@@ -2801,8 +2801,8 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -2810,9 +2810,9 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -2824,13 +2824,13 @@
     <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="5">
@@ -2853,8 +2853,8 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -2862,9 +2862,9 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -2876,13 +2876,13 @@
     <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="5">
@@ -2928,13 +2928,13 @@
     <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="5">
@@ -2980,13 +2980,13 @@
     <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="5">
@@ -3032,13 +3032,13 @@
     <row r="38" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="5">
@@ -3084,13 +3084,13 @@
     <row r="39" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="5">
@@ -3136,13 +3136,13 @@
     <row r="40" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="5">
@@ -3188,13 +3188,13 @@
     <row r="41" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="5">
@@ -3240,13 +3240,13 @@
     <row r="42" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
@@ -3292,13 +3292,13 @@
     <row r="43" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="5">
@@ -3344,13 +3344,13 @@
     <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
@@ -3396,13 +3396,13 @@
     <row r="45" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
@@ -3448,13 +3448,13 @@
     <row r="46" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
@@ -3500,13 +3500,13 @@
     <row r="47" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
@@ -3552,13 +3552,13 @@
     <row r="48" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
@@ -3604,13 +3604,13 @@
     <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
@@ -3656,13 +3656,13 @@
     <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="5">
@@ -3708,13 +3708,13 @@
     <row r="51" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="5">
@@ -3760,13 +3760,13 @@
     <row r="52" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="5">
@@ -3812,13 +3812,13 @@
     <row r="53" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="5">
@@ -3864,13 +3864,13 @@
     <row r="54" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="5">
@@ -3916,13 +3916,13 @@
     <row r="55" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="5">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFB725-AA5A-41B2-BBEF-1B9E334819CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD97670-94AA-4997-A8E2-08C66585A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$14:$AL$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$14:$AL$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1034,7 +1034,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1863,8 +1863,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="12"/>
       <c r="V15" s="1"/>
@@ -1901,7 +1901,7 @@
         <v>45086</v>
       </c>
       <c r="G16" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="H16" s="6">
         <v>0.9</v>
@@ -1915,11 +1915,11 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="1"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -1953,7 +1953,7 @@
         <v>45086</v>
       </c>
       <c r="G17" s="5">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>15</v>
@@ -1967,10 +1967,10 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
+      <c r="U17" s="11"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -2005,7 +2005,7 @@
         <v>45086</v>
       </c>
       <c r="G18" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="H18" s="6">
         <v>0.9</v>
@@ -2019,12 +2019,12 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2070,21 +2070,21 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="11"/>
+      <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -2122,21 +2122,21 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="11"/>
+      <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -2158,7 +2158,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G21" s="5">
         <v>45100</v>
@@ -2174,21 +2174,21 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="11"/>
+      <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -2210,7 +2210,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G22" s="5">
         <v>45100</v>
@@ -2226,21 +2226,21 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -2278,21 +2278,21 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="12"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -4382,7 +4382,7 @@
       <c r="AL63" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C14:AL14" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
+  <autoFilter ref="C14:AL63" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AL63">
       <sortCondition ref="E14"/>
     </sortState>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFB725-AA5A-41B2-BBEF-1B9E334819CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF24D498-4E40-462A-9A26-A4C01C31F615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1032,17 +1032,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.5" customWidth="1"/>
+    <col min="9" max="38" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1307,7 +1307,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1357,7 +1357,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1407,7 +1407,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1457,7 +1457,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1499,7 +1499,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1549,7 +1549,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1599,7 +1599,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1649,7 +1649,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1691,7 +1691,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1741,7 +1741,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1791,7 +1791,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1885,7 +1885,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
@@ -1989,7 +1989,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14" t="s">
@@ -2041,7 +2041,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
@@ -2093,7 +2093,7 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14" t="s">
@@ -2197,7 +2197,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
@@ -2249,7 +2249,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14" t="s">
@@ -2353,7 +2353,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="16" t="s">
@@ -2405,7 +2405,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="16" t="s">
@@ -2613,7 +2613,7 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="16" t="s">
@@ -2665,7 +2665,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -2717,7 +2717,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -2769,7 +2769,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -2821,7 +2821,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -2892,7 +2892,7 @@
         <v>45091</v>
       </c>
       <c r="H35" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -2902,12 +2902,12 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="11"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -2925,7 +2925,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18" t="s">
@@ -2977,7 +2977,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="18" t="s">
@@ -3047,8 +3047,8 @@
       <c r="G38" s="5">
         <v>45091</v>
       </c>
-      <c r="H38" s="6">
-        <v>0.9</v>
+      <c r="H38" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -3094,10 +3094,10 @@
         <v>23</v>
       </c>
       <c r="F39" s="5">
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="G39" s="5">
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>28</v>
@@ -3114,16 +3114,16 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -3166,8 +3166,8 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="1"/>
@@ -3219,13 +3219,12 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
+      <c r="V41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -3289,7 +3288,7 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="20" t="s">
@@ -3341,7 +3340,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="20" t="s">
@@ -3601,7 +3600,7 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="20" t="s">
@@ -3653,7 +3652,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="22" t="s">
@@ -3965,7 +3964,7 @@
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
     </row>
-    <row r="56" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -4017,7 +4016,7 @@
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
     </row>
-    <row r="57" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -4173,7 +4172,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF24D498-4E40-462A-9A26-A4C01C31F615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E8F878-93A8-4D99-B3C5-1A1D05520587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="620" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -1032,17 +1032,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.453125" customWidth="1"/>
+    <col min="9" max="38" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1307,7 +1307,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1357,7 +1357,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1407,7 +1407,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1457,7 +1457,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1499,7 +1499,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1549,7 +1549,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1599,7 +1599,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1649,7 +1649,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1691,7 +1691,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1741,7 +1741,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1791,7 +1791,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1885,7 +1885,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
@@ -1989,7 +1989,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14" t="s">
@@ -2041,7 +2041,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
@@ -2093,7 +2093,7 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14" t="s">
@@ -2197,7 +2197,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
@@ -2249,7 +2249,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14" t="s">
@@ -2353,7 +2353,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="16" t="s">
@@ -2405,7 +2405,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="16" t="s">
@@ -2613,7 +2613,7 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="16" t="s">
@@ -2665,7 +2665,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -2717,7 +2717,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -2769,7 +2769,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -2821,7 +2821,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -2925,7 +2925,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18" t="s">
@@ -2977,7 +2977,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="18" t="s">
@@ -3288,7 +3288,7 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="20" t="s">
@@ -3340,7 +3340,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="20" t="s">
@@ -3600,7 +3600,7 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="20" t="s">
@@ -3652,7 +3652,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="22" t="s">
@@ -3668,7 +3668,7 @@
         <v>45089</v>
       </c>
       <c r="G50" s="5">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="H50" s="6">
         <v>0.8</v>
@@ -3685,17 +3685,17 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -3720,7 +3720,7 @@
         <v>45089</v>
       </c>
       <c r="G51" s="5">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="H51" s="6">
         <v>0.8</v>
@@ -3737,17 +3737,17 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -3789,17 +3789,17 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
       <c r="W52" s="11"/>
-      <c r="X52" s="1"/>
+      <c r="X52" s="11"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
@@ -3841,17 +3841,17 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
       <c r="W53" s="11"/>
-      <c r="X53" s="1"/>
+      <c r="X53" s="11"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -3873,13 +3873,13 @@
         <v>22</v>
       </c>
       <c r="F54" s="5">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="G54" s="5">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="H54" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -3893,10 +3893,10 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="11"/>
@@ -3925,13 +3925,13 @@
         <v>22</v>
       </c>
       <c r="F55" s="5">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="G55" s="5">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="H55" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -3945,17 +3945,17 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -3964,7 +3964,7 @@
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
     </row>
-    <row r="56" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -4016,7 +4016,7 @@
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
     </row>
-    <row r="57" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -4172,7 +4172,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD97670-94AA-4997-A8E2-08C66585A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{213D3D45-4C50-4E18-8DAC-46CA9117649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD97670-94AA-4997-A8E2-08C66585A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA8779-1C64-47A2-9FD8-E3DFA10FF96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -528,6 +528,16 @@
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンモクトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -666,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1046,8 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3449,7 +3462,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>41</v>
@@ -3992,23 +4005,23 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="1"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -4044,23 +4057,23 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="1"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -4096,23 +4109,23 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -4148,23 +4161,23 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="1"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -4200,23 +4213,23 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -4252,23 +4265,23 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="11"/>
-      <c r="AE61" s="11"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -4281,7 +4294,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>41</v>
@@ -4290,13 +4303,13 @@
         <v>25</v>
       </c>
       <c r="F62" s="5">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G62" s="5">
         <v>45097</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>28</v>
+      <c r="H62" s="6">
+        <v>0.8</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -4304,23 +4317,23 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -4342,10 +4355,10 @@
         <v>25</v>
       </c>
       <c r="F63" s="5">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="G63" s="5">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>28</v>
@@ -4356,23 +4369,23 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA8779-1C64-47A2-9FD8-E3DFA10FF96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B75D4D-2451-47F6-A0BB-796E0E872096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -676,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,8 +1043,8 @@
   <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1902,10 +1899,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>27</v>
@@ -1950,14 +1947,14 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>27</v>
@@ -1966,10 +1963,10 @@
         <v>45086</v>
       </c>
       <c r="G17" s="5">
-        <v>45090</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
+        <v>45091</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.9</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1984,7 +1981,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="1"/>
+      <c r="V17" s="11"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -2002,14 +1999,14 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>27</v>
@@ -2018,10 +2015,10 @@
         <v>45086</v>
       </c>
       <c r="G18" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.9</v>
+        <v>45090</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2036,7 +2033,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -2058,16 +2055,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G19" s="5">
         <v>45100</v>
@@ -2088,7 +2085,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
@@ -2106,20 +2103,20 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G20" s="5">
         <v>45100</v>
@@ -2140,7 +2137,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -2158,20 +2155,20 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="5">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G21" s="5">
         <v>45100</v>
@@ -2192,7 +2189,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="11"/>
+      <c r="V21" s="12"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
@@ -2214,16 +2211,16 @@
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="5">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G22" s="5">
         <v>45100</v>
@@ -2244,7 +2241,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="11"/>
+      <c r="V22" s="12"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
@@ -2522,14 +2519,14 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>43</v>
+      <c r="C28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>26</v>
@@ -2577,8 +2574,8 @@
     <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="16" t="s">
-        <v>49</v>
+      <c r="C29" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>43</v>
@@ -2626,14 +2623,14 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>26</v>
@@ -3250,14 +3247,14 @@
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>24</v>
@@ -3309,7 +3306,7 @@
         <v>53</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>24</v>
@@ -3320,7 +3317,7 @@
       <c r="G43" s="5">
         <v>45089</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="7"/>
@@ -3354,14 +3351,14 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>42</v>
+      <c r="D44" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>24</v>
@@ -3370,10 +3367,10 @@
         <v>45086</v>
       </c>
       <c r="G44" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>15</v>
+        <v>45091</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3387,8 +3384,8 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
@@ -3410,10 +3407,10 @@
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="20" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>24</v>
@@ -3422,10 +3419,10 @@
         <v>45086</v>
       </c>
       <c r="G45" s="5">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -3439,8 +3436,8 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
@@ -3497,7 +3494,7 @@
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
+      <c r="AA46" s="11"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
@@ -3544,16 +3541,16 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -3562,14 +3559,14 @@
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
     </row>
-    <row r="48" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>24</v>
@@ -3596,13 +3593,13 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
+      <c r="Z48" s="1"/>
       <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
+      <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -3614,14 +3611,14 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>24</v>
@@ -3648,13 +3645,13 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
       <c r="X49" s="11"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
+      <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -3666,14 +3663,14 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>33</v>
+      <c r="C50" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>22</v>
@@ -3718,14 +3715,14 @@
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
     </row>
-    <row r="51" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>34</v>
+      <c r="C51" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>22</v>
@@ -3774,10 +3771,10 @@
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>22</v>
@@ -3826,10 +3823,10 @@
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>22</v>
@@ -3878,10 +3875,10 @@
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>22</v>
@@ -3915,9 +3912,9 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -3930,10 +3927,10 @@
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="22" t="s">
         <v>22</v>
@@ -3967,9 +3964,9 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -4007,7 +4004,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
-      <c r="Q56" s="25"/>
+      <c r="Q56" s="11"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" s="11"/>
@@ -4030,14 +4027,14 @@
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
     </row>
-    <row r="57" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>25</v>
@@ -4059,7 +4056,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
-      <c r="Q57" s="25"/>
+      <c r="Q57" s="11"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="11"/>
@@ -4082,14 +4079,14 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>25</v>
@@ -4111,7 +4108,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
-      <c r="Q58" s="25"/>
+      <c r="Q58" s="11"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="11"/>
@@ -4163,7 +4160,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
-      <c r="Q59" s="25"/>
+      <c r="Q59" s="11"/>
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="11"/>
@@ -4215,7 +4212,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
-      <c r="Q60" s="25"/>
+      <c r="Q60" s="11"/>
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
       <c r="T60" s="11"/>
@@ -4397,7 +4394,7 @@
   </sheetData>
   <autoFilter ref="C14:AL63" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AL63">
-      <sortCondition ref="E14"/>
+      <sortCondition ref="E14:E63"/>
     </sortState>
   </autoFilter>
   <mergeCells count="6">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B75D4D-2451-47F6-A0BB-796E0E872096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36171BB-008F-4840-9781-A482CED7BEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$14:$AL$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$14:$AL$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="86">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -538,6 +538,13 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面メッセージ</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1040,19 +1047,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.5" customWidth="1"/>
+    <col min="9" max="38" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -1275,7 +1282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1317,7 +1324,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1367,7 +1374,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1417,7 +1424,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1467,7 +1474,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1509,7 +1516,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1559,7 +1566,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1609,7 +1616,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1659,7 +1666,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1701,7 +1708,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1751,7 +1758,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1801,7 +1808,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1895,7 +1902,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
@@ -1947,7 +1954,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14" t="s">
@@ -2051,7 +2058,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
@@ -2155,7 +2162,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14" t="s">
@@ -2207,7 +2214,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
@@ -2259,7 +2266,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14" t="s">
@@ -2363,7 +2370,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="16" t="s">
@@ -2415,7 +2422,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="16" t="s">
@@ -2519,7 +2526,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="16" t="s">
@@ -2675,7 +2682,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -2727,7 +2734,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -2779,7 +2786,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -2831,7 +2838,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -2912,12 +2919,12 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="11"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="11"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -2935,7 +2942,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18" t="s">
@@ -2964,10 +2971,10 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="11"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="11"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="1"/>
@@ -2987,7 +2994,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="18" t="s">
@@ -3124,10 +3131,10 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="11"/>
+      <c r="U39" s="1"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -3176,8 +3183,8 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="1"/>
@@ -3229,13 +3236,13 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -3247,25 +3254,25 @@
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>24</v>
+      <c r="E42" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F42" s="5">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G42" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H42" s="6" t="s">
+        <v>45091</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="7"/>
@@ -3276,18 +3283,17 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="11"/>
+      <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="11"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -3299,23 +3305,23 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>24</v>
+      <c r="C43" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F43" s="5">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G43" s="5">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>15</v>
@@ -3328,18 +3334,18 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="11"/>
+      <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -3351,14 +3357,14 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>41</v>
+      <c r="D44" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>24</v>
@@ -3367,10 +3373,10 @@
         <v>45086</v>
       </c>
       <c r="G44" s="5">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3384,8 +3390,8 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
@@ -3403,14 +3409,14 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>24</v>
@@ -3421,7 +3427,7 @@
       <c r="G45" s="5">
         <v>45089</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="7"/>
@@ -3459,7 +3465,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>41</v>
@@ -3468,13 +3474,13 @@
         <v>24</v>
       </c>
       <c r="F46" s="5">
+        <v>45086</v>
+      </c>
+      <c r="G46" s="5">
         <v>45091</v>
       </c>
-      <c r="G46" s="5">
-        <v>45093</v>
-      </c>
       <c r="H46" s="6" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -3484,17 +3490,17 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="Q46" s="11"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
-      <c r="AA46" s="11"/>
+      <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
@@ -3511,22 +3517,22 @@
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="20" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G47" s="5">
-        <v>45093</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>28</v>
+        <v>45089</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -3536,21 +3542,21 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="11"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="12"/>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -3559,25 +3565,25 @@
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
     </row>
-    <row r="48" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G48" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H48" s="4" t="s">
+        <v>45093</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I48" s="7"/>
@@ -3597,9 +3603,9 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
-      <c r="Z48" s="1"/>
+      <c r="Z48" s="12"/>
       <c r="AA48" s="11"/>
-      <c r="AB48" s="1"/>
+      <c r="AB48" s="12"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -3615,19 +3621,19 @@
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G49" s="5">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>28</v>
@@ -3645,16 +3651,16 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="11"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -3663,26 +3669,26 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>22</v>
+      <c r="C50" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G50" s="5">
-        <v>45090</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0.8</v>
+        <v>45097</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -3697,16 +3703,16 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
+      <c r="V50" s="11"/>
       <c r="W50" s="11"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="12"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -3715,26 +3721,26 @@
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
     </row>
-    <row r="51" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>22</v>
+      <c r="C51" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G51" s="5">
-        <v>45090</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0.8</v>
+        <v>45097</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -3749,16 +3755,16 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
+      <c r="V51" s="11"/>
       <c r="W51" s="11"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
       <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -3771,7 +3777,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>34</v>
@@ -3780,13 +3786,13 @@
         <v>22</v>
       </c>
       <c r="F52" s="5">
+        <v>45089</v>
+      </c>
+      <c r="G52" s="5">
         <v>45090</v>
       </c>
-      <c r="G52" s="5">
-        <v>45093</v>
-      </c>
       <c r="H52" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -3819,26 +3825,26 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="C53" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="5">
+        <v>45089</v>
+      </c>
+      <c r="G53" s="5">
         <v>45090</v>
       </c>
-      <c r="G53" s="5">
-        <v>45093</v>
-      </c>
       <c r="H53" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -3875,7 +3881,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>34</v>
@@ -3884,13 +3890,13 @@
         <v>22</v>
       </c>
       <c r="F54" s="5">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="G54" s="5">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="H54" s="6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -3906,15 +3912,15 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
+      <c r="W54" s="11"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -3927,7 +3933,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>33</v>
@@ -3936,13 +3942,13 @@
         <v>22</v>
       </c>
       <c r="F55" s="5">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="G55" s="5">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="H55" s="6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -3958,15 +3964,15 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
+      <c r="W55" s="11"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -3975,26 +3981,26 @@
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
     </row>
-    <row r="56" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>25</v>
+      <c r="C56" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="F56" s="5">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G56" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>15</v>
+        <v>45099</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0.1</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -4002,20 +4008,20 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="12"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
       <c r="AC56" s="12"/>
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
@@ -4030,23 +4036,23 @@
     <row r="57" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>25</v>
+      <c r="C57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="F57" s="5">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G57" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>15</v>
+        <v>45099</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.1</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -4054,23 +4060,23 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -4079,11 +4085,11 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>42</v>
@@ -4135,7 +4141,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>43</v>
@@ -4183,14 +4189,14 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>25</v>
@@ -4239,7 +4245,7 @@
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>43</v>
@@ -4248,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="F61" s="5">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G61" s="5">
         <v>45089</v>
@@ -4264,7 +4270,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
+      <c r="Q61" s="11"/>
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
       <c r="T61" s="11"/>
@@ -4287,26 +4293,26 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="5">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G62" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0.8</v>
+        <v>45089</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -4316,18 +4322,18 @@
       <c r="N62" s="1"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
+      <c r="Q62" s="11"/>
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
@@ -4343,22 +4349,22 @@
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="5">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="G63" s="5">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -4371,7 +4377,7 @@
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
+      <c r="T63" s="11"/>
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
@@ -4379,10 +4385,10 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -4391,10 +4397,114 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
     </row>
+    <row r="64" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="5">
+        <v>45090</v>
+      </c>
+      <c r="G64" s="5">
+        <v>45097</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+    </row>
+    <row r="65" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="5">
+        <v>45097</v>
+      </c>
+      <c r="G65" s="5">
+        <v>45100</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C14:AL63" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AL63">
-      <sortCondition ref="E14:E63"/>
+  <autoFilter ref="C14:AL65" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AL65">
+      <sortCondition ref="E14:E65"/>
     </sortState>
   </autoFilter>
   <mergeCells count="6">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36171BB-008F-4840-9781-A482CED7BEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1121C37-C3C4-4082-8718-7C2BE2CC59C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -545,6 +545,27 @@
     <t>登録画面メッセージ</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1047,19 +1068,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
-  <dimension ref="A1:AL65"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.453125" customWidth="1"/>
+    <col min="9" max="38" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -1282,7 +1303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1324,7 +1345,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1374,7 +1395,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1424,7 +1445,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1474,7 +1495,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1516,7 +1537,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1566,7 +1587,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1616,7 +1637,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1666,7 +1687,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1708,7 +1729,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1758,7 +1779,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1808,7 +1829,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1902,7 +1923,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
@@ -1920,8 +1941,8 @@
       <c r="G16" s="5">
         <v>45091</v>
       </c>
-      <c r="H16" s="6">
-        <v>0.9</v>
+      <c r="H16" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1954,7 +1975,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14" t="s">
@@ -1972,8 +1993,8 @@
       <c r="G17" s="5">
         <v>45091</v>
       </c>
-      <c r="H17" s="6">
-        <v>0.9</v>
+      <c r="H17" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2058,7 +2079,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
@@ -2162,7 +2183,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14" t="s">
@@ -2214,7 +2235,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
@@ -2266,7 +2287,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14" t="s">
@@ -2370,7 +2391,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="16" t="s">
@@ -2422,7 +2443,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="16" t="s">
@@ -2492,8 +2513,8 @@
       <c r="G27" s="5">
         <v>45092</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>28</v>
+      <c r="H27" s="6">
+        <v>0.8</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2526,7 +2547,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="16" t="s">
@@ -2682,7 +2703,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -2734,7 +2755,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -2786,7 +2807,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -2838,7 +2859,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -2942,7 +2963,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18" t="s">
@@ -2994,7 +3015,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="18" t="s">
@@ -3357,7 +3378,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="20" t="s">
@@ -3409,7 +3430,7 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="20" t="s">
@@ -3583,8 +3604,8 @@
       <c r="G48" s="5">
         <v>45093</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>28</v>
+      <c r="H48" s="6">
+        <v>0.5</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -3669,7 +3690,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="20" t="s">
@@ -3687,8 +3708,8 @@
       <c r="G50" s="5">
         <v>45097</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>28</v>
+      <c r="H50" s="6">
+        <v>0.6</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -3739,8 +3760,8 @@
       <c r="G51" s="5">
         <v>45097</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>28</v>
+      <c r="H51" s="6">
+        <v>0.3</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -3789,7 +3810,7 @@
         <v>45089</v>
       </c>
       <c r="G52" s="5">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="H52" s="6">
         <v>0.8</v>
@@ -3805,19 +3826,19 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="1"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
@@ -3825,7 +3846,7 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="22" t="s">
@@ -3841,7 +3862,7 @@
         <v>45089</v>
       </c>
       <c r="G53" s="5">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="H53" s="6">
         <v>0.8</v>
@@ -3857,19 +3878,19 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="1"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
@@ -3910,18 +3931,18 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
       <c r="W54" s="11"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="1"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
@@ -3962,18 +3983,18 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
       <c r="W55" s="11"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="1"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
@@ -3994,13 +4015,13 @@
         <v>22</v>
       </c>
       <c r="F56" s="5">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G56" s="5">
         <v>45099</v>
       </c>
       <c r="H56" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -4015,17 +4036,17 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
       <c r="AE56" s="12"/>
-      <c r="AF56" s="1"/>
+      <c r="AF56" s="12"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -4046,13 +4067,13 @@
         <v>22</v>
       </c>
       <c r="F57" s="5">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G57" s="5">
         <v>45099</v>
       </c>
       <c r="H57" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -4067,17 +4088,17 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
@@ -4085,7 +4106,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -4189,7 +4210,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -4293,7 +4314,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -4415,8 +4436,8 @@
       <c r="G64" s="5">
         <v>45097</v>
       </c>
-      <c r="H64" s="6">
-        <v>0.8</v>
+      <c r="H64" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -4501,6 +4522,106 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>50</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>60</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>70</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>80</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>90</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f>H67*100+G69*H69+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77</f>
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <f>H78/5000*100</f>
+        <v>55.600000000000009</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C14:AL65" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AL65">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1121C37-C3C4-4082-8718-7C2BE2CC59C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FE87E8-9435-4608-9CB3-07285CFFB139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -556,16 +556,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未</t>
+    <t>進捗度</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数</t>
     <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完</t>
-    <rPh sb="0" eb="1">
-      <t>カン</t>
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体進捗度</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シンチョクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -613,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,8 +691,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -698,13 +721,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,9 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -779,6 +967,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,11 +1304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
-  <dimension ref="A1:AL80"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1084,24 +1320,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2">
@@ -1196,32 +1432,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1239,10 +1475,10 @@
       <c r="Q2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -1260,10 +1496,10 @@
       <c r="X2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -1281,10 +1517,10 @@
       <c r="AE2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AH2" s="2" t="s">
@@ -1314,9 +1550,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1364,11 +1600,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="11"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1414,11 +1650,11 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1464,11 +1700,11 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1506,9 +1742,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1556,13 +1792,13 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1606,13 +1842,13 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1656,14 +1892,14 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1698,9 +1934,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1748,15 +1984,15 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1798,14 +2034,14 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="11"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1840,9 +2076,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1874,13 +2110,13 @@
     <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="5">
@@ -1889,22 +2125,22 @@
       <c r="G15" s="5">
         <v>45089</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="12"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1926,13 +2162,13 @@
     <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="5">
@@ -1941,23 +2177,23 @@
       <c r="G16" s="5">
         <v>45091</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -1978,13 +2214,13 @@
     <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="5">
@@ -1993,23 +2229,23 @@
       <c r="G17" s="5">
         <v>45091</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -2030,13 +2266,13 @@
     <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="5">
@@ -2045,22 +2281,22 @@
       <c r="G18" s="5">
         <v>45090</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -2082,13 +2318,13 @@
     <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="5">
@@ -2097,32 +2333,32 @@
       <c r="G19" s="5">
         <v>45100</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -2134,13 +2370,13 @@
     <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="5">
@@ -2149,32 +2385,32 @@
       <c r="G20" s="5">
         <v>45100</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -2186,13 +2422,13 @@
     <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="5">
@@ -2201,32 +2437,32 @@
       <c r="G21" s="5">
         <v>45100</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -2238,13 +2474,13 @@
     <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="5">
@@ -2253,32 +2489,32 @@
       <c r="G22" s="5">
         <v>45100</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="12"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -2290,13 +2526,13 @@
     <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="5">
@@ -2305,32 +2541,32 @@
       <c r="G23" s="5">
         <v>45100</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -2342,13 +2578,13 @@
     <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="5">
@@ -2357,21 +2593,21 @@
       <c r="G24" s="5">
         <v>45089</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="11"/>
+      <c r="Q24" s="10"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="11"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2394,13 +2630,13 @@
     <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="5">
@@ -2409,22 +2645,22 @@
       <c r="G25" s="5">
         <v>45090</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -2446,13 +2682,13 @@
     <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5">
@@ -2461,12 +2697,12 @@
       <c r="G26" s="5">
         <v>45090</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2475,8 +2711,8 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -2498,13 +2734,13 @@
     <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="5">
@@ -2513,12 +2749,12 @@
       <c r="G27" s="5">
         <v>45092</v>
       </c>
-      <c r="H27" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="H27" s="37">
+        <v>80</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2528,9 +2764,9 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -2550,13 +2786,13 @@
     <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="5">
@@ -2565,12 +2801,12 @@
       <c r="G28" s="5">
         <v>45097</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2582,12 +2818,12 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -2602,13 +2838,13 @@
     <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="5">
@@ -2617,12 +2853,12 @@
       <c r="G29" s="5">
         <v>45097</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2634,12 +2870,12 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -2654,13 +2890,13 @@
     <row r="30" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="5">
@@ -2669,12 +2905,12 @@
       <c r="G30" s="5">
         <v>45097</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2686,12 +2922,12 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -2706,13 +2942,13 @@
     <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5">
@@ -2721,12 +2957,12 @@
       <c r="G31" s="5">
         <v>45097</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2736,14 +2972,14 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="12"/>
+      <c r="U31" s="11"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -2758,13 +2994,13 @@
     <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="5">
@@ -2773,12 +3009,12 @@
       <c r="G32" s="5">
         <v>45100</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2796,9 +3032,9 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -2810,13 +3046,13 @@
     <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="5">
@@ -2825,12 +3061,12 @@
       <c r="G33" s="5">
         <v>45100</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2848,9 +3084,9 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -2862,13 +3098,13 @@
     <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="5">
@@ -2877,12 +3113,12 @@
       <c r="G34" s="5">
         <v>45100</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2900,9 +3136,9 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -2914,13 +3150,13 @@
     <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="5">
@@ -2929,23 +3165,23 @@
       <c r="G35" s="5">
         <v>45091</v>
       </c>
-      <c r="H35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="H35" s="37">
+        <v>50</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="11"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -2966,13 +3202,13 @@
     <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="5">
@@ -2981,23 +3217,23 @@
       <c r="G36" s="5">
         <v>45091</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="11"/>
+      <c r="Q36" s="10"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -3018,13 +3254,13 @@
     <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="5">
@@ -3033,12 +3269,12 @@
       <c r="G37" s="5">
         <v>45091</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3048,8 +3284,8 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -3070,13 +3306,13 @@
     <row r="38" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="5">
@@ -3085,12 +3321,12 @@
       <c r="G38" s="5">
         <v>45091</v>
       </c>
-      <c r="H38" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="H38" s="37">
+        <v>90</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3100,8 +3336,8 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -3122,13 +3358,13 @@
     <row r="39" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="5">
@@ -3137,12 +3373,12 @@
       <c r="G39" s="5">
         <v>45092</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3153,8 +3389,8 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -3174,13 +3410,13 @@
     <row r="40" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="5">
@@ -3189,12 +3425,12 @@
       <c r="G40" s="5">
         <v>45093</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3206,8 +3442,8 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
@@ -3226,13 +3462,13 @@
     <row r="41" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="5">
@@ -3241,12 +3477,12 @@
       <c r="G41" s="5">
         <v>45097</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3262,8 +3498,8 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -3278,13 +3514,13 @@
     <row r="42" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F42" s="5">
@@ -3293,12 +3529,12 @@
       <c r="G42" s="5">
         <v>45091</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3309,7 +3545,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="11"/>
+      <c r="V42" s="10"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -3329,13 +3565,13 @@
     <row r="43" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F43" s="5">
@@ -3344,12 +3580,12 @@
       <c r="G43" s="5">
         <v>45091</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3360,7 +3596,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="11"/>
+      <c r="V43" s="10"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -3381,13 +3617,13 @@
     <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
@@ -3396,29 +3632,29 @@
       <c r="G44" s="5">
         <v>45089</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="11"/>
+      <c r="Q44" s="10"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -3433,13 +3669,13 @@
     <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
@@ -3448,29 +3684,29 @@
       <c r="G45" s="5">
         <v>45089</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="11"/>
+      <c r="Q45" s="10"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -3485,13 +3721,13 @@
     <row r="46" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
@@ -3500,29 +3736,29 @@
       <c r="G46" s="5">
         <v>45091</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="11"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -3537,13 +3773,13 @@
     <row r="47" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
@@ -3552,29 +3788,29 @@
       <c r="G47" s="5">
         <v>45089</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="11"/>
+      <c r="Q47" s="10"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -3589,13 +3825,13 @@
     <row r="48" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
@@ -3604,12 +3840,12 @@
       <c r="G48" s="5">
         <v>45093</v>
       </c>
-      <c r="H48" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="H48" s="37">
+        <v>50</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3620,13 +3856,13 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="12"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="11"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -3641,13 +3877,13 @@
     <row r="49" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
@@ -3656,12 +3892,12 @@
       <c r="G49" s="5">
         <v>45093</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3672,16 +3908,16 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -3693,13 +3929,13 @@
     <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
@@ -3708,12 +3944,12 @@
       <c r="G50" s="5">
         <v>45097</v>
       </c>
-      <c r="H50" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="H50" s="37">
+        <v>60</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3724,12 +3960,12 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="12"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="11"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="11"/>
+      <c r="AA50" s="10"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
@@ -3745,13 +3981,13 @@
     <row r="51" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
@@ -3760,12 +3996,12 @@
       <c r="G51" s="5">
         <v>45097</v>
       </c>
-      <c r="H51" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="H51" s="37">
+        <v>30</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3776,12 +4012,12 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="11"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="10"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
@@ -3797,13 +4033,13 @@
     <row r="52" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="5">
@@ -3812,12 +4048,12 @@
       <c r="G52" s="5">
         <v>45091</v>
       </c>
-      <c r="H52" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="H52" s="37">
+        <v>80</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3826,19 +4062,19 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
@@ -3849,13 +4085,13 @@
     <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="5">
@@ -3864,12 +4100,12 @@
       <c r="G53" s="5">
         <v>45091</v>
       </c>
-      <c r="H53" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="H53" s="37">
+        <v>80</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3878,19 +4114,19 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
@@ -3901,13 +4137,13 @@
     <row r="54" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="5">
@@ -3916,12 +4152,12 @@
       <c r="G54" s="5">
         <v>45093</v>
       </c>
-      <c r="H54" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="H54" s="37">
+        <v>50</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3931,18 +4167,18 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
@@ -3953,13 +4189,13 @@
     <row r="55" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="5">
@@ -3968,12 +4204,12 @@
       <c r="G55" s="5">
         <v>45093</v>
       </c>
-      <c r="H55" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="H55" s="37">
+        <v>50</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3983,18 +4219,18 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
@@ -4005,13 +4241,13 @@
     <row r="56" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="5">
@@ -4020,12 +4256,12 @@
       <c r="G56" s="5">
         <v>45099</v>
       </c>
-      <c r="H56" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="H56" s="37">
+        <v>30</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -4036,17 +4272,17 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="12"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -4057,13 +4293,13 @@
     <row r="57" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F57" s="5">
@@ -4072,12 +4308,12 @@
       <c r="G57" s="5">
         <v>45099</v>
       </c>
-      <c r="H57" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="H57" s="37">
+        <v>30</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -4088,17 +4324,17 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
@@ -4124,32 +4360,32 @@
       <c r="G58" s="5">
         <v>45089</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -4176,32 +4412,32 @@
       <c r="G59" s="5">
         <v>45089</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="12"/>
-      <c r="AE59" s="12"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -4228,32 +4464,32 @@
       <c r="G60" s="5">
         <v>45089</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="12"/>
-      <c r="AD60" s="12"/>
-      <c r="AE60" s="12"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -4280,32 +4516,32 @@
       <c r="G61" s="5">
         <v>45089</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="12"/>
-      <c r="AB61" s="12"/>
-      <c r="AC61" s="12"/>
-      <c r="AD61" s="12"/>
-      <c r="AE61" s="12"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -4332,32 +4568,32 @@
       <c r="G62" s="5">
         <v>45089</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -4384,32 +4620,32 @@
       <c r="G63" s="5">
         <v>45089</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -4436,32 +4672,32 @@
       <c r="G64" s="5">
         <v>45097</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="12"/>
-      <c r="AD64" s="12"/>
-      <c r="AE64" s="12"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -4488,32 +4724,32 @@
       <c r="G65" s="5">
         <v>45100</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
-      <c r="AE65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -4522,104 +4758,140 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G67" t="s">
+    <row r="66" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H67">
-        <v>21</v>
-      </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
-      <c r="H68">
-        <v>17</v>
+      <c r="D68" s="39">
+        <v>45092</v>
+      </c>
+      <c r="E68" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="38">
+        <f>IF($H$15 = G68,1,0)+IF($H$16 = G68,1,0)+IF($H$17 = G68,1,0)+IF($H$18 = G68,1,0)+IF($H$19 = G68,1,0)+IF($H$20 = G68,1,0)+IF($H$21 = G68,1,0)+IF($H$22 = G68,1,0)+IF($H$23 = G68,1,0)+IF($H$24 = G68,1,0)+IF($H$25 = G68,1,0)+IF($H$26 = G68,1,0)+IF($H$27 = G68,1,0)+IF($H$28 = G68,1,0)+IF($H$29 = G68,1,0)+IF($H$30 = G68,1,0)+IF($H$31 = G68,1,0)+IF($H$32 = G68,1,0)+IF($H$33 = G68,1,0)+IF($H$34 = G68,1,0)+IF($H$35 = G68,1,0)+IF($H$36 = G68,1,0)+IF($H$37 = G68,1,0)+IF($H$38 = G68,1,0)+IF($H$39 = G68,1,0)+IF($H$40 = G68,1,0)+IF($H$41 = G68,1,0)+IF($H$42 = G68,1,0)+IF($H$43 = G68,1,0)+IF($H$44 = G68,1,0)+IF($H$45 = G68,1,0)+IF($H$46 = G68,1,0)+IF($H$47 = G68,1,0)+IF($H$48 = G68,1,0)+IF($H$49 = G68,1,0)+IF($H$50 = G68,1,0)+IF($H$51 = G68,1,0)+IF($H$52 = G68,1,0)+IF($H$53 = G68,1,0)+IF($H$54 = G68,1,0)+IF($H$55 = G68,1,0)+IF($H$56 = G68,1,0)+IF($H$57 = G68,1,0)+IF($H$58 = G68,1,0)+IF($H$59 = G68,1,0)+IF($H$60 = G68,1,0)+IF($H$61 = G68,1,0)+IF($H$62 = G68,1,0)+IF($H$63 = G68,1,0)+IF($H$64 = G68,1,0)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G69">
+      <c r="G69" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="26">
+        <f>IF($H$15 = G69,1,0)+IF($H$16 = G69,1,0)+IF($H$17 = G69,1,0)+IF($H$18 = G69,1,0)+IF($H$19 = G69,1,0)+IF($H$20 = G69,1,0)+IF($H$21 = G69,1,0)+IF($H$22 = G69,1,0)+IF($H$23 = G69,1,0)+IF($H$24 = G69,1,0)+IF($H$25 = G69,1,0)+IF($H$26 = G69,1,0)+IF($H$27 = G69,1,0)+IF($H$28 = G69,1,0)+IF($H$29 = G69,1,0)+IF($H$30 = G69,1,0)+IF($H$31 = G69,1,0)+IF($H$32 = G69,1,0)+IF($H$33 = G69,1,0)+IF($H$34 = G69,1,0)+IF($H$35 = G69,1,0)+IF($H$36 = G69,1,0)+IF($H$37 = G69,1,0)+IF($H$38 = G69,1,0)+IF($H$39 = G69,1,0)+IF($H$40 = G69,1,0)+IF($H$41 = G69,1,0)+IF($H$42 = G69,1,0)+IF($H$43 = G69,1,0)+IF($H$44 = G69,1,0)+IF($H$45 = G69,1,0)+IF($H$46 = G69,1,0)+IF($H$47 = G69,1,0)+IF($H$48 = G69,1,0)+IF($H$49 = G69,1,0)+IF($H$50 = G69,1,0)+IF($H$51 = G69,1,0)+IF($H$52 = G69,1,0)+IF($H$53 = G69,1,0)+IF($H$54 = G69,1,0)+IF($H$55 = G69,1,0)+IF($H$56 = G69,1,0)+IF($H$57 = G69,1,0)+IF($H$58 = G69,1,0)+IF($H$59 = G69,1,0)+IF($H$60 = G69,1,0)+IF($H$61 = G69,1,0)+IF($H$62 = G69,1,0)+IF($H$63 = G69,1,0)+IF($H$64 = G69,1,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G70" s="25">
         <v>10</v>
       </c>
-      <c r="H69">
+      <c r="H70" s="26">
+        <f>IF($H$15 = G70,1,0)+IF($H$16 = G70,1,0)+IF($H$17 = G70,1,0)+IF($H$18 = G70,1,0)+IF($H$19 = G70,1,0)+IF($H$20 = G70,1,0)+IF($H$21 = G70,1,0)+IF($H$22 = G70,1,0)+IF($H$23 = G70,1,0)+IF($H$24 = G70,1,0)+IF($H$25 = G70,1,0)+IF($H$26 = G70,1,0)+IF($H$27 = G70,1,0)+IF($H$28 = G70,1,0)+IF($H$29 = G70,1,0)+IF($H$30 = G70,1,0)+IF($H$31 = G70,1,0)+IF($H$32 = G70,1,0)+IF($H$33 = G70,1,0)+IF($H$34 = G70,1,0)+IF($H$35 = G70,1,0)+IF($H$36 = G70,1,0)+IF($H$37 = G70,1,0)+IF($H$38 = G70,1,0)+IF($H$39 = G70,1,0)+IF($H$40 = G70,1,0)+IF($H$41 = G70,1,0)+IF($H$42 = G70,1,0)+IF($H$43 = G70,1,0)+IF($H$44 = G70,1,0)+IF($H$45 = G70,1,0)+IF($H$46 = G70,1,0)+IF($H$47 = G70,1,0)+IF($H$48 = G70,1,0)+IF($H$49 = G70,1,0)+IF($H$50 = G70,1,0)+IF($H$51 = G70,1,0)+IF($H$52 = G70,1,0)+IF($H$53 = G70,1,0)+IF($H$54 = G70,1,0)+IF($H$55 = G70,1,0)+IF($H$56 = G70,1,0)+IF($H$57 = G70,1,0)+IF($H$58 = G70,1,0)+IF($H$59 = G70,1,0)+IF($H$60 = G70,1,0)+IF($H$61 = G70,1,0)+IF($H$62 = G70,1,0)+IF($H$63 = G70,1,0)+IF($H$64 = G70,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G70">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G71" s="25">
         <v>20</v>
       </c>
-      <c r="H70">
+      <c r="H71" s="26">
+        <f>IF($H$15 = G71,1,0)+IF($H$16 = G71,1,0)+IF($H$17 = G71,1,0)+IF($H$18 = G71,1,0)+IF($H$19 = G71,1,0)+IF($H$20 = G71,1,0)+IF($H$21 = G71,1,0)+IF($H$22 = G71,1,0)+IF($H$23 = G71,1,0)+IF($H$24 = G71,1,0)+IF($H$25 = G71,1,0)+IF($H$26 = G71,1,0)+IF($H$27 = G71,1,0)+IF($H$28 = G71,1,0)+IF($H$29 = G71,1,0)+IF($H$30 = G71,1,0)+IF($H$31 = G71,1,0)+IF($H$32 = G71,1,0)+IF($H$33 = G71,1,0)+IF($H$34 = G71,1,0)+IF($H$35 = G71,1,0)+IF($H$36 = G71,1,0)+IF($H$37 = G71,1,0)+IF($H$38 = G71,1,0)+IF($H$39 = G71,1,0)+IF($H$40 = G71,1,0)+IF($H$41 = G71,1,0)+IF($H$42 = G71,1,0)+IF($H$43 = G71,1,0)+IF($H$44 = G71,1,0)+IF($H$45 = G71,1,0)+IF($H$46 = G71,1,0)+IF($H$47 = G71,1,0)+IF($H$48 = G71,1,0)+IF($H$49 = G71,1,0)+IF($H$50 = G71,1,0)+IF($H$51 = G71,1,0)+IF($H$52 = G71,1,0)+IF($H$53 = G71,1,0)+IF($H$54 = G71,1,0)+IF($H$55 = G71,1,0)+IF($H$56 = G71,1,0)+IF($H$57 = G71,1,0)+IF($H$58 = G71,1,0)+IF($H$59 = G71,1,0)+IF($H$60 = G71,1,0)+IF($H$61 = G71,1,0)+IF($H$62 = G71,1,0)+IF($H$63 = G71,1,0)+IF($H$64 = G71,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G71">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G72" s="25">
         <v>30</v>
       </c>
-      <c r="H71">
+      <c r="H72" s="26">
+        <f>IF($H$15 = G72,1,0)+IF($H$16 = G72,1,0)+IF($H$17 = G72,1,0)+IF($H$18 = G72,1,0)+IF($H$19 = G72,1,0)+IF($H$20 = G72,1,0)+IF($H$21 = G72,1,0)+IF($H$22 = G72,1,0)+IF($H$23 = G72,1,0)+IF($H$24 = G72,1,0)+IF($H$25 = G72,1,0)+IF($H$26 = G72,1,0)+IF($H$27 = G72,1,0)+IF($H$28 = G72,1,0)+IF($H$29 = G72,1,0)+IF($H$30 = G72,1,0)+IF($H$31 = G72,1,0)+IF($H$32 = G72,1,0)+IF($H$33 = G72,1,0)+IF($H$34 = G72,1,0)+IF($H$35 = G72,1,0)+IF($H$36 = G72,1,0)+IF($H$37 = G72,1,0)+IF($H$38 = G72,1,0)+IF($H$39 = G72,1,0)+IF($H$40 = G72,1,0)+IF($H$41 = G72,1,0)+IF($H$42 = G72,1,0)+IF($H$43 = G72,1,0)+IF($H$44 = G72,1,0)+IF($H$45 = G72,1,0)+IF($H$46 = G72,1,0)+IF($H$47 = G72,1,0)+IF($H$48 = G72,1,0)+IF($H$49 = G72,1,0)+IF($H$50 = G72,1,0)+IF($H$51 = G72,1,0)+IF($H$52 = G72,1,0)+IF($H$53 = G72,1,0)+IF($H$54 = G72,1,0)+IF($H$55 = G72,1,0)+IF($H$56 = G72,1,0)+IF($H$57 = G72,1,0)+IF($H$58 = G72,1,0)+IF($H$59 = G72,1,0)+IF($H$60 = G72,1,0)+IF($H$61 = G72,1,0)+IF($H$62 = G72,1,0)+IF($H$63 = G72,1,0)+IF($H$64 = G72,1,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G72">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G73" s="25">
         <v>40</v>
       </c>
-      <c r="H72">
+      <c r="H73" s="26">
+        <f>IF($H$15 = G73,1,0)+IF($H$16 = G73,1,0)+IF($H$17 = G73,1,0)+IF($H$18 = G73,1,0)+IF($H$19 = G73,1,0)+IF($H$20 = G73,1,0)+IF($H$21 = G73,1,0)+IF($H$22 = G73,1,0)+IF($H$23 = G73,1,0)+IF($H$24 = G73,1,0)+IF($H$25 = G73,1,0)+IF($H$26 = G73,1,0)+IF($H$27 = G73,1,0)+IF($H$28 = G73,1,0)+IF($H$29 = G73,1,0)+IF($H$30 = G73,1,0)+IF($H$31 = G73,1,0)+IF($H$32 = G73,1,0)+IF($H$33 = G73,1,0)+IF($H$34 = G73,1,0)+IF($H$35 = G73,1,0)+IF($H$36 = G73,1,0)+IF($H$37 = G73,1,0)+IF($H$38 = G73,1,0)+IF($H$39 = G73,1,0)+IF($H$40 = G73,1,0)+IF($H$41 = G73,1,0)+IF($H$42 = G73,1,0)+IF($H$43 = G73,1,0)+IF($H$44 = G73,1,0)+IF($H$45 = G73,1,0)+IF($H$46 = G73,1,0)+IF($H$47 = G73,1,0)+IF($H$48 = G73,1,0)+IF($H$49 = G73,1,0)+IF($H$50 = G73,1,0)+IF($H$51 = G73,1,0)+IF($H$52 = G73,1,0)+IF($H$53 = G73,1,0)+IF($H$54 = G73,1,0)+IF($H$55 = G73,1,0)+IF($H$56 = G73,1,0)+IF($H$57 = G73,1,0)+IF($H$58 = G73,1,0)+IF($H$59 = G73,1,0)+IF($H$60 = G73,1,0)+IF($H$61 = G73,1,0)+IF($H$62 = G73,1,0)+IF($H$63 = G73,1,0)+IF($H$64 = G73,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G73">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G74" s="25">
         <v>50</v>
       </c>
-      <c r="H73">
+      <c r="H74" s="26">
+        <f>IF($H$15 = G74,1,0)+IF($H$16 = G74,1,0)+IF($H$17 = G74,1,0)+IF($H$18 = G74,1,0)+IF($H$19 = G74,1,0)+IF($H$20 = G74,1,0)+IF($H$21 = G74,1,0)+IF($H$22 = G74,1,0)+IF($H$23 = G74,1,0)+IF($H$24 = G74,1,0)+IF($H$25 = G74,1,0)+IF($H$26 = G74,1,0)+IF($H$27 = G74,1,0)+IF($H$28 = G74,1,0)+IF($H$29 = G74,1,0)+IF($H$30 = G74,1,0)+IF($H$31 = G74,1,0)+IF($H$32 = G74,1,0)+IF($H$33 = G74,1,0)+IF($H$34 = G74,1,0)+IF($H$35 = G74,1,0)+IF($H$36 = G74,1,0)+IF($H$37 = G74,1,0)+IF($H$38 = G74,1,0)+IF($H$39 = G74,1,0)+IF($H$40 = G74,1,0)+IF($H$41 = G74,1,0)+IF($H$42 = G74,1,0)+IF($H$43 = G74,1,0)+IF($H$44 = G74,1,0)+IF($H$45 = G74,1,0)+IF($H$46 = G74,1,0)+IF($H$47 = G74,1,0)+IF($H$48 = G74,1,0)+IF($H$49 = G74,1,0)+IF($H$50 = G74,1,0)+IF($H$51 = G74,1,0)+IF($H$52 = G74,1,0)+IF($H$53 = G74,1,0)+IF($H$54 = G74,1,0)+IF($H$55 = G74,1,0)+IF($H$56 = G74,1,0)+IF($H$57 = G74,1,0)+IF($H$58 = G74,1,0)+IF($H$59 = G74,1,0)+IF($H$60 = G74,1,0)+IF($H$61 = G74,1,0)+IF($H$62 = G74,1,0)+IF($H$63 = G74,1,0)+IF($H$64 = G74,1,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G74">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G75" s="25">
         <v>60</v>
       </c>
-      <c r="H74">
+      <c r="H75" s="26">
+        <f>IF($H$15 = G75,1,0)+IF($H$16 = G75,1,0)+IF($H$17 = G75,1,0)+IF($H$18 = G75,1,0)+IF($H$19 = G75,1,0)+IF($H$20 = G75,1,0)+IF($H$21 = G75,1,0)+IF($H$22 = G75,1,0)+IF($H$23 = G75,1,0)+IF($H$24 = G75,1,0)+IF($H$25 = G75,1,0)+IF($H$26 = G75,1,0)+IF($H$27 = G75,1,0)+IF($H$28 = G75,1,0)+IF($H$29 = G75,1,0)+IF($H$30 = G75,1,0)+IF($H$31 = G75,1,0)+IF($H$32 = G75,1,0)+IF($H$33 = G75,1,0)+IF($H$34 = G75,1,0)+IF($H$35 = G75,1,0)+IF($H$36 = G75,1,0)+IF($H$37 = G75,1,0)+IF($H$38 = G75,1,0)+IF($H$39 = G75,1,0)+IF($H$40 = G75,1,0)+IF($H$41 = G75,1,0)+IF($H$42 = G75,1,0)+IF($H$43 = G75,1,0)+IF($H$44 = G75,1,0)+IF($H$45 = G75,1,0)+IF($H$46 = G75,1,0)+IF($H$47 = G75,1,0)+IF($H$48 = G75,1,0)+IF($H$49 = G75,1,0)+IF($H$50 = G75,1,0)+IF($H$51 = G75,1,0)+IF($H$52 = G75,1,0)+IF($H$53 = G75,1,0)+IF($H$54 = G75,1,0)+IF($H$55 = G75,1,0)+IF($H$56 = G75,1,0)+IF($H$57 = G75,1,0)+IF($H$58 = G75,1,0)+IF($H$59 = G75,1,0)+IF($H$60 = G75,1,0)+IF($H$61 = G75,1,0)+IF($H$62 = G75,1,0)+IF($H$63 = G75,1,0)+IF($H$64 = G75,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G75">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G76" s="25">
         <v>70</v>
       </c>
-      <c r="H75">
+      <c r="H76" s="26">
+        <f>IF($H$15 = G76,1,0)+IF($H$16 = G76,1,0)+IF($H$17 = G76,1,0)+IF($H$18 = G76,1,0)+IF($H$19 = G76,1,0)+IF($H$20 = G76,1,0)+IF($H$21 = G76,1,0)+IF($H$22 = G76,1,0)+IF($H$23 = G76,1,0)+IF($H$24 = G76,1,0)+IF($H$25 = G76,1,0)+IF($H$26 = G76,1,0)+IF($H$27 = G76,1,0)+IF($H$28 = G76,1,0)+IF($H$29 = G76,1,0)+IF($H$30 = G76,1,0)+IF($H$31 = G76,1,0)+IF($H$32 = G76,1,0)+IF($H$33 = G76,1,0)+IF($H$34 = G76,1,0)+IF($H$35 = G76,1,0)+IF($H$36 = G76,1,0)+IF($H$37 = G76,1,0)+IF($H$38 = G76,1,0)+IF($H$39 = G76,1,0)+IF($H$40 = G76,1,0)+IF($H$41 = G76,1,0)+IF($H$42 = G76,1,0)+IF($H$43 = G76,1,0)+IF($H$44 = G76,1,0)+IF($H$45 = G76,1,0)+IF($H$46 = G76,1,0)+IF($H$47 = G76,1,0)+IF($H$48 = G76,1,0)+IF($H$49 = G76,1,0)+IF($H$50 = G76,1,0)+IF($H$51 = G76,1,0)+IF($H$52 = G76,1,0)+IF($H$53 = G76,1,0)+IF($H$54 = G76,1,0)+IF($H$55 = G76,1,0)+IF($H$56 = G76,1,0)+IF($H$57 = G76,1,0)+IF($H$58 = G76,1,0)+IF($H$59 = G76,1,0)+IF($H$60 = G76,1,0)+IF($H$61 = G76,1,0)+IF($H$62 = G76,1,0)+IF($H$63 = G76,1,0)+IF($H$64 = G76,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G76">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="G77" s="25">
         <v>80</v>
       </c>
-      <c r="H76">
+      <c r="H77" s="26">
+        <f>IF($H$15 = G77,1,0)+IF($H$16 = G77,1,0)+IF($H$17 = G77,1,0)+IF($H$18 = G77,1,0)+IF($H$19 = G77,1,0)+IF($H$20 = G77,1,0)+IF($H$21 = G77,1,0)+IF($H$22 = G77,1,0)+IF($H$23 = G77,1,0)+IF($H$24 = G77,1,0)+IF($H$25 = G77,1,0)+IF($H$26 = G77,1,0)+IF($H$27 = G77,1,0)+IF($H$28 = G77,1,0)+IF($H$29 = G77,1,0)+IF($H$30 = G77,1,0)+IF($H$31 = G77,1,0)+IF($H$32 = G77,1,0)+IF($H$33 = G77,1,0)+IF($H$34 = G77,1,0)+IF($H$35 = G77,1,0)+IF($H$36 = G77,1,0)+IF($H$37 = G77,1,0)+IF($H$38 = G77,1,0)+IF($H$39 = G77,1,0)+IF($H$40 = G77,1,0)+IF($H$41 = G77,1,0)+IF($H$42 = G77,1,0)+IF($H$43 = G77,1,0)+IF($H$44 = G77,1,0)+IF($H$45 = G77,1,0)+IF($H$46 = G77,1,0)+IF($H$47 = G77,1,0)+IF($H$48 = G77,1,0)+IF($H$49 = G77,1,0)+IF($H$50 = G77,1,0)+IF($H$51 = G77,1,0)+IF($H$52 = G77,1,0)+IF($H$53 = G77,1,0)+IF($H$54 = G77,1,0)+IF($H$55 = G77,1,0)+IF($H$56 = G77,1,0)+IF($H$57 = G77,1,0)+IF($H$58 = G77,1,0)+IF($H$59 = G77,1,0)+IF($H$60 = G77,1,0)+IF($H$61 = G77,1,0)+IF($H$62 = G77,1,0)+IF($H$63 = G77,1,0)+IF($H$64 = G77,1,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G77">
+    <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="35">
         <v>90</v>
       </c>
-      <c r="H77">
+      <c r="H78" s="32">
+        <f>IF($H$15 = G78,1,0)+IF($H$16 = G78,1,0)+IF($H$17 = G78,1,0)+IF($H$18 = G78,1,0)+IF($H$19 = G78,1,0)+IF($H$20 = G78,1,0)+IF($H$21 = G78,1,0)+IF($H$22 = G78,1,0)+IF($H$23 = G78,1,0)+IF($H$24 = G78,1,0)+IF($H$25 = G78,1,0)+IF($H$26 = G78,1,0)+IF($H$27 = G78,1,0)+IF($H$28 = G78,1,0)+IF($H$29 = G78,1,0)+IF($H$30 = G78,1,0)+IF($H$31 = G78,1,0)+IF($H$32 = G78,1,0)+IF($H$33 = G78,1,0)+IF($H$34 = G78,1,0)+IF($H$35 = G78,1,0)+IF($H$36 = G78,1,0)+IF($H$37 = G78,1,0)+IF($H$38 = G78,1,0)+IF($H$39 = G78,1,0)+IF($H$40 = G78,1,0)+IF($H$41 = G78,1,0)+IF($H$42 = G78,1,0)+IF($H$43 = G78,1,0)+IF($H$44 = G78,1,0)+IF($H$45 = G78,1,0)+IF($H$46 = G78,1,0)+IF($H$47 = G78,1,0)+IF($H$48 = G78,1,0)+IF($H$49 = G78,1,0)+IF($H$50 = G78,1,0)+IF($H$51 = G78,1,0)+IF($H$52 = G78,1,0)+IF($H$53 = G78,1,0)+IF($H$54 = G78,1,0)+IF($H$55 = G78,1,0)+IF($H$56 = G78,1,0)+IF($H$57 = G78,1,0)+IF($H$58 = G78,1,0)+IF($H$59 = G78,1,0)+IF($H$60 = G78,1,0)+IF($H$61 = G78,1,0)+IF($H$62 = G78,1,0)+IF($H$63 = G78,1,0)+IF($H$64 = G78,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="H78">
-        <f>H67*100+G69*H69+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77</f>
-        <v>2780</v>
-      </c>
+    <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G79" s="33"/>
+      <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="H80">
-        <f>H78/5000*100</f>
-        <v>55.600000000000009</v>
+      <c r="G80" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H80" s="30">
+        <f>SUM(H68:H78)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="27">
+        <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
+        <v>0.57600000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FE87E8-9435-4608-9CB3-07285CFFB139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B6D3E-7F91-4C40-9397-717C7246CC27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -583,6 +583,13 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>シンチョクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -895,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,9 +972,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1007,14 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,8 +1311,8 @@
   <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1320,24 +1324,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2">
@@ -1432,22 +1436,22 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
@@ -2125,7 +2129,7 @@
       <c r="G15" s="5">
         <v>45089</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="7"/>
@@ -2177,7 +2181,7 @@
       <c r="G16" s="5">
         <v>45091</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I16" s="6"/>
@@ -2229,7 +2233,7 @@
       <c r="G17" s="5">
         <v>45091</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I17" s="6"/>
@@ -2281,7 +2285,7 @@
       <c r="G18" s="5">
         <v>45090</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6"/>
@@ -2333,7 +2337,7 @@
       <c r="G19" s="5">
         <v>45100</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6"/>
@@ -2385,7 +2389,7 @@
       <c r="G20" s="5">
         <v>45100</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="6"/>
@@ -2437,7 +2441,7 @@
       <c r="G21" s="5">
         <v>45100</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="6"/>
@@ -2489,7 +2493,7 @@
       <c r="G22" s="5">
         <v>45100</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="6"/>
@@ -2541,7 +2545,7 @@
       <c r="G23" s="5">
         <v>45100</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="6"/>
@@ -2593,7 +2597,7 @@
       <c r="G24" s="5">
         <v>45089</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="6"/>
@@ -2645,7 +2649,7 @@
       <c r="G25" s="5">
         <v>45090</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="6"/>
@@ -2697,7 +2701,7 @@
       <c r="G26" s="5">
         <v>45090</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="6"/>
@@ -2749,8 +2753,8 @@
       <c r="G27" s="5">
         <v>45092</v>
       </c>
-      <c r="H27" s="37">
-        <v>80</v>
+      <c r="H27" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2801,7 +2805,7 @@
       <c r="G28" s="5">
         <v>45097</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I28" s="6"/>
@@ -2853,7 +2857,7 @@
       <c r="G29" s="5">
         <v>45097</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="6"/>
@@ -2905,7 +2909,7 @@
       <c r="G30" s="5">
         <v>45097</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="6"/>
@@ -2957,7 +2961,7 @@
       <c r="G31" s="5">
         <v>45097</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="6"/>
@@ -3009,7 +3013,7 @@
       <c r="G32" s="5">
         <v>45100</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="6"/>
@@ -3061,7 +3065,7 @@
       <c r="G33" s="5">
         <v>45100</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="6"/>
@@ -3113,7 +3117,7 @@
       <c r="G34" s="5">
         <v>45100</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="6"/>
@@ -3165,7 +3169,7 @@
       <c r="G35" s="5">
         <v>45091</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="4">
         <v>50</v>
       </c>
       <c r="I35" s="6"/>
@@ -3217,7 +3221,7 @@
       <c r="G36" s="5">
         <v>45091</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="6"/>
@@ -3269,7 +3273,7 @@
       <c r="G37" s="5">
         <v>45091</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="6"/>
@@ -3321,7 +3325,7 @@
       <c r="G38" s="5">
         <v>45091</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="4">
         <v>90</v>
       </c>
       <c r="I38" s="6"/>
@@ -3373,7 +3377,7 @@
       <c r="G39" s="5">
         <v>45092</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="6"/>
@@ -3425,7 +3429,7 @@
       <c r="G40" s="5">
         <v>45093</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I40" s="6"/>
@@ -3477,7 +3481,7 @@
       <c r="G41" s="5">
         <v>45097</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I41" s="6"/>
@@ -3529,7 +3533,7 @@
       <c r="G42" s="5">
         <v>45091</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="6"/>
@@ -3580,7 +3584,7 @@
       <c r="G43" s="5">
         <v>45091</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="6"/>
@@ -3632,7 +3636,7 @@
       <c r="G44" s="5">
         <v>45089</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="6"/>
@@ -3684,7 +3688,7 @@
       <c r="G45" s="5">
         <v>45089</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="6"/>
@@ -3736,7 +3740,7 @@
       <c r="G46" s="5">
         <v>45091</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="4" t="s">
         <v>83</v>
       </c>
       <c r="I46" s="6"/>
@@ -3788,7 +3792,7 @@
       <c r="G47" s="5">
         <v>45089</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="6"/>
@@ -3840,7 +3844,7 @@
       <c r="G48" s="5">
         <v>45093</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="4">
         <v>50</v>
       </c>
       <c r="I48" s="6"/>
@@ -3892,7 +3896,7 @@
       <c r="G49" s="5">
         <v>45093</v>
       </c>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I49" s="6"/>
@@ -3944,7 +3948,7 @@
       <c r="G50" s="5">
         <v>45097</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="4">
         <v>60</v>
       </c>
       <c r="I50" s="6"/>
@@ -3996,7 +4000,7 @@
       <c r="G51" s="5">
         <v>45097</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="4">
         <v>30</v>
       </c>
       <c r="I51" s="6"/>
@@ -4048,7 +4052,7 @@
       <c r="G52" s="5">
         <v>45091</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="4">
         <v>80</v>
       </c>
       <c r="I52" s="6"/>
@@ -4100,7 +4104,7 @@
       <c r="G53" s="5">
         <v>45091</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="4">
         <v>80</v>
       </c>
       <c r="I53" s="6"/>
@@ -4152,7 +4156,7 @@
       <c r="G54" s="5">
         <v>45093</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="4">
         <v>50</v>
       </c>
       <c r="I54" s="6"/>
@@ -4204,7 +4208,7 @@
       <c r="G55" s="5">
         <v>45093</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="4">
         <v>50</v>
       </c>
       <c r="I55" s="6"/>
@@ -4256,7 +4260,7 @@
       <c r="G56" s="5">
         <v>45099</v>
       </c>
-      <c r="H56" s="37">
+      <c r="H56" s="4">
         <v>30</v>
       </c>
       <c r="I56" s="6"/>
@@ -4308,7 +4312,7 @@
       <c r="G57" s="5">
         <v>45099</v>
       </c>
-      <c r="H57" s="37">
+      <c r="H57" s="4">
         <v>30</v>
       </c>
       <c r="I57" s="6"/>
@@ -4360,7 +4364,7 @@
       <c r="G58" s="5">
         <v>45089</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I58" s="6"/>
@@ -4412,7 +4416,7 @@
       <c r="G59" s="5">
         <v>45089</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="6"/>
@@ -4464,7 +4468,7 @@
       <c r="G60" s="5">
         <v>45089</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="6"/>
@@ -4516,7 +4520,7 @@
       <c r="G61" s="5">
         <v>45089</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="H61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="6"/>
@@ -4568,7 +4572,7 @@
       <c r="G62" s="5">
         <v>45089</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="6"/>
@@ -4620,7 +4624,7 @@
       <c r="G63" s="5">
         <v>45089</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I63" s="6"/>
@@ -4672,7 +4676,7 @@
       <c r="G64" s="5">
         <v>45097</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I64" s="6"/>
@@ -4724,7 +4728,7 @@
       <c r="G65" s="5">
         <v>45100</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="H65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I65" s="6"/>
@@ -4760,138 +4764,138 @@
     </row>
     <row r="66" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G67" s="28" t="s">
+      <c r="G67" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="D68" s="39">
+      <c r="D68" s="37">
         <v>45092</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E68" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G68" s="31" t="s">
+      <c r="G68" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="38">
-        <f>IF($H$15 = G68,1,0)+IF($H$16 = G68,1,0)+IF($H$17 = G68,1,0)+IF($H$18 = G68,1,0)+IF($H$19 = G68,1,0)+IF($H$20 = G68,1,0)+IF($H$21 = G68,1,0)+IF($H$22 = G68,1,0)+IF($H$23 = G68,1,0)+IF($H$24 = G68,1,0)+IF($H$25 = G68,1,0)+IF($H$26 = G68,1,0)+IF($H$27 = G68,1,0)+IF($H$28 = G68,1,0)+IF($H$29 = G68,1,0)+IF($H$30 = G68,1,0)+IF($H$31 = G68,1,0)+IF($H$32 = G68,1,0)+IF($H$33 = G68,1,0)+IF($H$34 = G68,1,0)+IF($H$35 = G68,1,0)+IF($H$36 = G68,1,0)+IF($H$37 = G68,1,0)+IF($H$38 = G68,1,0)+IF($H$39 = G68,1,0)+IF($H$40 = G68,1,0)+IF($H$41 = G68,1,0)+IF($H$42 = G68,1,0)+IF($H$43 = G68,1,0)+IF($H$44 = G68,1,0)+IF($H$45 = G68,1,0)+IF($H$46 = G68,1,0)+IF($H$47 = G68,1,0)+IF($H$48 = G68,1,0)+IF($H$49 = G68,1,0)+IF($H$50 = G68,1,0)+IF($H$51 = G68,1,0)+IF($H$52 = G68,1,0)+IF($H$53 = G68,1,0)+IF($H$54 = G68,1,0)+IF($H$55 = G68,1,0)+IF($H$56 = G68,1,0)+IF($H$57 = G68,1,0)+IF($H$58 = G68,1,0)+IF($H$59 = G68,1,0)+IF($H$60 = G68,1,0)+IF($H$61 = G68,1,0)+IF($H$62 = G68,1,0)+IF($H$63 = G68,1,0)+IF($H$64 = G68,1,0)</f>
-        <v>22</v>
+      <c r="H68" s="36">
+        <f t="shared" ref="H68:H78" si="0">IF($H$15 = G68,1,0)+IF($H$16 = G68,1,0)+IF($H$17 = G68,1,0)+IF($H$18 = G68,1,0)+IF($H$19 = G68,1,0)+IF($H$20 = G68,1,0)+IF($H$21 = G68,1,0)+IF($H$22 = G68,1,0)+IF($H$23 = G68,1,0)+IF($H$24 = G68,1,0)+IF($H$25 = G68,1,0)+IF($H$26 = G68,1,0)+IF($H$27 = G68,1,0)+IF($H$28 = G68,1,0)+IF($H$29 = G68,1,0)+IF($H$30 = G68,1,0)+IF($H$31 = G68,1,0)+IF($H$32 = G68,1,0)+IF($H$33 = G68,1,0)+IF($H$34 = G68,1,0)+IF($H$35 = G68,1,0)+IF($H$36 = G68,1,0)+IF($H$37 = G68,1,0)+IF($H$38 = G68,1,0)+IF($H$39 = G68,1,0)+IF($H$40 = G68,1,0)+IF($H$41 = G68,1,0)+IF($H$42 = G68,1,0)+IF($H$43 = G68,1,0)+IF($H$44 = G68,1,0)+IF($H$45 = G68,1,0)+IF($H$46 = G68,1,0)+IF($H$47 = G68,1,0)+IF($H$48 = G68,1,0)+IF($H$49 = G68,1,0)+IF($H$50 = G68,1,0)+IF($H$51 = G68,1,0)+IF($H$52 = G68,1,0)+IF($H$53 = G68,1,0)+IF($H$54 = G68,1,0)+IF($H$55 = G68,1,0)+IF($H$56 = G68,1,0)+IF($H$57 = G68,1,0)+IF($H$58 = G68,1,0)+IF($H$59 = G68,1,0)+IF($H$60 = G68,1,0)+IF($H$61 = G68,1,0)+IF($H$62 = G68,1,0)+IF($H$63 = G68,1,0)+IF($H$64 = G68,1,0)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G69" s="25" t="s">
+      <c r="G69" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H69" s="26">
-        <f>IF($H$15 = G69,1,0)+IF($H$16 = G69,1,0)+IF($H$17 = G69,1,0)+IF($H$18 = G69,1,0)+IF($H$19 = G69,1,0)+IF($H$20 = G69,1,0)+IF($H$21 = G69,1,0)+IF($H$22 = G69,1,0)+IF($H$23 = G69,1,0)+IF($H$24 = G69,1,0)+IF($H$25 = G69,1,0)+IF($H$26 = G69,1,0)+IF($H$27 = G69,1,0)+IF($H$28 = G69,1,0)+IF($H$29 = G69,1,0)+IF($H$30 = G69,1,0)+IF($H$31 = G69,1,0)+IF($H$32 = G69,1,0)+IF($H$33 = G69,1,0)+IF($H$34 = G69,1,0)+IF($H$35 = G69,1,0)+IF($H$36 = G69,1,0)+IF($H$37 = G69,1,0)+IF($H$38 = G69,1,0)+IF($H$39 = G69,1,0)+IF($H$40 = G69,1,0)+IF($H$41 = G69,1,0)+IF($H$42 = G69,1,0)+IF($H$43 = G69,1,0)+IF($H$44 = G69,1,0)+IF($H$45 = G69,1,0)+IF($H$46 = G69,1,0)+IF($H$47 = G69,1,0)+IF($H$48 = G69,1,0)+IF($H$49 = G69,1,0)+IF($H$50 = G69,1,0)+IF($H$51 = G69,1,0)+IF($H$52 = G69,1,0)+IF($H$53 = G69,1,0)+IF($H$54 = G69,1,0)+IF($H$55 = G69,1,0)+IF($H$56 = G69,1,0)+IF($H$57 = G69,1,0)+IF($H$58 = G69,1,0)+IF($H$59 = G69,1,0)+IF($H$60 = G69,1,0)+IF($H$61 = G69,1,0)+IF($H$62 = G69,1,0)+IF($H$63 = G69,1,0)+IF($H$64 = G69,1,0)</f>
+      <c r="H69" s="25">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G70" s="25">
+      <c r="G70" s="24">
         <v>10</v>
       </c>
-      <c r="H70" s="26">
-        <f>IF($H$15 = G70,1,0)+IF($H$16 = G70,1,0)+IF($H$17 = G70,1,0)+IF($H$18 = G70,1,0)+IF($H$19 = G70,1,0)+IF($H$20 = G70,1,0)+IF($H$21 = G70,1,0)+IF($H$22 = G70,1,0)+IF($H$23 = G70,1,0)+IF($H$24 = G70,1,0)+IF($H$25 = G70,1,0)+IF($H$26 = G70,1,0)+IF($H$27 = G70,1,0)+IF($H$28 = G70,1,0)+IF($H$29 = G70,1,0)+IF($H$30 = G70,1,0)+IF($H$31 = G70,1,0)+IF($H$32 = G70,1,0)+IF($H$33 = G70,1,0)+IF($H$34 = G70,1,0)+IF($H$35 = G70,1,0)+IF($H$36 = G70,1,0)+IF($H$37 = G70,1,0)+IF($H$38 = G70,1,0)+IF($H$39 = G70,1,0)+IF($H$40 = G70,1,0)+IF($H$41 = G70,1,0)+IF($H$42 = G70,1,0)+IF($H$43 = G70,1,0)+IF($H$44 = G70,1,0)+IF($H$45 = G70,1,0)+IF($H$46 = G70,1,0)+IF($H$47 = G70,1,0)+IF($H$48 = G70,1,0)+IF($H$49 = G70,1,0)+IF($H$50 = G70,1,0)+IF($H$51 = G70,1,0)+IF($H$52 = G70,1,0)+IF($H$53 = G70,1,0)+IF($H$54 = G70,1,0)+IF($H$55 = G70,1,0)+IF($H$56 = G70,1,0)+IF($H$57 = G70,1,0)+IF($H$58 = G70,1,0)+IF($H$59 = G70,1,0)+IF($H$60 = G70,1,0)+IF($H$61 = G70,1,0)+IF($H$62 = G70,1,0)+IF($H$63 = G70,1,0)+IF($H$64 = G70,1,0)</f>
+      <c r="H70" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G71" s="25">
+      <c r="G71" s="24">
         <v>20</v>
       </c>
-      <c r="H71" s="26">
-        <f>IF($H$15 = G71,1,0)+IF($H$16 = G71,1,0)+IF($H$17 = G71,1,0)+IF($H$18 = G71,1,0)+IF($H$19 = G71,1,0)+IF($H$20 = G71,1,0)+IF($H$21 = G71,1,0)+IF($H$22 = G71,1,0)+IF($H$23 = G71,1,0)+IF($H$24 = G71,1,0)+IF($H$25 = G71,1,0)+IF($H$26 = G71,1,0)+IF($H$27 = G71,1,0)+IF($H$28 = G71,1,0)+IF($H$29 = G71,1,0)+IF($H$30 = G71,1,0)+IF($H$31 = G71,1,0)+IF($H$32 = G71,1,0)+IF($H$33 = G71,1,0)+IF($H$34 = G71,1,0)+IF($H$35 = G71,1,0)+IF($H$36 = G71,1,0)+IF($H$37 = G71,1,0)+IF($H$38 = G71,1,0)+IF($H$39 = G71,1,0)+IF($H$40 = G71,1,0)+IF($H$41 = G71,1,0)+IF($H$42 = G71,1,0)+IF($H$43 = G71,1,0)+IF($H$44 = G71,1,0)+IF($H$45 = G71,1,0)+IF($H$46 = G71,1,0)+IF($H$47 = G71,1,0)+IF($H$48 = G71,1,0)+IF($H$49 = G71,1,0)+IF($H$50 = G71,1,0)+IF($H$51 = G71,1,0)+IF($H$52 = G71,1,0)+IF($H$53 = G71,1,0)+IF($H$54 = G71,1,0)+IF($H$55 = G71,1,0)+IF($H$56 = G71,1,0)+IF($H$57 = G71,1,0)+IF($H$58 = G71,1,0)+IF($H$59 = G71,1,0)+IF($H$60 = G71,1,0)+IF($H$61 = G71,1,0)+IF($H$62 = G71,1,0)+IF($H$63 = G71,1,0)+IF($H$64 = G71,1,0)</f>
+      <c r="H71" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G72" s="25">
+      <c r="G72" s="24">
         <v>30</v>
       </c>
-      <c r="H72" s="26">
-        <f>IF($H$15 = G72,1,0)+IF($H$16 = G72,1,0)+IF($H$17 = G72,1,0)+IF($H$18 = G72,1,0)+IF($H$19 = G72,1,0)+IF($H$20 = G72,1,0)+IF($H$21 = G72,1,0)+IF($H$22 = G72,1,0)+IF($H$23 = G72,1,0)+IF($H$24 = G72,1,0)+IF($H$25 = G72,1,0)+IF($H$26 = G72,1,0)+IF($H$27 = G72,1,0)+IF($H$28 = G72,1,0)+IF($H$29 = G72,1,0)+IF($H$30 = G72,1,0)+IF($H$31 = G72,1,0)+IF($H$32 = G72,1,0)+IF($H$33 = G72,1,0)+IF($H$34 = G72,1,0)+IF($H$35 = G72,1,0)+IF($H$36 = G72,1,0)+IF($H$37 = G72,1,0)+IF($H$38 = G72,1,0)+IF($H$39 = G72,1,0)+IF($H$40 = G72,1,0)+IF($H$41 = G72,1,0)+IF($H$42 = G72,1,0)+IF($H$43 = G72,1,0)+IF($H$44 = G72,1,0)+IF($H$45 = G72,1,0)+IF($H$46 = G72,1,0)+IF($H$47 = G72,1,0)+IF($H$48 = G72,1,0)+IF($H$49 = G72,1,0)+IF($H$50 = G72,1,0)+IF($H$51 = G72,1,0)+IF($H$52 = G72,1,0)+IF($H$53 = G72,1,0)+IF($H$54 = G72,1,0)+IF($H$55 = G72,1,0)+IF($H$56 = G72,1,0)+IF($H$57 = G72,1,0)+IF($H$58 = G72,1,0)+IF($H$59 = G72,1,0)+IF($H$60 = G72,1,0)+IF($H$61 = G72,1,0)+IF($H$62 = G72,1,0)+IF($H$63 = G72,1,0)+IF($H$64 = G72,1,0)</f>
+      <c r="H72" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G73" s="25">
+      <c r="G73" s="24">
         <v>40</v>
       </c>
-      <c r="H73" s="26">
-        <f>IF($H$15 = G73,1,0)+IF($H$16 = G73,1,0)+IF($H$17 = G73,1,0)+IF($H$18 = G73,1,0)+IF($H$19 = G73,1,0)+IF($H$20 = G73,1,0)+IF($H$21 = G73,1,0)+IF($H$22 = G73,1,0)+IF($H$23 = G73,1,0)+IF($H$24 = G73,1,0)+IF($H$25 = G73,1,0)+IF($H$26 = G73,1,0)+IF($H$27 = G73,1,0)+IF($H$28 = G73,1,0)+IF($H$29 = G73,1,0)+IF($H$30 = G73,1,0)+IF($H$31 = G73,1,0)+IF($H$32 = G73,1,0)+IF($H$33 = G73,1,0)+IF($H$34 = G73,1,0)+IF($H$35 = G73,1,0)+IF($H$36 = G73,1,0)+IF($H$37 = G73,1,0)+IF($H$38 = G73,1,0)+IF($H$39 = G73,1,0)+IF($H$40 = G73,1,0)+IF($H$41 = G73,1,0)+IF($H$42 = G73,1,0)+IF($H$43 = G73,1,0)+IF($H$44 = G73,1,0)+IF($H$45 = G73,1,0)+IF($H$46 = G73,1,0)+IF($H$47 = G73,1,0)+IF($H$48 = G73,1,0)+IF($H$49 = G73,1,0)+IF($H$50 = G73,1,0)+IF($H$51 = G73,1,0)+IF($H$52 = G73,1,0)+IF($H$53 = G73,1,0)+IF($H$54 = G73,1,0)+IF($H$55 = G73,1,0)+IF($H$56 = G73,1,0)+IF($H$57 = G73,1,0)+IF($H$58 = G73,1,0)+IF($H$59 = G73,1,0)+IF($H$60 = G73,1,0)+IF($H$61 = G73,1,0)+IF($H$62 = G73,1,0)+IF($H$63 = G73,1,0)+IF($H$64 = G73,1,0)</f>
+      <c r="H73" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G74" s="25">
+      <c r="G74" s="24">
         <v>50</v>
       </c>
-      <c r="H74" s="26">
-        <f>IF($H$15 = G74,1,0)+IF($H$16 = G74,1,0)+IF($H$17 = G74,1,0)+IF($H$18 = G74,1,0)+IF($H$19 = G74,1,0)+IF($H$20 = G74,1,0)+IF($H$21 = G74,1,0)+IF($H$22 = G74,1,0)+IF($H$23 = G74,1,0)+IF($H$24 = G74,1,0)+IF($H$25 = G74,1,0)+IF($H$26 = G74,1,0)+IF($H$27 = G74,1,0)+IF($H$28 = G74,1,0)+IF($H$29 = G74,1,0)+IF($H$30 = G74,1,0)+IF($H$31 = G74,1,0)+IF($H$32 = G74,1,0)+IF($H$33 = G74,1,0)+IF($H$34 = G74,1,0)+IF($H$35 = G74,1,0)+IF($H$36 = G74,1,0)+IF($H$37 = G74,1,0)+IF($H$38 = G74,1,0)+IF($H$39 = G74,1,0)+IF($H$40 = G74,1,0)+IF($H$41 = G74,1,0)+IF($H$42 = G74,1,0)+IF($H$43 = G74,1,0)+IF($H$44 = G74,1,0)+IF($H$45 = G74,1,0)+IF($H$46 = G74,1,0)+IF($H$47 = G74,1,0)+IF($H$48 = G74,1,0)+IF($H$49 = G74,1,0)+IF($H$50 = G74,1,0)+IF($H$51 = G74,1,0)+IF($H$52 = G74,1,0)+IF($H$53 = G74,1,0)+IF($H$54 = G74,1,0)+IF($H$55 = G74,1,0)+IF($H$56 = G74,1,0)+IF($H$57 = G74,1,0)+IF($H$58 = G74,1,0)+IF($H$59 = G74,1,0)+IF($H$60 = G74,1,0)+IF($H$61 = G74,1,0)+IF($H$62 = G74,1,0)+IF($H$63 = G74,1,0)+IF($H$64 = G74,1,0)</f>
+      <c r="H74" s="25">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G75" s="25">
+      <c r="G75" s="24">
         <v>60</v>
       </c>
-      <c r="H75" s="26">
-        <f>IF($H$15 = G75,1,0)+IF($H$16 = G75,1,0)+IF($H$17 = G75,1,0)+IF($H$18 = G75,1,0)+IF($H$19 = G75,1,0)+IF($H$20 = G75,1,0)+IF($H$21 = G75,1,0)+IF($H$22 = G75,1,0)+IF($H$23 = G75,1,0)+IF($H$24 = G75,1,0)+IF($H$25 = G75,1,0)+IF($H$26 = G75,1,0)+IF($H$27 = G75,1,0)+IF($H$28 = G75,1,0)+IF($H$29 = G75,1,0)+IF($H$30 = G75,1,0)+IF($H$31 = G75,1,0)+IF($H$32 = G75,1,0)+IF($H$33 = G75,1,0)+IF($H$34 = G75,1,0)+IF($H$35 = G75,1,0)+IF($H$36 = G75,1,0)+IF($H$37 = G75,1,0)+IF($H$38 = G75,1,0)+IF($H$39 = G75,1,0)+IF($H$40 = G75,1,0)+IF($H$41 = G75,1,0)+IF($H$42 = G75,1,0)+IF($H$43 = G75,1,0)+IF($H$44 = G75,1,0)+IF($H$45 = G75,1,0)+IF($H$46 = G75,1,0)+IF($H$47 = G75,1,0)+IF($H$48 = G75,1,0)+IF($H$49 = G75,1,0)+IF($H$50 = G75,1,0)+IF($H$51 = G75,1,0)+IF($H$52 = G75,1,0)+IF($H$53 = G75,1,0)+IF($H$54 = G75,1,0)+IF($H$55 = G75,1,0)+IF($H$56 = G75,1,0)+IF($H$57 = G75,1,0)+IF($H$58 = G75,1,0)+IF($H$59 = G75,1,0)+IF($H$60 = G75,1,0)+IF($H$61 = G75,1,0)+IF($H$62 = G75,1,0)+IF($H$63 = G75,1,0)+IF($H$64 = G75,1,0)</f>
+      <c r="H75" s="25">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G76" s="25">
+      <c r="G76" s="24">
         <v>70</v>
       </c>
-      <c r="H76" s="26">
-        <f>IF($H$15 = G76,1,0)+IF($H$16 = G76,1,0)+IF($H$17 = G76,1,0)+IF($H$18 = G76,1,0)+IF($H$19 = G76,1,0)+IF($H$20 = G76,1,0)+IF($H$21 = G76,1,0)+IF($H$22 = G76,1,0)+IF($H$23 = G76,1,0)+IF($H$24 = G76,1,0)+IF($H$25 = G76,1,0)+IF($H$26 = G76,1,0)+IF($H$27 = G76,1,0)+IF($H$28 = G76,1,0)+IF($H$29 = G76,1,0)+IF($H$30 = G76,1,0)+IF($H$31 = G76,1,0)+IF($H$32 = G76,1,0)+IF($H$33 = G76,1,0)+IF($H$34 = G76,1,0)+IF($H$35 = G76,1,0)+IF($H$36 = G76,1,0)+IF($H$37 = G76,1,0)+IF($H$38 = G76,1,0)+IF($H$39 = G76,1,0)+IF($H$40 = G76,1,0)+IF($H$41 = G76,1,0)+IF($H$42 = G76,1,0)+IF($H$43 = G76,1,0)+IF($H$44 = G76,1,0)+IF($H$45 = G76,1,0)+IF($H$46 = G76,1,0)+IF($H$47 = G76,1,0)+IF($H$48 = G76,1,0)+IF($H$49 = G76,1,0)+IF($H$50 = G76,1,0)+IF($H$51 = G76,1,0)+IF($H$52 = G76,1,0)+IF($H$53 = G76,1,0)+IF($H$54 = G76,1,0)+IF($H$55 = G76,1,0)+IF($H$56 = G76,1,0)+IF($H$57 = G76,1,0)+IF($H$58 = G76,1,0)+IF($H$59 = G76,1,0)+IF($H$60 = G76,1,0)+IF($H$61 = G76,1,0)+IF($H$62 = G76,1,0)+IF($H$63 = G76,1,0)+IF($H$64 = G76,1,0)</f>
+      <c r="H76" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G77" s="25">
+      <c r="G77" s="24">
         <v>80</v>
       </c>
-      <c r="H77" s="26">
-        <f>IF($H$15 = G77,1,0)+IF($H$16 = G77,1,0)+IF($H$17 = G77,1,0)+IF($H$18 = G77,1,0)+IF($H$19 = G77,1,0)+IF($H$20 = G77,1,0)+IF($H$21 = G77,1,0)+IF($H$22 = G77,1,0)+IF($H$23 = G77,1,0)+IF($H$24 = G77,1,0)+IF($H$25 = G77,1,0)+IF($H$26 = G77,1,0)+IF($H$27 = G77,1,0)+IF($H$28 = G77,1,0)+IF($H$29 = G77,1,0)+IF($H$30 = G77,1,0)+IF($H$31 = G77,1,0)+IF($H$32 = G77,1,0)+IF($H$33 = G77,1,0)+IF($H$34 = G77,1,0)+IF($H$35 = G77,1,0)+IF($H$36 = G77,1,0)+IF($H$37 = G77,1,0)+IF($H$38 = G77,1,0)+IF($H$39 = G77,1,0)+IF($H$40 = G77,1,0)+IF($H$41 = G77,1,0)+IF($H$42 = G77,1,0)+IF($H$43 = G77,1,0)+IF($H$44 = G77,1,0)+IF($H$45 = G77,1,0)+IF($H$46 = G77,1,0)+IF($H$47 = G77,1,0)+IF($H$48 = G77,1,0)+IF($H$49 = G77,1,0)+IF($H$50 = G77,1,0)+IF($H$51 = G77,1,0)+IF($H$52 = G77,1,0)+IF($H$53 = G77,1,0)+IF($H$54 = G77,1,0)+IF($H$55 = G77,1,0)+IF($H$56 = G77,1,0)+IF($H$57 = G77,1,0)+IF($H$58 = G77,1,0)+IF($H$59 = G77,1,0)+IF($H$60 = G77,1,0)+IF($H$61 = G77,1,0)+IF($H$62 = G77,1,0)+IF($H$63 = G77,1,0)+IF($H$64 = G77,1,0)</f>
-        <v>3</v>
+      <c r="H77" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G78" s="35">
+      <c r="G78" s="34">
         <v>90</v>
       </c>
-      <c r="H78" s="32">
-        <f>IF($H$15 = G78,1,0)+IF($H$16 = G78,1,0)+IF($H$17 = G78,1,0)+IF($H$18 = G78,1,0)+IF($H$19 = G78,1,0)+IF($H$20 = G78,1,0)+IF($H$21 = G78,1,0)+IF($H$22 = G78,1,0)+IF($H$23 = G78,1,0)+IF($H$24 = G78,1,0)+IF($H$25 = G78,1,0)+IF($H$26 = G78,1,0)+IF($H$27 = G78,1,0)+IF($H$28 = G78,1,0)+IF($H$29 = G78,1,0)+IF($H$30 = G78,1,0)+IF($H$31 = G78,1,0)+IF($H$32 = G78,1,0)+IF($H$33 = G78,1,0)+IF($H$34 = G78,1,0)+IF($H$35 = G78,1,0)+IF($H$36 = G78,1,0)+IF($H$37 = G78,1,0)+IF($H$38 = G78,1,0)+IF($H$39 = G78,1,0)+IF($H$40 = G78,1,0)+IF($H$41 = G78,1,0)+IF($H$42 = G78,1,0)+IF($H$43 = G78,1,0)+IF($H$44 = G78,1,0)+IF($H$45 = G78,1,0)+IF($H$46 = G78,1,0)+IF($H$47 = G78,1,0)+IF($H$48 = G78,1,0)+IF($H$49 = G78,1,0)+IF($H$50 = G78,1,0)+IF($H$51 = G78,1,0)+IF($H$52 = G78,1,0)+IF($H$53 = G78,1,0)+IF($H$54 = G78,1,0)+IF($H$55 = G78,1,0)+IF($H$56 = G78,1,0)+IF($H$57 = G78,1,0)+IF($H$58 = G78,1,0)+IF($H$59 = G78,1,0)+IF($H$60 = G78,1,0)+IF($H$61 = G78,1,0)+IF($H$62 = G78,1,0)+IF($H$63 = G78,1,0)+IF($H$64 = G78,1,0)</f>
+      <c r="H78" s="31">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G79" s="33"/>
-      <c r="H79" s="34"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G80" s="36" t="s">
+      <c r="G80" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H80" s="29">
         <f>SUM(H68:H78)</f>
         <v>50</v>
       </c>
     </row>
     <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G81" s="35" t="s">
+      <c r="G81" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.57600000000000007</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B6D3E-7F91-4C40-9397-717C7246CC27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3992DA90-C455-4DE6-A77F-219514863E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
+    <sheet name="予実管理グラフ" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$C$14:$AL$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">進捗管理!$C$14:$AL$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="109">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -591,6 +592,196 @@
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>進捗率</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定進捗率</t>
+    <rPh sb="0" eb="5">
+      <t>ヨテイシンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総工数</t>
+    <rPh sb="0" eb="3">
+      <t>ソウコウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日工数</t>
+    <rPh sb="0" eb="2">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数積算</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数積算＝（（工数:人日）ｘ（各進捗率））ｘ全部</t>
+    <rPh sb="0" eb="4">
+      <t>コウスウセキサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日工数＝当日作業した工数</t>
+    <rPh sb="0" eb="4">
+      <t>トウジツコウスウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウジツサギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率＝（工数積算）/（総工数）</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セキサン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ソウコウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定進捗率＝予定されている進捗率</t>
+    <rPh sb="0" eb="5">
+      <t>ヨテイシンチョクリツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これにはテストや最終チェックの工数が入ってませんが</t>
+    <rPh sb="8" eb="10">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際はテストなども入れた総工数で計算してください</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ソウコウスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数積算は実際のみなさんの表から取り出して計算ください</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総工数</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -598,10 +789,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -635,6 +827,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="12">
@@ -705,7 +911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -896,13 +1102,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,11 +1248,33 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,6 +1296,1093 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>工数予実グラフ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>予実管理グラフ!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>進捗率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>予実管理グラフ!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>予実管理グラフ!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0%">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E403-4249-B35F-3268D5166557}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>予実管理グラフ!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>予定進捗率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>予実管理グラフ!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>予実管理グラフ!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E403-4249-B35F-3268D5166557}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2099073712"/>
+        <c:axId val="1725595552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2099073712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725595552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1725595552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2099073712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0410B1-9B69-9A02-C560-F7E8A574ECA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1315,33 +2655,33 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.4140625" customWidth="1"/>
+    <col min="9" max="38" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2">
@@ -1436,22 +2776,22 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1543,7 +2883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1585,7 +2925,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1635,7 +2975,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1685,7 +3025,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1735,7 +3075,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1777,7 +3117,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1827,7 +3167,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1877,7 +3217,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1927,7 +3267,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1969,7 +3309,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -2019,7 +3359,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -2069,7 +3409,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -2141,8 +3481,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="10"/>
       <c r="U15" s="11"/>
       <c r="V15" s="1"/>
@@ -2163,7 +3503,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -2193,8 +3533,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -2215,7 +3555,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -2245,8 +3585,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -2297,8 +3637,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="1"/>
@@ -2319,7 +3659,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -2356,8 +3696,8 @@
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
@@ -2408,8 +3748,8 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -2423,7 +3763,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -2460,8 +3800,8 @@
       <c r="V21" s="11"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
@@ -2475,7 +3815,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="13" t="s">
@@ -2512,8 +3852,8 @@
       <c r="V22" s="11"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
@@ -2527,7 +3867,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="13" t="s">
@@ -2564,8 +3904,8 @@
       <c r="V23" s="11"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -2631,7 +3971,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="15" t="s">
@@ -2683,7 +4023,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -2787,7 +4127,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="15" t="s">
@@ -2943,7 +4283,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -2995,7 +4335,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -3047,7 +4387,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -3099,7 +4439,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="15" t="s">
@@ -3167,10 +4507,10 @@
         <v>45086</v>
       </c>
       <c r="G35" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H35" s="4">
-        <v>50</v>
+        <v>45092</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -3186,7 +4526,7 @@
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
-      <c r="W35" s="1"/>
+      <c r="W35" s="10"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -3203,7 +4543,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17" t="s">
@@ -3255,7 +4595,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17" t="s">
@@ -3325,8 +4665,8 @@
       <c r="G38" s="5">
         <v>45091</v>
       </c>
-      <c r="H38" s="4">
-        <v>90</v>
+      <c r="H38" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -3372,10 +4712,10 @@
         <v>23</v>
       </c>
       <c r="F39" s="5">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G39" s="5">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>28</v>
@@ -3393,13 +4733,13 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
@@ -3424,10 +4764,10 @@
         <v>23</v>
       </c>
       <c r="F40" s="5">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="G40" s="5">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>28</v>
@@ -3446,13 +4786,13 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
@@ -3476,10 +4816,10 @@
         <v>23</v>
       </c>
       <c r="F41" s="5">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G41" s="5">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>28</v>
@@ -3498,15 +4838,14 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
+      <c r="W41" s="6"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
+      <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -3618,7 +4957,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="19" t="s">
@@ -3670,7 +5009,7 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -3930,7 +5269,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="19" t="s">
@@ -4086,7 +5425,7 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="21" t="s">
@@ -4346,7 +5685,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -4450,7 +5789,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -4554,7 +5893,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -4762,8 +6101,8 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="66" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G67" s="27" t="s">
         <v>87</v>
       </c>
@@ -4782,8 +6121,8 @@
         <v>15</v>
       </c>
       <c r="H68" s="36">
-        <f t="shared" ref="H68:H78" si="0">IF($H$15 = G68,1,0)+IF($H$16 = G68,1,0)+IF($H$17 = G68,1,0)+IF($H$18 = G68,1,0)+IF($H$19 = G68,1,0)+IF($H$20 = G68,1,0)+IF($H$21 = G68,1,0)+IF($H$22 = G68,1,0)+IF($H$23 = G68,1,0)+IF($H$24 = G68,1,0)+IF($H$25 = G68,1,0)+IF($H$26 = G68,1,0)+IF($H$27 = G68,1,0)+IF($H$28 = G68,1,0)+IF($H$29 = G68,1,0)+IF($H$30 = G68,1,0)+IF($H$31 = G68,1,0)+IF($H$32 = G68,1,0)+IF($H$33 = G68,1,0)+IF($H$34 = G68,1,0)+IF($H$35 = G68,1,0)+IF($H$36 = G68,1,0)+IF($H$37 = G68,1,0)+IF($H$38 = G68,1,0)+IF($H$39 = G68,1,0)+IF($H$40 = G68,1,0)+IF($H$41 = G68,1,0)+IF($H$42 = G68,1,0)+IF($H$43 = G68,1,0)+IF($H$44 = G68,1,0)+IF($H$45 = G68,1,0)+IF($H$46 = G68,1,0)+IF($H$47 = G68,1,0)+IF($H$48 = G68,1,0)+IF($H$49 = G68,1,0)+IF($H$50 = G68,1,0)+IF($H$51 = G68,1,0)+IF($H$52 = G68,1,0)+IF($H$53 = G68,1,0)+IF($H$54 = G68,1,0)+IF($H$55 = G68,1,0)+IF($H$56 = G68,1,0)+IF($H$57 = G68,1,0)+IF($H$58 = G68,1,0)+IF($H$59 = G68,1,0)+IF($H$60 = G68,1,0)+IF($H$61 = G68,1,0)+IF($H$62 = G68,1,0)+IF($H$63 = G68,1,0)+IF($H$64 = G68,1,0)</f>
-        <v>23</v>
+        <f>COUNTIF(H15:H65,"終了")</f>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
@@ -4791,8 +6130,8 @@
         <v>28</v>
       </c>
       <c r="H69" s="25">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>COUNTIF(H15:H65,"未着手")</f>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
@@ -4800,7 +6139,7 @@
         <v>10</v>
       </c>
       <c r="H70" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H15:H65,10)</f>
         <v>0</v>
       </c>
     </row>
@@ -4809,7 +6148,7 @@
         <v>20</v>
       </c>
       <c r="H71" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H15:H65,20)</f>
         <v>0</v>
       </c>
     </row>
@@ -4818,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="H72" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H15:H65,30)</f>
         <v>3</v>
       </c>
     </row>
@@ -4827,7 +6166,7 @@
         <v>40</v>
       </c>
       <c r="H73" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H15:H65,40)</f>
         <v>0</v>
       </c>
     </row>
@@ -4836,8 +6175,8 @@
         <v>50</v>
       </c>
       <c r="H74" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>COUNTIF(H15:H65,50)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.3">
@@ -4845,7 +6184,7 @@
         <v>60</v>
       </c>
       <c r="H75" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H15:H65,60)</f>
         <v>1</v>
       </c>
     </row>
@@ -4854,7 +6193,7 @@
         <v>70</v>
       </c>
       <c r="H76" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H15:H65,70)</f>
         <v>0</v>
       </c>
     </row>
@@ -4863,20 +6202,20 @@
         <v>80</v>
       </c>
       <c r="H77" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H15:H65,80)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G78" s="34">
         <v>90</v>
       </c>
       <c r="H78" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+        <f>COUNTIF(H15:H65,90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G79" s="32"/>
       <c r="H79" s="33"/>
     </row>
@@ -4886,16 +6225,16 @@
       </c>
       <c r="H80" s="29">
         <f>SUM(H68:H78)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G81" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.57999999999999996</v>
+        <v>0.58039215686274515</v>
       </c>
     </row>
   </sheetData>
@@ -4916,4 +6255,380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="20" width="5.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="V3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0.35</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="L4" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="39">
+        <v>1</v>
+      </c>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="V4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="41">
+        <v>192</v>
+      </c>
+      <c r="C5" s="41">
+        <v>192</v>
+      </c>
+      <c r="D5" s="41">
+        <v>192</v>
+      </c>
+      <c r="E5" s="41">
+        <v>192</v>
+      </c>
+      <c r="F5" s="41">
+        <v>192</v>
+      </c>
+      <c r="G5" s="41">
+        <v>192</v>
+      </c>
+      <c r="H5" s="41">
+        <v>192</v>
+      </c>
+      <c r="I5" s="41">
+        <v>192</v>
+      </c>
+      <c r="J5" s="41">
+        <v>192</v>
+      </c>
+      <c r="K5" s="41">
+        <v>192</v>
+      </c>
+      <c r="L5" s="41">
+        <v>192</v>
+      </c>
+      <c r="M5" s="41">
+        <v>192</v>
+      </c>
+      <c r="N5" s="41">
+        <v>192</v>
+      </c>
+      <c r="O5" s="41">
+        <v>192</v>
+      </c>
+      <c r="P5" s="41">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>192</v>
+      </c>
+      <c r="R5" s="41">
+        <v>192</v>
+      </c>
+      <c r="S5" s="41">
+        <v>192</v>
+      </c>
+      <c r="T5" s="41">
+        <v>192</v>
+      </c>
+      <c r="V5" s="44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
+        <v>19</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3992DA90-C455-4DE6-A77F-219514863E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C5A26E-A42C-40E4-B0D1-3CB51EB1E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1133,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,6 +1270,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2651,16 +2654,16 @@
   <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.453125" customWidth="1"/>
+    <col min="9" max="38" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -2883,7 +2886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2925,7 +2928,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -2975,7 +2978,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3025,7 +3028,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3075,7 +3078,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3117,7 +3120,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3167,7 +3170,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3217,7 +3220,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3267,7 +3270,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3309,7 +3312,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3359,7 +3362,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3409,7 +3412,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3503,7 +3506,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3555,7 +3558,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3659,7 +3662,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -3677,8 +3680,8 @@
       <c r="G19" s="5">
         <v>45100</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>28</v>
+      <c r="H19" s="46">
+        <v>0.6</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -3729,8 +3732,8 @@
       <c r="G20" s="5">
         <v>45100</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>28</v>
+      <c r="H20" s="46">
+        <v>0.6</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3763,7 +3766,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -3781,8 +3784,8 @@
       <c r="G21" s="5">
         <v>45100</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>28</v>
+      <c r="H21" s="46">
+        <v>0.6</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -3815,7 +3818,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="13" t="s">
@@ -3867,7 +3870,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="13" t="s">
@@ -3971,7 +3974,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="15" t="s">
@@ -4023,7 +4026,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4127,7 +4130,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="15" t="s">
@@ -4283,7 +4286,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4335,7 +4338,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4387,7 +4390,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -4439,7 +4442,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="15" t="s">
@@ -4543,7 +4546,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17" t="s">
@@ -4595,7 +4598,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17" t="s">
@@ -4957,7 +4960,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="19" t="s">
@@ -5009,7 +5012,7 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5269,7 +5272,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="19" t="s">
@@ -5425,7 +5428,7 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="21" t="s">
@@ -5685,7 +5688,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -5789,7 +5792,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -5893,7 +5896,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -6101,8 +6104,8 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="66" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G67" s="27" t="s">
         <v>87</v>
       </c>
@@ -6131,7 +6134,7 @@
       </c>
       <c r="H69" s="25">
         <f>COUNTIF(H15:H65,"未着手")</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
@@ -6206,7 +6209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G78" s="34">
         <v>90</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G79" s="32"/>
       <c r="H79" s="33"/>
     </row>
@@ -6225,16 +6228,16 @@
       </c>
       <c r="H80" s="29">
         <f>SUM(H68:H78)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G81" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.58039215686274515</v>
+        <v>0.61666666666666659</v>
       </c>
     </row>
   </sheetData>
@@ -6263,9 +6266,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="20" width="5.6328125" customWidth="1"/>
+    <col min="2" max="20" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C5A26E-A42C-40E4-B0D1-3CB51EB1E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D65F7B-BD5D-45CC-A774-AA842D12403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="109">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1269,10 +1269,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2654,37 +2654,37 @@
   <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.4140625" customWidth="1"/>
+    <col min="9" max="38" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2">
@@ -2779,22 +2779,22 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2928,7 +2928,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -2978,7 +2978,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3028,7 +3028,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3078,7 +3078,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3120,7 +3120,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3170,7 +3170,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3220,7 +3220,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3270,7 +3270,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3312,7 +3312,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3362,7 +3362,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3412,7 +3412,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3506,7 +3506,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3558,7 +3558,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3662,7 +3662,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -3680,7 +3680,7 @@
       <c r="G19" s="5">
         <v>45100</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <v>0.6</v>
       </c>
       <c r="I19" s="6"/>
@@ -3732,7 +3732,7 @@
       <c r="G20" s="5">
         <v>45100</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <v>0.6</v>
       </c>
       <c r="I20" s="6"/>
@@ -3766,7 +3766,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -3784,7 +3784,7 @@
       <c r="G21" s="5">
         <v>45100</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="45">
         <v>0.6</v>
       </c>
       <c r="I21" s="6"/>
@@ -3818,7 +3818,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="13" t="s">
@@ -3870,7 +3870,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="13" t="s">
@@ -3974,7 +3974,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="15" t="s">
@@ -4026,7 +4026,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4130,7 +4130,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="15" t="s">
@@ -4286,7 +4286,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4338,7 +4338,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4390,7 +4390,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -4442,7 +4442,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="15" t="s">
@@ -4546,7 +4546,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17" t="s">
@@ -4598,7 +4598,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17" t="s">
@@ -4772,8 +4772,8 @@
       <c r="G40" s="5">
         <v>45098</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>28</v>
+      <c r="H40" s="4">
+        <v>10</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -4824,8 +4824,8 @@
       <c r="G41" s="5">
         <v>45100</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>28</v>
+      <c r="H41" s="4">
+        <v>10</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -4960,7 +4960,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="19" t="s">
@@ -5012,7 +5012,7 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5272,7 +5272,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="19" t="s">
@@ -5428,7 +5428,7 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="21" t="s">
@@ -5688,7 +5688,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -5792,7 +5792,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -5896,7 +5896,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -6104,8 +6104,8 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="66" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G67" s="27" t="s">
         <v>87</v>
       </c>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="H69" s="25">
         <f>COUNTIF(H15:H65,"未着手")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="H70" s="25">
         <f>COUNTIF(H15:H65,10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.3">
@@ -6209,7 +6209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G78" s="34">
         <v>90</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G79" s="32"/>
       <c r="H79" s="33"/>
     </row>
@@ -6231,13 +6231,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G81" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.61666666666666659</v>
+        <v>0.62083333333333346</v>
       </c>
     </row>
   </sheetData>
@@ -6266,9 +6266,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="20" width="5.6640625" customWidth="1"/>
+    <col min="2" max="20" width="5.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D65F7B-BD5D-45CC-A774-AA842D12403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CE891D-BE49-4173-8820-F54DE120C27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -2655,15 +2655,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.453125" customWidth="1"/>
+    <col min="9" max="38" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
@@ -2886,7 +2886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2928,7 +2928,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -2978,7 +2978,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3028,7 +3028,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3078,7 +3078,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3120,7 +3120,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3170,7 +3170,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3220,7 +3220,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3270,7 +3270,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3312,7 +3312,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3362,7 +3362,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3412,7 +3412,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3506,7 +3506,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3558,7 +3558,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3662,7 +3662,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -3766,7 +3766,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -3818,7 +3818,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="13" t="s">
@@ -3870,7 +3870,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="13" t="s">
@@ -3974,7 +3974,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="15" t="s">
@@ -4026,7 +4026,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4130,7 +4130,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="15" t="s">
@@ -4286,7 +4286,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4338,7 +4338,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4390,7 +4390,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -4442,7 +4442,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="15" t="s">
@@ -4546,7 +4546,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17" t="s">
@@ -4598,7 +4598,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17" t="s">
@@ -4960,7 +4960,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="19" t="s">
@@ -5012,7 +5012,7 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="45" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5272,7 +5272,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="19" t="s">
@@ -5395,7 +5395,7 @@
         <v>45091</v>
       </c>
       <c r="H52" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -5428,7 +5428,7 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="21" t="s">
@@ -5499,7 +5499,7 @@
         <v>45093</v>
       </c>
       <c r="H54" s="4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -5551,7 +5551,7 @@
         <v>45093</v>
       </c>
       <c r="H55" s="4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -5688,7 +5688,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -5792,7 +5792,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -5896,7 +5896,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -6104,8 +6104,8 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="66" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G67" s="27" t="s">
         <v>87</v>
       </c>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="H74" s="25">
         <f>COUNTIF(H15:H65,50)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.3">
@@ -6206,19 +6206,19 @@
       </c>
       <c r="H77" s="25">
         <f>COUNTIF(H15:H65,80)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G78" s="34">
         <v>90</v>
       </c>
       <c r="H78" s="31">
         <f>COUNTIF(H15:H65,90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G79" s="32"/>
       <c r="H79" s="33"/>
     </row>
@@ -6231,13 +6231,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G81" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.62083333333333346</v>
+        <v>0.63958333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -6266,9 +6266,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="20" width="5.6328125" customWidth="1"/>
+    <col min="2" max="20" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CE891D-BE49-4173-8820-F54DE120C27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14721F95-5AE5-44D5-805E-7154A43C0472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="109">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -2655,7 +2655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4304,8 +4304,8 @@
       <c r="G31" s="5">
         <v>45097</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>28</v>
+      <c r="H31" s="45">
+        <v>0.7</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4356,8 +4356,8 @@
       <c r="G32" s="5">
         <v>45100</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>28</v>
+      <c r="H32" s="4">
+        <v>70</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="H69" s="25">
         <f>COUNTIF(H15:H65,"未着手")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="H76" s="25">
         <f>COUNTIF(H15:H65,70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="H80" s="29">
         <f>SUM(H68:H78)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.63958333333333339</v>
+        <v>0.6680851063829788</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14721F95-5AE5-44D5-805E-7154A43C0472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A65FA3-89E2-4F61-A528-5D7EEE094C64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -717,60 +717,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これにはテストや最終チェックの工数が入ってませんが</t>
-    <rPh sb="8" eb="10">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実際はテストなども入れた総工数で計算してください</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ソウコウスウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工数積算は実際のみなさんの表から取り出して計算ください</t>
-    <rPh sb="0" eb="2">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セキサン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>総工数</t>
     <rPh sb="0" eb="1">
       <t>ソウ</t>
@@ -782,6 +728,13 @@
   </si>
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積算</t>
+    <rPh sb="0" eb="2">
+      <t>セキサン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1269,10 +1222,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,6 +1414,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0%">
                   <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,11 +2607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
-  <dimension ref="A1:AL81"/>
+  <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2667,24 +2623,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2">
@@ -2779,22 +2735,22 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
@@ -3680,8 +3636,8 @@
       <c r="G19" s="5">
         <v>45100</v>
       </c>
-      <c r="H19" s="45">
-        <v>0.6</v>
+      <c r="H19" s="46">
+        <v>60</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -3732,8 +3688,8 @@
       <c r="G20" s="5">
         <v>45100</v>
       </c>
-      <c r="H20" s="45">
-        <v>0.6</v>
+      <c r="H20" s="46">
+        <v>60</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3784,8 +3740,8 @@
       <c r="G21" s="5">
         <v>45100</v>
       </c>
-      <c r="H21" s="45">
-        <v>0.6</v>
+      <c r="H21" s="46">
+        <v>60</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -4304,8 +4260,8 @@
       <c r="G31" s="5">
         <v>45097</v>
       </c>
-      <c r="H31" s="45">
-        <v>0.7</v>
+      <c r="H31" s="46">
+        <v>70</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -5395,7 +5351,7 @@
         <v>45091</v>
       </c>
       <c r="H52" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -6070,8 +6026,8 @@
       <c r="G65" s="5">
         <v>45100</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>28</v>
+      <c r="H65" s="4">
+        <v>20</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -6134,7 +6090,7 @@
       </c>
       <c r="H69" s="25">
         <f>COUNTIF(H15:H65,"未着手")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.3">
@@ -6152,7 +6108,7 @@
       </c>
       <c r="H71" s="25">
         <f>COUNTIF(H15:H65,20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.3">
@@ -6188,7 +6144,7 @@
       </c>
       <c r="H75" s="25">
         <f>COUNTIF(H15:H65,60)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
@@ -6197,7 +6153,7 @@
       </c>
       <c r="H76" s="25">
         <f>COUNTIF(H15:H65,70)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
@@ -6206,7 +6162,7 @@
       </c>
       <c r="H77" s="25">
         <f>COUNTIF(H15:H65,80)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6215,7 +6171,7 @@
       </c>
       <c r="H78" s="31">
         <f>COUNTIF(H15:H65,90)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6228,7 +6184,7 @@
       </c>
       <c r="H80" s="29">
         <f>SUM(H68:H78)</f>
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6237,7 +6193,16 @@
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.6680851063829788</v>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>106</v>
+      </c>
+      <c r="H83">
+        <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/100</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6264,7 +6229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6389,7 +6356,7 @@
         <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -6405,7 +6372,9 @@
       <c r="D3" s="40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="40">
+        <v>0.67</v>
+      </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="43"/>
@@ -6473,7 +6442,7 @@
       <c r="S4" s="41"/>
       <c r="T4" s="41"/>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -6574,7 +6543,10 @@
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="41">
+        <f>102*E3</f>
+        <v>68.34</v>
+      </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
@@ -6611,21 +6583,6 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
     </row>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A65FA3-89E2-4F61-A528-5D7EEE094C64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC221F88-8301-4CA7-9557-8E1840C3A12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,9 +1223,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2609,9 +2606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3636,7 +3633,7 @@
       <c r="G19" s="5">
         <v>45100</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="4">
         <v>60</v>
       </c>
       <c r="I19" s="6"/>
@@ -3688,7 +3685,7 @@
       <c r="G20" s="5">
         <v>45100</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="4">
         <v>60</v>
       </c>
       <c r="I20" s="6"/>
@@ -3740,7 +3737,7 @@
       <c r="G21" s="5">
         <v>45100</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="4">
         <v>60</v>
       </c>
       <c r="I21" s="6"/>
@@ -4260,8 +4257,8 @@
       <c r="G31" s="5">
         <v>45097</v>
       </c>
-      <c r="H31" s="46">
-        <v>70</v>
+      <c r="H31" s="4">
+        <v>90</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -6153,7 +6150,7 @@
       </c>
       <c r="H76" s="25">
         <f>COUNTIF(H15:H65,70)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.3">
@@ -6171,7 +6168,7 @@
       </c>
       <c r="H78" s="31">
         <f>COUNTIF(H15:H65,90)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6193,7 +6190,7 @@
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.66666666666666674</v>
+        <v>0.67058823529411771</v>
       </c>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.3">
@@ -6202,7 +6199,7 @@
       </c>
       <c r="H83">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/100</f>
-        <v>34</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6229,7 +6226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC221F88-8301-4CA7-9557-8E1840C3A12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C4F36-877C-4FDE-A326-6CEA20C6EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -2606,9 +2606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3475,10 +3475,10 @@
         <v>45086</v>
       </c>
       <c r="G16" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>86</v>
+        <v>45100</v>
+      </c>
+      <c r="H16" s="4">
+        <v>90</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -3495,14 +3495,14 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -3527,10 +3527,10 @@
         <v>45086</v>
       </c>
       <c r="G17" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>86</v>
+        <v>45100</v>
+      </c>
+      <c r="H17" s="4">
+        <v>90</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -3547,14 +3547,14 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -3579,10 +3579,10 @@
         <v>45086</v>
       </c>
       <c r="G18" s="5">
-        <v>45090</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
+        <v>45100</v>
+      </c>
+      <c r="H18" s="4">
+        <v>90</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -3599,14 +3599,14 @@
       <c r="U18" s="10"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -3631,10 +3631,10 @@
         <v>45091</v>
       </c>
       <c r="G19" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H19" s="4">
-        <v>60</v>
+        <v>45093</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -3654,13 +3654,13 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AG19" s="11"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -3683,10 +3683,10 @@
         <v>45091</v>
       </c>
       <c r="G20" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H20" s="4">
-        <v>60</v>
+        <v>45093</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3706,13 +3706,13 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="AG20" s="11"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -3735,10 +3735,10 @@
         <v>45092</v>
       </c>
       <c r="G21" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H21" s="4">
-        <v>60</v>
+        <v>45093</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -3758,13 +3758,13 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AG21" s="11"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -3808,8 +3808,8 @@
       <c r="V22" s="11"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
@@ -3860,15 +3860,15 @@
       <c r="V23" s="11"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AG23" s="11"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="H75" s="25">
         <f>COUNTIF(H15:H65,60)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.3">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="H78" s="31">
         <f>COUNTIF(H15:H65,90)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="H81" s="26">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.67058823529411771</v>
+        <v>0.68823529411764706</v>
       </c>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.3">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H83">
         <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/100</f>
-        <v>34.200000000000003</v>
+        <v>35.1</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C4F36-877C-4FDE-A326-6CEA20C6EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016CD47-E4D3-4102-9DFD-8CA87C1E47BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,7 +2607,7 @@
   <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C4F36-877C-4FDE-A326-6CEA20C6EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C9935-72D9-4C20-8081-2734C73997BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
     <sheet name="予実管理グラフ" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">進捗管理!$C$14:$AL$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">進捗管理!$C$14:$AN$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="111">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -734,6 +734,34 @@
     <t>積算</t>
     <rPh sb="0" eb="2">
       <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数積算</t>
+    <rPh sb="0" eb="4">
+      <t>コウスウセキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率(テストなし）</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率(テストあり）</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -864,7 +892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1068,15 +1096,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1086,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,11 +1238,50 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1414,6 +1472,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0%">
                   <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,242 +2665,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
-  <dimension ref="A1:AL83"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="38" width="3.4140625" customWidth="1"/>
+    <col min="9" max="10" width="6.81640625" customWidth="1"/>
+    <col min="11" max="40" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2">
         <v>1</v>
       </c>
-      <c r="J1" s="2">
+      <c r="L1" s="2">
         <v>2</v>
       </c>
-      <c r="K1" s="2">
+      <c r="M1" s="2">
         <v>3</v>
       </c>
-      <c r="L1" s="2">
+      <c r="N1" s="2">
         <v>4</v>
       </c>
-      <c r="M1" s="2">
+      <c r="O1" s="2">
         <v>5</v>
       </c>
-      <c r="N1" s="2">
+      <c r="P1" s="2">
         <v>6</v>
       </c>
-      <c r="O1" s="2">
+      <c r="Q1" s="2">
         <v>7</v>
       </c>
-      <c r="P1" s="2">
+      <c r="R1" s="2">
         <v>8</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="S1" s="2">
         <v>9</v>
       </c>
-      <c r="R1" s="2">
+      <c r="T1" s="2">
         <v>10</v>
       </c>
-      <c r="S1" s="2">
+      <c r="U1" s="2">
         <v>11</v>
       </c>
-      <c r="T1" s="2">
+      <c r="V1" s="2">
         <v>12</v>
       </c>
-      <c r="U1" s="2">
+      <c r="W1" s="2">
         <v>13</v>
       </c>
-      <c r="V1" s="2">
+      <c r="X1" s="2">
         <v>14</v>
       </c>
-      <c r="W1" s="2">
+      <c r="Y1" s="2">
         <v>15</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Z1" s="2">
         <v>16</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="AA1" s="2">
         <v>17</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AB1" s="2">
         <v>18</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AC1" s="2">
         <v>19</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AD1" s="2">
         <v>20</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AE1" s="2">
         <v>21</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AF1" s="2">
         <v>22</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AG1" s="2">
         <v>23</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AH1" s="2">
         <v>24</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AI1" s="2">
         <v>25</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AJ1" s="2">
         <v>26</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AK1" s="2">
         <v>27</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AL1" s="2">
         <v>28</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AM1" s="2">
         <v>29</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AN1" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2850,11 +2920,11 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2880,8 +2950,10 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-    </row>
-    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+    </row>
+    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -2900,13 +2972,18 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(I4*IF(H4="終了",100,IF(H4="未着手",0,H16)))/100</f>
+        <v>2</v>
+      </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2930,8 +3007,10 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-    </row>
-    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+    </row>
+    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -2950,13 +3029,18 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="12"/>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J66" si="0">(I5*IF(H5="終了",100,IF(H5="未着手",0,H17)))/100</f>
+        <v>2</v>
+      </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2980,8 +3064,10 @@
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-    </row>
-    <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+    </row>
+    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3000,13 +3086,18 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="10"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -3030,8 +3121,10 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-    </row>
-    <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+    </row>
+    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3042,11 +3135,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -3072,8 +3165,10 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+    </row>
+    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3092,15 +3187,20 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -3122,8 +3222,10 @@
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-    </row>
-    <row r="9" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+    </row>
+    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3142,15 +3244,20 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -3172,8 +3279,10 @@
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-    </row>
-    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+    </row>
+    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3192,16 +3301,21 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -3222,8 +3336,10 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
-    </row>
-    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+    </row>
+    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3234,11 +3350,11 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -3264,8 +3380,10 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-    </row>
-    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+    </row>
+    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3284,17 +3402,22 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -3314,8 +3437,10 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
-    </row>
-    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+    </row>
+    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3334,16 +3459,21 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="10"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -3364,8 +3494,10 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
-    </row>
-    <row r="14" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+    </row>
+    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3376,11 +3508,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3406,8 +3538,10 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
-    </row>
-    <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+    </row>
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
@@ -3428,26 +3562,31 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -3458,8 +3597,10 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-    </row>
-    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+    </row>
+    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3480,38 +3621,45 @@
       <c r="H16" s="4">
         <v>90</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <f>(I16*IF(H16="終了",100,IF(H16="未着手",0,H16)))/100</f>
+        <v>9</v>
+      </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="1"/>
+      <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
-    </row>
-    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+    </row>
+    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3532,38 +3680,45 @@
       <c r="H17" s="4">
         <v>90</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
+        <f>(I17*IF(H17="終了",100,IF(H17="未着手",0,H17)))/100</f>
+        <v>9</v>
+      </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="1"/>
+      <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
-    </row>
-    <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+    </row>
+    <row r="18" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="13" t="s">
@@ -3584,38 +3739,45 @@
       <c r="H18" s="4">
         <v>90</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" ref="J18:J66" si="1">(I18*IF(H18="終了",100,IF(H18="未着手",0,H18)))/100</f>
+        <v>9</v>
+      </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
-    </row>
-    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+    </row>
+    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -3636,38 +3798,45 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="6"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="11"/>
+      <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
+      <c r="AI19" s="11"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
-    </row>
-    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+    </row>
+    <row r="20" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="13" t="s">
@@ -3688,38 +3857,45 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
       <c r="X20" s="10"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="11"/>
+      <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
+      <c r="AI20" s="11"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-    </row>
-    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+    </row>
+    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -3740,81 +3916,93 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="11"/>
+      <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="11"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-    </row>
-    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+    </row>
+    <row r="22" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>27</v>
+      <c r="C22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F22" s="5">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G22" s="5">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -3822,95 +4010,109 @@
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
-    </row>
-    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+    </row>
+    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>27</v>
+      <c r="E23" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F23" s="5">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G23" s="5">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="10"/>
       <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="11"/>
+      <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
-    </row>
-    <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+    </row>
+    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="5">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="G24" s="5">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="10"/>
+      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -3926,45 +4128,52 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
-    </row>
-    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+    </row>
+    <row r="25" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="5">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G25" s="5">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="10"/>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -3978,50 +4187,57 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-    </row>
-    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+    </row>
+    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G26" s="5">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -4030,12 +4246,14 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
-    </row>
-    <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+    </row>
+    <row r="27" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="15" t="s">
-        <v>64</v>
+      <c r="C27" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>43</v>
@@ -4044,19 +4262,24 @@
         <v>26</v>
       </c>
       <c r="F27" s="5">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G27" s="5">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K27" s="6"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -4064,16 +4287,16 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -4082,15 +4305,17 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
-    </row>
-    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+    </row>
+    <row r="28" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>26</v>
@@ -4104,11 +4329,16 @@
       <c r="H28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="I28" s="4">
+        <v>4</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -4118,14 +4348,14 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -4134,15 +4364,17 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
-    </row>
-    <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+    </row>
+    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>43</v>
+      <c r="C29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>26</v>
@@ -4153,14 +4385,19 @@
       <c r="G29" s="5">
         <v>45097</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="H29" s="4">
+        <v>90</v>
+      </c>
+      <c r="I29" s="4">
+        <v>4</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -4170,14 +4407,14 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
@@ -4186,33 +4423,40 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-    </row>
-    <row r="30" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="5">
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="G30" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+        <v>45100</v>
+      </c>
+      <c r="H30" s="4">
+        <v>70</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -4222,49 +4466,56 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
-    </row>
-    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+    </row>
+    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5">
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="G31" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H31" s="4">
-        <v>90</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+        <v>45100</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -4272,30 +4523,32 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="11"/>
+      <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
-    </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>42</v>
@@ -4309,14 +4562,19 @@
       <c r="G32" s="5">
         <v>45100</v>
       </c>
-      <c r="H32" s="4">
-        <v>70</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="H32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -4332,61 +4590,68 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
       <c r="AE32" s="10"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-    </row>
-    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+    </row>
+    <row r="33" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>26</v>
+      <c r="C33" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="F33" s="5">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G33" s="5">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="10"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -4394,51 +4659,58 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
-    </row>
-    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>26</v>
+      <c r="C34" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="F34" s="5">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G34" s="5">
-        <v>45100</v>
+        <v>45091</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I34" s="4">
+        <v>4</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="S34" s="10"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -4446,44 +4718,51 @@
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
-    </row>
-    <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+    </row>
+    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>41</v>
+      <c r="D35" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="5">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G35" s="5">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K35" s="6"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="10"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="1"/>
+      <c r="X35" s="10"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
@@ -4498,21 +4777,23 @@
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
-    </row>
-    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+    </row>
+    <row r="36" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="5">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G36" s="5">
         <v>45091</v>
@@ -4520,22 +4801,27 @@
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="10"/>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
@@ -4550,33 +4836,40 @@
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
-    </row>
-    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+    </row>
+    <row r="37" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="5">
-        <v>45090</v>
+        <v>45096</v>
       </c>
       <c r="G37" s="5">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -4584,16 +4877,16 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
@@ -4602,33 +4895,40 @@
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
-    </row>
-    <row r="38" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+    </row>
+    <row r="38" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
-        <v>69</v>
+      <c r="C38" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="5">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G38" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+        <v>45098</v>
+      </c>
+      <c r="H38" s="4">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -4636,8 +4936,8 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -4645,8 +4945,8 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -4654,33 +4954,40 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-    </row>
-    <row r="39" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+    </row>
+    <row r="39" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="5">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G39" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+        <v>45100</v>
+      </c>
+      <c r="H39" s="4">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -4692,47 +4999,53 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
+      <c r="Y39" s="6"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
-    </row>
-    <row r="40" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+    </row>
+    <row r="40" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="18" t="s">
-        <v>45</v>
+      <c r="C40" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F40" s="5">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G40" s="5">
-        <v>45098</v>
-      </c>
-      <c r="H40" s="4">
-        <v>10</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+        <v>45091</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4743,12 +5056,11 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
+      <c r="X40" s="10"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
@@ -4758,33 +5070,40 @@
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
-    </row>
-    <row r="41" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+    </row>
+    <row r="41" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="17" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F41" s="5">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G41" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H41" s="4">
-        <v>10</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+        <v>45091</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4794,14 +5113,15 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="10"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -4809,170 +5129,191 @@
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
-    </row>
-    <row r="42" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+    </row>
+    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F42" s="5">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G42" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+        <v>45100</v>
+      </c>
+      <c r="H42" s="4">
+        <v>20</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="S42" s="11"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="10"/>
-      <c r="X42" s="1"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
-    </row>
-    <row r="43" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+    </row>
+    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F43" s="5">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G43" s="5">
-        <v>45091</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+        <v>45096</v>
+      </c>
+      <c r="H43" s="4">
+        <v>30</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="S43" s="11"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
       <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
+      <c r="AI43" s="11"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
-    </row>
-    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+    </row>
+    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>24</v>
+      <c r="C44" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="F44" s="5">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G44" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+        <v>45096</v>
+      </c>
+      <c r="H44" s="4">
+        <v>40</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="10"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
       <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
+      <c r="AI44" s="11"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
-    </row>
-    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+    </row>
+    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>24</v>
@@ -4986,28 +5327,33 @@
       <c r="H45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K45" s="6"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="10"/>
+      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="10"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -5016,15 +5362,17 @@
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
-    </row>
-    <row r="46" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+    </row>
+    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>41</v>
+      <c r="D46" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>24</v>
@@ -5033,24 +5381,29 @@
         <v>45086</v>
       </c>
       <c r="G46" s="5">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="10"/>
+      <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="V46" s="10"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
@@ -5058,8 +5411,8 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
@@ -5068,15 +5421,17 @@
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
-    </row>
-    <row r="47" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+    </row>
+    <row r="47" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>24</v>
@@ -5085,33 +5440,38 @@
         <v>45086</v>
       </c>
       <c r="G47" s="5">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="10"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -5120,50 +5480,57 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
-    </row>
-    <row r="48" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+    </row>
+    <row r="48" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="19" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G48" s="5">
-        <v>45093</v>
-      </c>
-      <c r="H48" s="4">
-        <v>50</v>
-      </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+        <v>45089</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="S48" s="10"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
-      <c r="AA48" s="10"/>
+      <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -5172,12 +5539,14 @@
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
-    </row>
-    <row r="49" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+    </row>
+    <row r="49" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>41</v>
@@ -5191,14 +5560,19 @@
       <c r="G49" s="5">
         <v>45093</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="H49" s="4">
+        <v>50</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -5207,16 +5581,16 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
       <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -5224,33 +5598,40 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
-    </row>
-    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+    </row>
+    <row r="50" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G50" s="5">
-        <v>45097</v>
-      </c>
-      <c r="H50" s="4">
-        <v>60</v>
-      </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+        <v>45093</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="4">
+        <v>5</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -5259,32 +5640,34 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
-    </row>
-    <row r="51" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+    </row>
+    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>24</v>
@@ -5296,13 +5679,18 @@
         <v>45097</v>
       </c>
       <c r="H51" s="4">
-        <v>30</v>
-      </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="I51" s="4">
+        <v>4</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
       <c r="K51" s="6"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -5311,14 +5699,14 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
       <c r="X51" s="10"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="11"/>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+      <c r="AC51" s="10"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -5328,67 +5716,76 @@
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
-    </row>
-    <row r="52" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+    </row>
+    <row r="52" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>22</v>
+      <c r="C52" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G52" s="5">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="H52" s="4">
-        <v>80</v>
-      </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="I52" s="4">
+        <v>4</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
-    </row>
-    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+    </row>
+    <row r="53" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>33</v>
+      <c r="C53" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>22</v>
@@ -5402,22 +5799,27 @@
       <c r="H53" s="4">
         <v>80</v>
       </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="I53" s="4">
+        <v>3</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
       <c r="K53" s="6"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
       <c r="V53" s="10"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
@@ -5426,39 +5828,46 @@
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
-    </row>
-    <row r="54" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+    </row>
+    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>34</v>
+      <c r="C54" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="5">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G54" s="5">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="H54" s="4">
-        <v>90</v>
-      </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="I54" s="4">
+        <v>3</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
       <c r="K54" s="6"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -5466,7 +5875,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="10"/>
+      <c r="U54" s="1"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
       <c r="X54" s="10"/>
@@ -5478,21 +5887,23 @@
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
       <c r="AF54" s="11"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
-    </row>
-    <row r="55" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+    </row>
+    <row r="55" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>22</v>
@@ -5506,11 +5917,16 @@
       <c r="H55" s="4">
         <v>90</v>
       </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="I55" s="4">
+        <v>4</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
       <c r="K55" s="6"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -5518,51 +5934,58 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
       <c r="W55" s="10"/>
       <c r="X55" s="10"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
-    </row>
-    <row r="56" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+    </row>
+    <row r="56" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="5">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G56" s="5">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="H56" s="4">
-        <v>30</v>
-      </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="I56" s="4">
+        <v>4</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
       <c r="K56" s="6"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -5571,32 +5994,34 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="10"/>
+      <c r="V56" s="1"/>
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
       <c r="AF56" s="11"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
-    </row>
-    <row r="57" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+    </row>
+    <row r="57" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>22</v>
@@ -5610,11 +6035,16 @@
       <c r="H57" s="4">
         <v>30</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="I57" s="4">
+        <v>7</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
       <c r="K57" s="6"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -5623,84 +6053,93 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
       <c r="X57" s="10"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
-    </row>
-    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+    </row>
+    <row r="58" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>25</v>
+      <c r="C58" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="F58" s="5">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G58" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+        <v>45099</v>
+      </c>
+      <c r="H58" s="4">
+        <v>30</v>
+      </c>
+      <c r="I58" s="4">
+        <v>7</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
       <c r="K58" s="6"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
       <c r="AA58" s="11"/>
       <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
-    </row>
-    <row r="59" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+    </row>
+    <row r="59" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>43</v>
+      <c r="D59" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>25</v>
@@ -5714,20 +6153,25 @@
       <c r="H59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="I59" s="4">
+        <v>2</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K59" s="6"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="10"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="11"/>
       <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
+      <c r="V59" s="10"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
@@ -5737,22 +6181,24 @@
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
-    </row>
-    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+    </row>
+    <row r="60" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>25</v>
@@ -5766,20 +6212,25 @@
       <c r="H60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="I60" s="4">
+        <v>2</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K60" s="6"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="10"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="11"/>
       <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
+      <c r="V60" s="10"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
@@ -5789,22 +6240,24 @@
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
       <c r="AE60" s="11"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
-    </row>
-    <row r="61" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+    </row>
+    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>25</v>
@@ -5818,20 +6271,25 @@
       <c r="H61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="I61" s="4">
+        <v>2</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K61" s="6"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="10"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="11"/>
       <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
+      <c r="V61" s="10"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
@@ -5841,22 +6299,24 @@
       <c r="AC61" s="11"/>
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
-    </row>
-    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+    </row>
+    <row r="62" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>44</v>
+      <c r="D62" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>25</v>
@@ -5870,20 +6330,25 @@
       <c r="H62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="I62" s="4">
+        <v>2</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K62" s="6"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="10"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="11"/>
       <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
+      <c r="V62" s="10"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
@@ -5893,28 +6358,30 @@
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
       <c r="AE62" s="11"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
-    </row>
-    <row r="63" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+    </row>
+    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="5">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G63" s="5">
         <v>45089</v>
@@ -5922,20 +6389,25 @@
       <c r="H63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="I63" s="4">
+        <v>2</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="11"/>
       <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
+      <c r="V63" s="10"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
@@ -5945,71 +6417,80 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
-    </row>
-    <row r="64" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+    </row>
+    <row r="64" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="5">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G64" s="5">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="K64" s="6"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="10"/>
+      <c r="U64" s="11"/>
       <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
-    </row>
-    <row r="65" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+    </row>
+    <row r="65" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>41</v>
@@ -6018,197 +6499,379 @@
         <v>25</v>
       </c>
       <c r="F65" s="5">
+        <v>45090</v>
+      </c>
+      <c r="G65" s="5">
         <v>45097</v>
       </c>
-      <c r="G65" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H65" s="4">
-        <v>20</v>
-      </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="H65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="4">
+        <v>6</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="K65" s="6"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
       <c r="AA65" s="11"/>
-      <c r="AB65" s="10"/>
+      <c r="AB65" s="11"/>
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
-    </row>
-    <row r="66" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G67" s="27" t="s">
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+    </row>
+    <row r="66" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="5">
+        <v>45097</v>
+      </c>
+      <c r="G66" s="5">
+        <v>45100</v>
+      </c>
+      <c r="H66" s="4">
+        <v>20</v>
+      </c>
+      <c r="I66" s="4">
+        <v>4</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+    </row>
+    <row r="67" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="47"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53">
+        <f>SUM(I3:I66)</f>
+        <v>195</v>
+      </c>
+      <c r="J67" s="53">
+        <f>SUM(J3:J66)</f>
+        <v>136.5</v>
+      </c>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="55"/>
+      <c r="Y67" s="55"/>
+      <c r="Z67" s="55"/>
+      <c r="AA67" s="55"/>
+      <c r="AB67" s="55"/>
+      <c r="AC67" s="55"/>
+      <c r="AD67" s="56"/>
+      <c r="AE67" s="56"/>
+      <c r="AF67" s="56"/>
+      <c r="AH67" s="47"/>
+      <c r="AI67" s="47"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="47"/>
+      <c r="AL67" s="47"/>
+      <c r="AM67" s="47"/>
+      <c r="AN67" s="47"/>
+    </row>
+    <row r="68" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="47"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
+      <c r="X68" s="55"/>
+      <c r="Y68" s="55"/>
+      <c r="Z68" s="55"/>
+      <c r="AA68" s="55"/>
+      <c r="AB68" s="55"/>
+      <c r="AC68" s="55"/>
+      <c r="AH68" s="47"/>
+      <c r="AI68" s="47"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="47"/>
+      <c r="AL68" s="47"/>
+      <c r="AM68" s="47"/>
+      <c r="AN68" s="47"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H67" s="28" t="s">
+      <c r="H70" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="D68" s="37">
+      <c r="I70" s="49"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D71" s="37">
         <v>45092</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E71" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G71" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="36">
-        <f>COUNTIF(H15:H65,"終了")</f>
+      <c r="H71" s="36">
+        <f>COUNTIF(H15:H66,"終了")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G69" s="24" t="s">
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G72" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H69" s="25">
-        <f>COUNTIF(H15:H65,"未着手")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G70" s="24">
+      <c r="H72" s="25">
+        <f>COUNTIF(H15:H66,"未着手")</f>
+        <v>7</v>
+      </c>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G73" s="24">
         <v>10</v>
       </c>
-      <c r="H70" s="25">
-        <f>COUNTIF(H15:H65,10)</f>
+      <c r="H73" s="25">
+        <f>COUNTIF(H15:H66,10)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G71" s="24">
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G74" s="24">
         <v>20</v>
       </c>
-      <c r="H71" s="25">
-        <f>COUNTIF(H15:H65,20)</f>
+      <c r="H74" s="25">
+        <f>COUNTIF(H15:H66,20)</f>
+        <v>2</v>
+      </c>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G75" s="24">
+        <v>30</v>
+      </c>
+      <c r="H75" s="25">
+        <f>COUNTIF(H15:H66,30)</f>
+        <v>4</v>
+      </c>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G76" s="24">
+        <v>40</v>
+      </c>
+      <c r="H76" s="25">
+        <f>COUNTIF(H15:H66,40)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G72" s="24">
-        <v>30</v>
-      </c>
-      <c r="H72" s="25">
-        <f>COUNTIF(H15:H65,30)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G73" s="24">
-        <v>40</v>
-      </c>
-      <c r="H73" s="25">
-        <f>COUNTIF(H15:H65,40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G74" s="24">
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G77" s="24">
         <v>50</v>
       </c>
-      <c r="H74" s="25">
-        <f>COUNTIF(H15:H65,50)</f>
+      <c r="H77" s="25">
+        <f>COUNTIF(H15:H66,50)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G75" s="24">
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G78" s="24">
         <v>60</v>
       </c>
-      <c r="H75" s="25">
-        <f>COUNTIF(H15:H65,60)</f>
+      <c r="H78" s="25">
+        <f>COUNTIF(H15:H66,60)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G76" s="24">
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G79" s="24">
         <v>70</v>
       </c>
-      <c r="H76" s="25">
-        <f>COUNTIF(H15:H65,70)</f>
+      <c r="H79" s="25">
+        <f>COUNTIF(H15:H66,70)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G77" s="24">
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G80" s="24">
         <v>80</v>
       </c>
-      <c r="H77" s="25">
-        <f>COUNTIF(H15:H65,80)</f>
+      <c r="H80" s="25">
+        <f>COUNTIF(H15:H66,80)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G78" s="34">
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+    </row>
+    <row r="81" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="34">
         <v>90</v>
       </c>
-      <c r="H78" s="31">
-        <f>COUNTIF(H15:H65,90)</f>
+      <c r="H81" s="31">
+        <f>COUNTIF(H15:H66,90)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G79" s="32"/>
-      <c r="H79" s="33"/>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="G80" s="35" t="s">
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+    </row>
+    <row r="82" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="32"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+    </row>
+    <row r="83" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H80" s="29">
-        <f>SUM(H68:H78)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G81" s="34" t="s">
+      <c r="H83" s="29">
+        <f>SUM(H71:H81)</f>
+        <v>52</v>
+      </c>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+    </row>
+    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H81" s="26">
-        <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/H80*100/100/100</f>
-        <v>0.68823529411764706</v>
-      </c>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G83" t="s">
+      <c r="H84" s="26">
+        <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/H83*100/100/100</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+    </row>
+    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
         <v>106</v>
       </c>
-      <c r="H83">
-        <f>(H68*100+G70*H70+G71*H71+G72*H72+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78)/100</f>
-        <v>35.1</v>
+      <c r="H86">
+        <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/100</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C14:AL65" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AL65">
-      <sortCondition ref="E14:E65"/>
+  <autoFilter ref="C14:AN66" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AN66">
+      <sortCondition ref="E14:E66"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
@@ -6224,18 +6887,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="20" width="5.6640625" customWidth="1"/>
+    <col min="2" max="20" width="5.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B1" s="38" t="s">
         <v>92</v>
       </c>
@@ -6294,7 +6957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>12</v>
       </c>
@@ -6355,8 +7018,11 @@
       <c r="V2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -6372,7 +7038,9 @@
       <c r="E3" s="40">
         <v>0.67</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="58">
+        <v>0.7</v>
+      </c>
       <c r="G3" s="40"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -6388,10 +7056,18 @@
       <c r="S3" s="40"/>
       <c r="T3" s="40"/>
       <c r="V3">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <f>進捗管理!I67</f>
+        <v>195</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <f>V3+W3</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -6439,75 +7115,76 @@
       <c r="S4" s="41"/>
       <c r="T4" s="41"/>
       <c r="V4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="F5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="H5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="I5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="N5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="P5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="R5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="S5" s="41">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="T5" s="41">
-        <v>192</v>
-      </c>
-      <c r="V5" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="V5">
+        <f>進捗管理!J67</f>
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
@@ -6517,7 +7194,9 @@
       <c r="E6" s="41">
         <v>19</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="41">
+        <v>20</v>
+      </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
@@ -6532,19 +7211,24 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
       <c r="T6" s="41"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
-      <c r="E7" s="41">
-        <f>102*E3</f>
-        <v>68.34</v>
-      </c>
-      <c r="F7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <v>136.5</v>
+      </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
@@ -6559,28 +7243,36 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
       <c r="T7" s="41"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V7" s="57">
+        <f>V5/V3</f>
+        <v>0.7</v>
+      </c>
+      <c r="W7" s="57">
+        <f>V5/X3</f>
+        <v>0.64084507042253525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
     </row>
   </sheetData>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C9935-72D9-4C20-8081-2734C73997BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A7F3B-8C77-4C20-B943-618A8363A902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,43 +1238,22 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1282,6 +1261,9 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2668,44 +2650,44 @@
   <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="10" width="6.81640625" customWidth="1"/>
-    <col min="11" max="40" width="3.453125" customWidth="1"/>
+    <col min="9" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="40" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="52" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2">
@@ -2800,24 +2782,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
@@ -2909,7 +2891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2953,7 +2935,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3010,7 +2992,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3033,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J66" si="0">(I5*IF(H5="終了",100,IF(H5="未着手",0,H17)))/100</f>
+        <f t="shared" ref="J5:J15" si="0">(I5*IF(H5="終了",100,IF(H5="未着手",0,H17)))/100</f>
         <v>2</v>
       </c>
       <c r="K5" s="6"/>
@@ -3067,7 +3049,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3124,7 +3106,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3168,7 +3150,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3225,7 +3207,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3282,7 +3264,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3339,7 +3321,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3383,7 +3365,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3440,7 +3422,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3497,7 +3479,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3585,8 +3567,8 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -3600,7 +3582,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3644,8 +3626,8 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
@@ -3659,7 +3641,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3703,8 +3685,8 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
@@ -3762,8 +3744,8 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
@@ -3777,7 +3759,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -3821,8 +3803,8 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -3895,7 +3877,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -4013,7 +3995,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
@@ -4072,7 +4054,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
@@ -4190,7 +4172,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4367,7 +4349,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
@@ -4426,7 +4408,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -4485,7 +4467,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4544,7 +4526,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4662,7 +4644,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17" t="s">
@@ -4721,7 +4703,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
@@ -5132,7 +5114,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
@@ -5176,12 +5158,12 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="10"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="10"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -5190,7 +5172,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
@@ -5234,12 +5216,12 @@
       <c r="X43" s="11"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="10"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
       <c r="AC43" s="10"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="11"/>
       <c r="AJ43" s="1"/>
@@ -5248,7 +5230,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="17" t="s">
@@ -5292,12 +5274,12 @@
       <c r="X44" s="11"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="10"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
       <c r="AC44" s="10"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="1"/>
@@ -5306,7 +5288,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5365,7 +5347,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
@@ -5660,7 +5642,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
@@ -5797,14 +5779,14 @@
         <v>45091</v>
       </c>
       <c r="H53" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I53" s="4">
         <v>3</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -5837,7 +5819,7 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="21" t="s">
@@ -5856,14 +5838,14 @@
         <v>45091</v>
       </c>
       <c r="H54" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I54" s="4">
         <v>3</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -6033,14 +6015,14 @@
         <v>45099</v>
       </c>
       <c r="H57" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I57" s="4">
         <v>7</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -6092,14 +6074,14 @@
         <v>45099</v>
       </c>
       <c r="H58" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I58" s="4">
         <v>7</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -6132,7 +6114,7 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
     </row>
-    <row r="59" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -6250,7 +6232,7 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -6368,7 +6350,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -6605,99 +6587,74 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44">
         <f>SUM(I3:I66)</f>
         <v>195</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="44">
         <f>SUM(J3:J66)</f>
-        <v>136.5</v>
-      </c>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
-      <c r="X67" s="55"/>
-      <c r="Y67" s="55"/>
-      <c r="Z67" s="55"/>
-      <c r="AA67" s="55"/>
-      <c r="AB67" s="55"/>
-      <c r="AC67" s="55"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-      <c r="AF67" s="56"/>
-      <c r="AH67" s="47"/>
-      <c r="AI67" s="47"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="47"/>
-      <c r="AL67" s="47"/>
-      <c r="AM67" s="47"/>
-      <c r="AN67" s="47"/>
+        <v>139.9</v>
+      </c>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="49"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
     </row>
     <row r="68" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="47"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
-      <c r="Y68" s="55"/>
-      <c r="Z68" s="55"/>
-      <c r="AA68" s="55"/>
-      <c r="AB68" s="55"/>
-      <c r="AC68" s="55"/>
-      <c r="AH68" s="47"/>
-      <c r="AI68" s="47"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="47"/>
-      <c r="AL68" s="47"/>
-      <c r="AM68" s="47"/>
-      <c r="AN68" s="47"/>
-    </row>
-    <row r="69" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="49"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+    </row>
+    <row r="69" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G70" s="27" t="s">
         <v>87</v>
       </c>
       <c r="H70" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I70" s="49"/>
+      <c r="I70" s="44"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D71" s="37">
@@ -6713,8 +6670,6 @@
         <f>COUNTIF(H15:H66,"終了")</f>
         <v>25</v>
       </c>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G72" s="24" t="s">
@@ -6724,8 +6679,6 @@
         <f>COUNTIF(H15:H66,"未着手")</f>
         <v>7</v>
       </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G73" s="24">
@@ -6735,8 +6688,6 @@
         <f>COUNTIF(H15:H66,10)</f>
         <v>2</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G74" s="24">
@@ -6746,8 +6697,6 @@
         <f>COUNTIF(H15:H66,20)</f>
         <v>2</v>
       </c>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G75" s="24">
@@ -6755,10 +6704,8 @@
       </c>
       <c r="H75" s="25">
         <f>COUNTIF(H15:H66,30)</f>
-        <v>4</v>
-      </c>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G76" s="24">
@@ -6768,8 +6715,6 @@
         <f>COUNTIF(H15:H66,40)</f>
         <v>1</v>
       </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G77" s="24">
@@ -6777,10 +6722,8 @@
       </c>
       <c r="H77" s="25">
         <f>COUNTIF(H15:H66,50)</f>
-        <v>1</v>
-      </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G78" s="24">
@@ -6790,8 +6733,6 @@
         <f>COUNTIF(H15:H66,60)</f>
         <v>1</v>
       </c>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G79" s="24">
@@ -6801,8 +6742,6 @@
         <f>COUNTIF(H15:H66,70)</f>
         <v>1</v>
       </c>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G80" s="24">
@@ -6810,27 +6749,21 @@
       </c>
       <c r="H80" s="25">
         <f>COUNTIF(H15:H66,80)</f>
-        <v>2</v>
-      </c>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-    </row>
-    <row r="81" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G81" s="34">
         <v>90</v>
       </c>
       <c r="H81" s="31">
         <f>COUNTIF(H15:H66,90)</f>
-        <v>6</v>
-      </c>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-    </row>
-    <row r="82" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G82" s="32"/>
       <c r="H82" s="33"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G83" s="35" t="s">
@@ -6840,19 +6773,17 @@
         <f>SUM(H71:H81)</f>
         <v>52</v>
       </c>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-    </row>
-    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G84" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H84" s="26">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/H83*100/100/100</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
+        <v>0.7038461538461539</v>
+      </c>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
@@ -6860,7 +6791,7 @@
       </c>
       <c r="H86">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/100</f>
-        <v>36</v>
+        <v>36.6</v>
       </c>
     </row>
   </sheetData>
@@ -6891,14 +6822,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="20" width="5.6328125" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" customWidth="1"/>
-    <col min="23" max="23" width="11.90625" customWidth="1"/>
+    <col min="2" max="20" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.08203125" customWidth="1"/>
+    <col min="23" max="23" width="11.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="38" t="s">
         <v>92</v>
       </c>
@@ -6957,7 +6888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>12</v>
       </c>
@@ -7038,7 +6969,7 @@
       <c r="E3" s="40">
         <v>0.67</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="51">
         <v>0.7</v>
       </c>
       <c r="G3" s="40"/>
@@ -7067,7 +6998,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -7118,7 +7049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -7181,10 +7112,10 @@
       </c>
       <c r="V5">
         <f>進捗管理!J67</f>
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
@@ -7243,36 +7174,36 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
       <c r="T7" s="41"/>
-      <c r="V7" s="57">
+      <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.7</v>
-      </c>
-      <c r="W7" s="57">
+        <v>0.71743589743589742</v>
+      </c>
+      <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.64084507042253525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+        <v>0.65680751173708918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
     </row>
   </sheetData>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A7F3B-8C77-4C20-B943-618A8363A902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402C444-4CDD-49A1-BA55-210C8109DBB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -762,6 +762,13 @@
     <t>進捗率(テストあり）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2649,9 +2656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4190,15 +4197,15 @@
       <c r="G26" s="5">
         <v>45097</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>28</v>
+      <c r="H26" s="4">
+        <v>70</v>
       </c>
       <c r="I26" s="4">
         <v>4</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -4426,15 +4433,15 @@
       <c r="G30" s="5">
         <v>45100</v>
       </c>
-      <c r="H30" s="4">
-        <v>70</v>
+      <c r="H30" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I30" s="4">
         <v>3</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -4544,15 +4551,15 @@
       <c r="G32" s="5">
         <v>45100</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>28</v>
+      <c r="H32" s="4">
+        <v>90</v>
       </c>
       <c r="I32" s="4">
         <v>3</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -6600,7 +6607,7 @@
       </c>
       <c r="J67" s="44">
         <f>SUM(J3:J66)</f>
-        <v>139.9</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="K67" s="48"/>
       <c r="L67" s="48"/>
@@ -6677,7 +6684,7 @@
       </c>
       <c r="H72" s="25">
         <f>COUNTIF(H15:H66,"未着手")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.3">
@@ -6758,7 +6765,7 @@
       </c>
       <c r="H81" s="31">
         <f>COUNTIF(H15:H66,90)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6780,7 +6787,7 @@
       </c>
       <c r="H84" s="26">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/H83*100/100/100</f>
-        <v>0.7038461538461539</v>
+        <v>0.72115384615384615</v>
       </c>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
@@ -6791,7 +6798,7 @@
       </c>
       <c r="H86">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/100</f>
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -6820,7 +6827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7112,7 +7119,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J67</f>
-        <v>139.9</v>
+        <v>143.30000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7176,11 +7183,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.71743589743589742</v>
+        <v>0.73487179487179488</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.65680751173708918</v>
+        <v>0.67276995305164322</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016CD47-E4D3-4102-9DFD-8CA87C1E47BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C4F36-877C-4FDE-A326-6CEA20C6EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,7 +2607,7 @@
   <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402C444-4CDD-49A1-BA55-210C8109DBB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68274962-AA80-4109-BC76-66B32098E6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="113">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -766,10 +766,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1463,7 +1467,7 @@
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,8 +2661,8 @@
   <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4256,15 +4260,15 @@
       <c r="G27" s="5">
         <v>45097</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>28</v>
+      <c r="H27" s="4">
+        <v>20</v>
       </c>
       <c r="I27" s="4">
         <v>4</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -4316,7 +4320,7 @@
         <v>45097</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="I28" s="4">
         <v>4</v>
@@ -4433,15 +4437,15 @@
       <c r="G30" s="5">
         <v>45100</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>111</v>
+      <c r="H30" s="4">
+        <v>80</v>
       </c>
       <c r="I30" s="4">
         <v>3</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -4551,15 +4555,15 @@
       <c r="G32" s="5">
         <v>45100</v>
       </c>
-      <c r="H32" s="4">
-        <v>90</v>
+      <c r="H32" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I32" s="4">
         <v>3</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -4965,14 +4969,14 @@
         <v>45100</v>
       </c>
       <c r="H39" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I39" s="4">
         <v>2</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -5198,14 +5202,14 @@
         <v>45096</v>
       </c>
       <c r="H43" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I43" s="4">
         <v>2</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -5256,14 +5260,14 @@
         <v>45096</v>
       </c>
       <c r="H44" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I44" s="4">
         <v>2</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -5550,14 +5554,14 @@
         <v>45093</v>
       </c>
       <c r="H49" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I49" s="4">
         <v>4</v>
       </c>
       <c r="J49" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -5668,14 +5672,14 @@
         <v>45097</v>
       </c>
       <c r="H51" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I51" s="4">
         <v>4</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -5727,14 +5731,14 @@
         <v>45097</v>
       </c>
       <c r="H52" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I52" s="4">
         <v>4</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -5903,15 +5907,15 @@
       <c r="G55" s="5">
         <v>45093</v>
       </c>
-      <c r="H55" s="4">
-        <v>90</v>
+      <c r="H55" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I55" s="4">
         <v>4</v>
       </c>
       <c r="J55" s="4">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -5962,15 +5966,15 @@
       <c r="G56" s="5">
         <v>45093</v>
       </c>
-      <c r="H56" s="4">
-        <v>90</v>
+      <c r="H56" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I56" s="4">
         <v>4</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -6607,7 +6611,7 @@
       </c>
       <c r="J67" s="44">
         <f>SUM(J3:J66)</f>
-        <v>143.30000000000001</v>
+        <v>150.60000000000002</v>
       </c>
       <c r="K67" s="48"/>
       <c r="L67" s="48"/>
@@ -6675,7 +6679,7 @@
       </c>
       <c r="H71" s="36">
         <f>COUNTIF(H15:H66,"終了")</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.3">
@@ -6684,7 +6688,7 @@
       </c>
       <c r="H72" s="25">
         <f>COUNTIF(H15:H66,"未着手")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.3">
@@ -6693,7 +6697,7 @@
       </c>
       <c r="H73" s="25">
         <f>COUNTIF(H15:H66,10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -6702,7 +6706,7 @@
       </c>
       <c r="H74" s="25">
         <f>COUNTIF(H15:H66,20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.3">
@@ -6711,7 +6715,7 @@
       </c>
       <c r="H75" s="25">
         <f>COUNTIF(H15:H66,30)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.3">
@@ -6729,7 +6733,7 @@
       </c>
       <c r="H77" s="25">
         <f>COUNTIF(H15:H66,50)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.3">
@@ -6738,7 +6742,7 @@
       </c>
       <c r="H78" s="25">
         <f>COUNTIF(H15:H66,60)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.3">
@@ -6756,7 +6760,7 @@
       </c>
       <c r="H80" s="25">
         <f>COUNTIF(H15:H66,80)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6765,7 +6769,7 @@
       </c>
       <c r="H81" s="31">
         <f>COUNTIF(H15:H66,90)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -6787,7 +6791,7 @@
       </c>
       <c r="H84" s="26">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/H83*100/100/100</f>
-        <v>0.72115384615384615</v>
+        <v>0.76730769230769225</v>
       </c>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
@@ -6798,7 +6802,7 @@
       </c>
       <c r="H86">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/100</f>
-        <v>37.5</v>
+        <v>39.9</v>
       </c>
     </row>
   </sheetData>
@@ -6827,7 +6831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6977,7 +6983,7 @@
         <v>0.67</v>
       </c>
       <c r="F3" s="51">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="43"/>
@@ -7119,7 +7125,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J67</f>
-        <v>143.30000000000001</v>
+        <v>150.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7183,11 +7189,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.73487179487179488</v>
+        <v>0.77230769230769247</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.67276995305164322</v>
+        <v>0.70704225352112682</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68274962-AA80-4109-BC76-66B32098E6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764D086-F479-4155-9A38-A48E8DD1D1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="112">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -770,10 +770,6 @@
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2661,8 +2657,8 @@
   <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4320,14 +4316,14 @@
         <v>45097</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="I28" s="4">
         <v>4</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -6611,7 +6607,7 @@
       </c>
       <c r="J67" s="44">
         <f>SUM(J3:J66)</f>
-        <v>150.60000000000002</v>
+        <v>154.60000000000002</v>
       </c>
       <c r="K67" s="48"/>
       <c r="L67" s="48"/>
@@ -6679,7 +6675,7 @@
       </c>
       <c r="H71" s="36">
         <f>COUNTIF(H15:H66,"終了")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.3">
@@ -6688,7 +6684,7 @@
       </c>
       <c r="H72" s="25">
         <f>COUNTIF(H15:H66,"未着手")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.3">
@@ -6791,7 +6787,7 @@
       </c>
       <c r="H84" s="26">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/H83*100/100/100</f>
-        <v>0.76730769230769225</v>
+        <v>0.78653846153846163</v>
       </c>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
@@ -6802,7 +6798,7 @@
       </c>
       <c r="H86">
         <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/100</f>
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
     </row>
   </sheetData>
@@ -7125,7 +7121,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J67</f>
-        <v>150.60000000000002</v>
+        <v>154.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7189,11 +7185,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.77230769230769247</v>
+        <v>0.79282051282051291</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.70704225352112682</v>
+        <v>0.72582159624413156</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764D086-F479-4155-9A38-A48E8DD1D1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8ADD8D-25CF-463D-BCB4-AE9865A1C7EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
     <sheet name="予実管理グラフ" sheetId="6" r:id="rId2"/>
+    <sheet name="画面情報" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">進捗管理!$C$14:$AN$66</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="129">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -769,6 +770,122 @@
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動前</t>
+    <rPh sb="0" eb="3">
+      <t>イドウマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動後</t>
+    <rPh sb="0" eb="3">
+      <t>イドウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規確認</t>
+    <rPh sb="0" eb="4">
+      <t>シンキカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事記録</t>
+    <rPh sb="0" eb="4">
+      <t>ショクジキロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目登録</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンモクトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更</t>
+    <rPh sb="0" eb="6">
+      <t>コジンジョウホウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後回しにしたことリスト</t>
+    <rPh sb="0" eb="2">
+      <t>アトマワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -781,7 +898,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -828,6 +945,14 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -899,7 +1024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1103,6 +1228,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1112,7 +1295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,6 +1454,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2656,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -6827,7 +7022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -7220,4 +7415,274 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.9140625" customWidth="1"/>
+    <col min="6" max="6" width="25.58203125" customWidth="1"/>
+    <col min="7" max="7" width="6.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8ADD8D-25CF-463D-BCB4-AE9865A1C7EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53B2B6-61C0-4B81-A927-38D97984DF54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="131">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -887,6 +887,14 @@
     <rPh sb="0" eb="2">
       <t>アトマワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1452,9 +1460,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1466,6 +1471,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2851,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -2866,30 +2874,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="56" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2">
@@ -2984,24 +2992,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
@@ -7422,7 +7430,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7437,38 +7445,40 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -7480,7 +7490,9 @@
       <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -7494,7 +7506,9 @@
       <c r="C5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -7508,7 +7522,9 @@
       <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -7522,7 +7538,9 @@
       <c r="C7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -7536,7 +7554,9 @@
       <c r="C8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -7550,7 +7570,9 @@
       <c r="C9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -7564,7 +7586,9 @@
       <c r="C10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -7578,7 +7602,9 @@
       <c r="C11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -7592,7 +7618,9 @@
       <c r="C12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -7606,7 +7634,9 @@
       <c r="C13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -7620,7 +7650,9 @@
       <c r="C14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -7634,7 +7666,9 @@
       <c r="C15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -7648,7 +7682,9 @@
       <c r="C16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -7662,7 +7698,9 @@
       <c r="C17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -7676,7 +7714,9 @@
       <c r="C18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53B2B6-61C0-4B81-A927-38D97984DF54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714296F2-57CC-40F0-8CB1-BA1FC5E77229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -895,6 +895,10 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log.jsp カテゴリー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7429,9 +7433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7477,7 +7479,9 @@
       <c r="D3" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="52" t="s">
+        <v>131</v>
+      </c>
       <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714296F2-57CC-40F0-8CB1-BA1FC5E77229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF70BF-6347-42CB-9708-7568BF99155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -1611,7 +1611,7 @@
               <c:f>予実管理グラフ!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1628,24 +1628,18 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1656,7 +1650,7 @@
               <c:f>予実管理グラフ!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -1713,7 +1707,7 @@
               <c:f>予実管理グラフ!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1730,24 +1724,18 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1758,7 +1746,7 @@
               <c:f>予実管理グラフ!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1778,21 +1766,15 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2864,17 +2846,17 @@
   <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="40" width="3.4140625" customWidth="1"/>
+    <col min="9" max="10" width="6.81640625" customWidth="1"/>
+    <col min="11" max="40" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -3105,7 +3087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -3149,7 +3131,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3206,7 +3188,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3263,7 +3245,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3320,7 +3302,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3364,7 +3346,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3421,7 +3403,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3478,7 +3460,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3535,7 +3517,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3579,7 +3561,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3636,7 +3618,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3693,7 +3675,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3796,7 +3778,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3855,7 +3837,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3973,7 +3955,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -4091,7 +4073,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -4209,7 +4191,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
@@ -4268,7 +4250,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
@@ -4386,7 +4368,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4563,7 +4545,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
@@ -4622,7 +4604,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -4681,7 +4663,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4740,7 +4722,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4858,7 +4840,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17" t="s">
@@ -4917,7 +4899,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
@@ -5328,7 +5310,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
@@ -5386,7 +5368,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
@@ -5444,7 +5426,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="17" t="s">
@@ -5502,7 +5484,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5561,7 +5543,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
@@ -5856,7 +5838,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
@@ -6033,7 +6015,7 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="21" t="s">
@@ -6328,7 +6310,7 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
     </row>
-    <row r="59" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -6446,7 +6428,7 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -6564,7 +6546,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -6860,8 +6842,8 @@
       <c r="AB68" s="49"/>
       <c r="AC68" s="49"/>
     </row>
-    <row r="69" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G70" s="27" t="s">
         <v>87</v>
       </c>
@@ -6966,7 +6948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G81" s="34">
         <v>90</v>
       </c>
@@ -6975,7 +6957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G82" s="32"/>
       <c r="H82" s="33"/>
     </row>
@@ -6988,7 +6970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G84" s="34" t="s">
         <v>90</v>
       </c>
@@ -7034,15 +7016,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="20" width="5.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.08203125" customWidth="1"/>
-    <col min="23" max="23" width="11.9140625" customWidth="1"/>
+    <col min="2" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="8" width="5.6328125" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="5.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -7346,7 +7328,9 @@
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="I6" s="41">
+        <v>18</v>
+      </c>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
@@ -7433,20 +7417,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.9140625" customWidth="1"/>
-    <col min="6" max="6" width="25.58203125" customWidth="1"/>
-    <col min="7" max="7" width="6.9140625" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.90625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>117</v>
       </c>
@@ -7623,7 +7607,7 @@
         <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF70BF-6347-42CB-9708-7568BF99155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7C8B6-2D0F-48AE-9FDC-F909199AE393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -2845,18 +2845,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="10" width="6.81640625" customWidth="1"/>
-    <col min="11" max="40" width="3.453125" customWidth="1"/>
+    <col min="9" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="40" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -3087,7 +3087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -3131,7 +3131,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3188,7 +3188,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3245,7 +3245,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3302,7 +3302,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3346,7 +3346,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3403,7 +3403,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3460,7 +3460,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3517,7 +3517,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3561,7 +3561,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3618,7 +3618,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3675,7 +3675,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3778,7 +3778,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3837,7 +3837,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3955,7 +3955,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -4073,7 +4073,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -4191,7 +4191,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
@@ -4250,7 +4250,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
@@ -4368,7 +4368,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4545,7 +4545,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
@@ -4604,7 +4604,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -4663,7 +4663,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4722,7 +4722,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4840,7 +4840,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17" t="s">
@@ -4899,7 +4899,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
@@ -5310,7 +5310,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
@@ -5368,7 +5368,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
@@ -5426,7 +5426,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="17" t="s">
@@ -5484,7 +5484,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5543,7 +5543,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
@@ -5838,7 +5838,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
@@ -6015,7 +6015,7 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="21" t="s">
@@ -6310,7 +6310,7 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
     </row>
-    <row r="59" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -6428,7 +6428,7 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -6546,7 +6546,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -6842,8 +6842,8 @@
       <c r="AB68" s="49"/>
       <c r="AC68" s="49"/>
     </row>
-    <row r="69" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G70" s="27" t="s">
         <v>87</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G81" s="34">
         <v>90</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G82" s="32"/>
       <c r="H82" s="33"/>
     </row>
@@ -6970,7 +6970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G84" s="34" t="s">
         <v>90</v>
       </c>
@@ -7016,15 +7016,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="5.6328125" customWidth="1"/>
-    <col min="7" max="8" width="5.6328125" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="5.6328125" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" customWidth="1"/>
-    <col min="23" max="23" width="11.90625" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.08203125" customWidth="1"/>
+    <col min="23" max="23" width="11.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -7419,18 +7419,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="4.9140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.9140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="6.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>117</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7C8B6-2D0F-48AE-9FDC-F909199AE393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2762BC6-5E45-4C62-8098-B373BA262A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="画面情報" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">進捗管理!$C$14:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">進捗管理!$C$14:$AN$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="134">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -899,6 +899,14 @@
   </si>
   <si>
     <t>log.jsp カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecordDao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recordmodel</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1307,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,6 +1486,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1665,6 +1676,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0%">
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,20 +2857,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="40" width="3.4140625" customWidth="1"/>
+    <col min="9" max="10" width="6.81640625" customWidth="1"/>
+    <col min="11" max="40" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -3087,7 +3101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -3131,7 +3145,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3188,7 +3202,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3245,7 +3259,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3302,7 +3316,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3346,7 +3360,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3403,7 +3417,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3460,7 +3474,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3517,7 +3531,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3561,7 +3575,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3618,7 +3632,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3675,7 +3689,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3778,7 +3792,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3837,7 +3851,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3921,7 +3935,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:J66" si="1">(I18*IF(H18="終了",100,IF(H18="未着手",0,H18)))/100</f>
+        <f t="shared" ref="J18:J68" si="1">(I18*IF(H18="終了",100,IF(H18="未着手",0,H18)))/100</f>
         <v>9</v>
       </c>
       <c r="K18" s="6"/>
@@ -3955,7 +3969,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -4073,7 +4087,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -4191,7 +4205,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
@@ -4250,7 +4264,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
@@ -4368,7 +4382,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4386,15 +4400,15 @@
       <c r="G26" s="5">
         <v>45097</v>
       </c>
-      <c r="H26" s="4">
-        <v>70</v>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I26" s="4">
         <v>4</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -4446,14 +4460,14 @@
         <v>45097</v>
       </c>
       <c r="H27" s="4">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I27" s="4">
         <v>4</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -4545,7 +4559,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
@@ -4604,7 +4618,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -4663,7 +4677,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4722,7 +4736,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4840,7 +4854,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17" t="s">
@@ -4899,7 +4913,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
@@ -5310,7 +5324,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
@@ -5368,7 +5382,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
@@ -5387,14 +5401,14 @@
         <v>45096</v>
       </c>
       <c r="H43" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I43" s="4">
         <v>2</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -5426,7 +5440,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="17" t="s">
@@ -5445,14 +5459,14 @@
         <v>45096</v>
       </c>
       <c r="H44" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I44" s="4">
         <v>2</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -5484,7 +5498,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5543,7 +5557,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
@@ -5736,17 +5750,17 @@
         <v>45091</v>
       </c>
       <c r="G49" s="5">
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="H49" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I49" s="4">
         <v>4</v>
       </c>
       <c r="J49" s="4">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -5792,20 +5806,20 @@
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G50" s="5">
-        <v>45093</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>28</v>
+        <v>45100</v>
+      </c>
+      <c r="H50" s="4">
+        <v>10</v>
       </c>
       <c r="I50" s="4">
         <v>5</v>
       </c>
       <c r="J50" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -5838,7 +5852,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
@@ -5851,7 +5865,7 @@
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G51" s="5">
         <v>45097</v>
@@ -5860,11 +5874,11 @@
         <v>80</v>
       </c>
       <c r="I51" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -5885,7 +5899,7 @@
       <c r="AA51" s="11"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="10"/>
-      <c r="AD51" s="1"/>
+      <c r="AD51" s="10"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -5910,20 +5924,20 @@
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G52" s="5">
         <v>45097</v>
       </c>
       <c r="H52" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I52" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -5944,7 +5958,7 @@
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
       <c r="AC52" s="10"/>
-      <c r="AD52" s="1"/>
+      <c r="AD52" s="10"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -6015,7 +6029,7 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="21" t="s">
@@ -6211,14 +6225,14 @@
         <v>45099</v>
       </c>
       <c r="H57" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I57" s="4">
         <v>7</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -6270,14 +6284,14 @@
         <v>45099</v>
       </c>
       <c r="H58" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I58" s="4">
         <v>7</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -6310,33 +6324,33 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
     </row>
-    <row r="59" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>25</v>
+      <c r="C59" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="F59" s="5">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G59" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>15</v>
+        <v>45097</v>
+      </c>
+      <c r="H59" s="4">
+        <v>90</v>
       </c>
       <c r="I59" s="4">
         <v>2</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -6344,24 +6358,24 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="57"/>
+      <c r="AF59" s="57"/>
+      <c r="AG59" s="57"/>
+      <c r="AH59" s="11"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
@@ -6372,30 +6386,30 @@
     <row r="60" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>25</v>
+      <c r="C60" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="F60" s="5">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G60" s="5">
-        <v>45089</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>15</v>
+        <v>45097</v>
+      </c>
+      <c r="H60" s="4">
+        <v>90</v>
       </c>
       <c r="I60" s="4">
         <v>2</v>
       </c>
       <c r="J60" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -6403,24 +6417,24 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="57"/>
+      <c r="AF60" s="57"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="11"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
@@ -6428,11 +6442,11 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>42</v>
@@ -6491,7 +6505,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
@@ -6546,14 +6560,14 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>25</v>
@@ -6609,7 +6623,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>43</v>
@@ -6618,7 +6632,7 @@
         <v>25</v>
       </c>
       <c r="F64" s="5">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G64" s="5">
         <v>45089</v>
@@ -6627,11 +6641,11 @@
         <v>15</v>
       </c>
       <c r="I64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -6641,7 +6655,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
+      <c r="S64" s="10"/>
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
       <c r="V64" s="10"/>
@@ -6664,33 +6678,33 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
     </row>
-    <row r="65" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="5">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G65" s="5">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I65" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -6700,18 +6714,18 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
+      <c r="S65" s="10"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
       <c r="AB65" s="11"/>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="10"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
       <c r="AE65" s="11"/>
       <c r="AF65" s="11"/>
       <c r="AG65" s="11"/>
@@ -6727,29 +6741,29 @@
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="5">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="G66" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H66" s="4">
-        <v>20</v>
+        <v>45089</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I66" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -6762,7 +6776,7 @@
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
+      <c r="V66" s="10"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
@@ -6770,10 +6784,10 @@
       <c r="AA66" s="11"/>
       <c r="AB66" s="11"/>
       <c r="AC66" s="11"/>
-      <c r="AD66" s="10"/>
-      <c r="AE66" s="10"/>
-      <c r="AF66" s="10"/>
-      <c r="AG66" s="10"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
@@ -6783,217 +6797,335 @@
       <c r="AN66" s="1"/>
     </row>
     <row r="67" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44">
-        <f>SUM(I3:I66)</f>
-        <v>195</v>
-      </c>
-      <c r="J67" s="44">
-        <f>SUM(J3:J66)</f>
-        <v>154.60000000000002</v>
-      </c>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="49"/>
-      <c r="W67" s="49"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="49"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="5">
+        <v>45090</v>
+      </c>
+      <c r="G67" s="5">
+        <v>45097</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="4">
+        <v>6</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
     </row>
     <row r="68" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="49"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="49"/>
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
-      <c r="AB68" s="49"/>
-      <c r="AC68" s="49"/>
-    </row>
-    <row r="69" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G70" s="27" t="s">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="5">
+        <v>45097</v>
+      </c>
+      <c r="G68" s="5">
+        <v>45100</v>
+      </c>
+      <c r="H68" s="4">
+        <v>30</v>
+      </c>
+      <c r="I68" s="4">
+        <v>4</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+    </row>
+    <row r="69" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44">
+        <f>SUM(I3:I68)</f>
+        <v>201</v>
+      </c>
+      <c r="J69" s="44">
+        <f>SUM(J3:J68)</f>
+        <v>171.79999999999998</v>
+      </c>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+    </row>
+    <row r="70" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="H72" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I70" s="44"/>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="D71" s="37">
+      <c r="I72" s="44"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D73" s="37">
         <v>45092</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E73" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G71" s="30" t="s">
+      <c r="G73" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="36">
-        <f>COUNTIF(H15:H66,"終了")</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="G72" s="24" t="s">
+      <c r="H73" s="36">
+        <f>COUNTIF(H15:H68,"終了")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="G74" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H72" s="25">
-        <f>COUNTIF(H15:H66,"未着手")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="G73" s="24">
-        <v>10</v>
-      </c>
-      <c r="H73" s="25">
-        <f>COUNTIF(H15:H66,10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="G74" s="24">
-        <v>20</v>
-      </c>
       <c r="H74" s="25">
-        <f>COUNTIF(H15:H66,20)</f>
-        <v>3</v>
+        <f>COUNTIF(H15:H68,"未着手")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G75" s="24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H75" s="25">
-        <f>COUNTIF(H15:H66,30)</f>
-        <v>1</v>
+        <f>COUNTIF(H15:H68,10)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G76" s="24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H76" s="25">
-        <f>COUNTIF(H15:H66,40)</f>
+        <f>COUNTIF(H15:H68,20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G77" s="24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H77" s="25">
-        <f>COUNTIF(H15:H66,50)</f>
+        <f>COUNTIF(H15:H68,30)</f>
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G78" s="24">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H78" s="25">
-        <f>COUNTIF(H15:H66,60)</f>
-        <v>3</v>
+        <f>COUNTIF(H15:H68,40)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G79" s="24">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H79" s="25">
-        <f>COUNTIF(H15:H66,70)</f>
-        <v>1</v>
+        <f>COUNTIF(H15:H68,50)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="G80" s="24">
+        <v>60</v>
+      </c>
+      <c r="H80" s="25">
+        <f>COUNTIF(H15:H68,60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G81" s="24">
+        <v>70</v>
+      </c>
+      <c r="H81" s="25">
+        <f>COUNTIF(H15:H68,70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G82" s="24">
         <v>80</v>
       </c>
-      <c r="H80" s="25">
-        <f>COUNTIF(H15:H66,80)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G81" s="34">
+      <c r="H82" s="25">
+        <f>COUNTIF(H15:H68,80)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="34">
         <v>90</v>
       </c>
-      <c r="H81" s="31">
-        <f>COUNTIF(H15:H66,90)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G82" s="32"/>
-      <c r="H82" s="33"/>
-    </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G83" s="35" t="s">
+      <c r="H83" s="31">
+        <f>COUNTIF(H15:H68,90)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="32"/>
+      <c r="H84" s="33"/>
+    </row>
+    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G85" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H83" s="29">
-        <f>SUM(H71:H81)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G84" s="34" t="s">
+      <c r="H85" s="29">
+        <f>SUM(H73:H83)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G86" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H84" s="26">
-        <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/H83*100/100/100</f>
-        <v>0.78653846153846163</v>
-      </c>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-    </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G86" t="s">
+      <c r="H86" s="26">
+        <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
+        <v>0.84259259259259256</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+    </row>
+    <row r="88" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
         <v>106</v>
       </c>
-      <c r="H86">
-        <f>(H71*100+G73*H73+G74*H74+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81)/100</f>
-        <v>40.9</v>
+      <c r="H88">
+        <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C14:AN66" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AN66">
-      <sortCondition ref="E14:E66"/>
+  <autoFilter ref="C14:AN68" xr:uid="{1CB11DB3-7C11-43B5-B385-254E6AE4EFD3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C15:AN68">
+      <sortCondition ref="E14:E68"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">
@@ -7018,13 +7150,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="8" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="5.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.08203125" customWidth="1"/>
-    <col min="23" max="23" width="11.9140625" customWidth="1"/>
+    <col min="2" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="8" width="5.6328125" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="5.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -7172,7 +7304,9 @@
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="I3" s="43">
+        <v>0.85</v>
+      </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
@@ -7185,15 +7319,15 @@
       <c r="S3" s="40"/>
       <c r="T3" s="40"/>
       <c r="V3">
-        <f>進捗管理!I67</f>
-        <v>195</v>
+        <f>進捗管理!I69</f>
+        <v>201</v>
       </c>
       <c r="W3">
         <v>18</v>
       </c>
       <c r="X3">
         <f>V3+W3</f>
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -7309,8 +7443,8 @@
         <v>213</v>
       </c>
       <c r="V5">
-        <f>進捗管理!J67</f>
-        <v>154.60000000000002</v>
+        <f>進捗管理!J69</f>
+        <v>171.79999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7376,11 +7510,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.79282051282051291</v>
+        <v>0.85472636815920389</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.72582159624413156</v>
+        <v>0.78447488584474878</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7417,20 +7551,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.9140625" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="6.9140625" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.90625" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>117</v>
       </c>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2762BC6-5E45-4C62-8098-B373BA262A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749975CD-4630-4617-AFA4-A3AEA262923D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -907,6 +907,26 @@
   </si>
   <si>
     <t>Recordmodel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月と10月の日付がおかしい</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/1の前が6/28になる</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1315,7 +1335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,9 +1506,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2864,13 +2881,13 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="10" width="6.81640625" customWidth="1"/>
-    <col min="11" max="40" width="3.453125" customWidth="1"/>
+    <col min="9" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="40" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -3101,7 +3118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -3145,7 +3162,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3202,7 +3219,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3259,7 +3276,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3316,7 +3333,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3360,7 +3377,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3417,7 +3434,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3474,7 +3491,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3531,7 +3548,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3575,7 +3592,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3632,7 +3649,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3689,7 +3706,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3792,7 +3809,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3851,7 +3868,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3969,7 +3986,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -4087,7 +4104,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -4205,7 +4222,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
@@ -4264,7 +4281,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
@@ -4382,7 +4399,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4559,7 +4576,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
@@ -4618,7 +4635,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -4677,7 +4694,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4736,7 +4753,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4854,7 +4871,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17" t="s">
@@ -4913,7 +4930,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
@@ -5324,7 +5341,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
@@ -5382,7 +5399,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
@@ -5440,7 +5457,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="17" t="s">
@@ -5498,7 +5515,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5557,7 +5574,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
@@ -5852,7 +5869,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
@@ -6029,7 +6046,7 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="21" t="s">
@@ -6364,17 +6381,17 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
-      <c r="AE59" s="57"/>
-      <c r="AF59" s="57"/>
-      <c r="AG59" s="57"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
       <c r="AH59" s="11"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -6423,17 +6440,17 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
       <c r="AH60" s="11"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
@@ -6442,7 +6459,7 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -6560,7 +6577,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -6678,7 +6695,7 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
     </row>
-    <row r="65" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
@@ -6974,8 +6991,8 @@
       <c r="AB70" s="49"/>
       <c r="AC70" s="49"/>
     </row>
-    <row r="71" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G72" s="27" t="s">
         <v>87</v>
       </c>
@@ -7080,7 +7097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G83" s="34">
         <v>90</v>
       </c>
@@ -7089,7 +7106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G84" s="32"/>
       <c r="H84" s="33"/>
     </row>
@@ -7102,7 +7119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G86" s="34" t="s">
         <v>90</v>
       </c>
@@ -7150,13 +7167,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="5.6328125" customWidth="1"/>
-    <col min="7" max="8" width="5.6328125" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="5.6328125" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" customWidth="1"/>
-    <col min="23" max="23" width="11.90625" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.08203125" customWidth="1"/>
+    <col min="23" max="23" width="11.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -7553,18 +7570,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="4.9140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.9140625" customWidth="1"/>
+    <col min="6" max="6" width="25.4140625" customWidth="1"/>
+    <col min="7" max="7" width="6.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>117</v>
       </c>
@@ -7615,7 +7632,9 @@
       <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -7631,7 +7650,9 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749975CD-4630-4617-AFA4-A3AEA262923D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FEFD75-EF52-43AA-A20D-91244EC1BF16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="136">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -2876,9 +2876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5828,15 +5828,15 @@
       <c r="G50" s="5">
         <v>45100</v>
       </c>
-      <c r="H50" s="4">
-        <v>10</v>
+      <c r="H50" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I50" s="4">
         <v>5</v>
       </c>
       <c r="J50" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>171.79999999999998</v>
+        <v>176.29999999999995</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H75" s="25">
         <f>COUNTIF(H15:H68,10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.84259259259259256</v>
+        <v>0.85925925925925928</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>45.5</v>
+        <v>46.4</v>
       </c>
     </row>
   </sheetData>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>171.79999999999998</v>
+        <v>176.29999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7527,11 +7527,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.85472636815920389</v>
+        <v>0.87711442786069627</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.78447488584474878</v>
+        <v>0.80502283105022809</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7568,7 +7568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FEFD75-EF52-43AA-A20D-91244EC1BF16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC3AE0-968D-4656-900A-ECE8327A1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="136">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -2877,8 +2877,8 @@
   <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE17" sqref="AE17:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3825,17 +3825,17 @@
         <v>45086</v>
       </c>
       <c r="G16" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H16" s="4">
-        <v>90</v>
+        <v>45097</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I16" s="4">
         <v>10</v>
       </c>
       <c r="J16" s="4">
         <f>(I16*IF(H16="終了",100,IF(H16="未着手",0,H16)))/100</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -3857,9 +3857,9 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -3884,17 +3884,17 @@
         <v>45086</v>
       </c>
       <c r="G17" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H17" s="4">
-        <v>90</v>
+        <v>45097</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="4">
         <v>10</v>
       </c>
       <c r="J17" s="4">
         <f>(I17*IF(H17="終了",100,IF(H17="未着手",0,H17)))/100</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -3916,9 +3916,9 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -3943,17 +3943,17 @@
         <v>45086</v>
       </c>
       <c r="G18" s="5">
-        <v>45100</v>
-      </c>
-      <c r="H18" s="4">
-        <v>90</v>
+        <v>45097</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I18" s="4">
         <v>10</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" ref="J18:J68" si="1">(I18*IF(H18="終了",100,IF(H18="未着手",0,H18)))/100</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -3975,9 +3975,9 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>176.29999999999995</v>
+        <v>179.29999999999995</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="H83" s="31">
         <f>COUNTIF(H15:H68,90)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.85925925925925928</v>
+        <v>0.86481481481481481</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>46.4</v>
+        <v>46.7</v>
       </c>
     </row>
   </sheetData>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>176.29999999999995</v>
+        <v>179.29999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7527,11 +7527,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.87711442786069627</v>
+        <v>0.89203980099502467</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.80502283105022809</v>
+        <v>0.81872146118721445</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC3AE0-968D-4656-900A-ECE8327A1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F5E399-1878-45AE-933E-F52CDA3CC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1696,6 +1696,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="0.0%">
                   <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0%">
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,17 +2880,17 @@
   <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE17" sqref="AE17:AG17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="40" width="3.4140625" customWidth="1"/>
+    <col min="9" max="10" width="6.81640625" customWidth="1"/>
+    <col min="11" max="40" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -3118,7 +3121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -3162,7 +3165,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3219,7 +3222,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3276,7 +3279,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3299,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="0"/>
+        <f>(I6*IF(H6="終了",100,IF(H6="未着手",0,H18)))/100</f>
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
@@ -3333,7 +3336,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3377,7 +3380,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3434,7 +3437,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3491,7 +3494,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3548,7 +3551,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3592,7 +3595,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3649,7 +3652,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3706,7 +3709,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3809,7 +3812,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3868,7 +3871,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3945,15 +3948,15 @@
       <c r="G18" s="5">
         <v>45097</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
+      <c r="H18" s="4">
+        <v>60</v>
       </c>
       <c r="I18" s="4">
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:J68" si="1">(I18*IF(H18="終了",100,IF(H18="未着手",0,H18)))/100</f>
-        <v>10</v>
+        <f>(I18*IF(H18="終了",100,IF(H18="未着手",0,H18)))/100</f>
+        <v>6</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -3986,7 +3989,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -4011,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="1"/>
+        <f>(I19*IF(H19="終了",100,IF(H19="未着手",0,H19)))/100</f>
         <v>3</v>
       </c>
       <c r="K19" s="6"/>
@@ -4070,7 +4073,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J20:J68" si="1">(I20*IF(H20="終了",100,IF(H20="未着手",0,H20)))/100</f>
         <v>3</v>
       </c>
       <c r="K20" s="6"/>
@@ -4104,7 +4107,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -4222,7 +4225,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
@@ -4281,7 +4284,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
@@ -4399,7 +4402,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4576,7 +4579,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
@@ -4635,7 +4638,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -4654,14 +4657,14 @@
         <v>45100</v>
       </c>
       <c r="H30" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I30" s="4">
         <v>3</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -4694,7 +4697,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4753,7 +4756,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4871,7 +4874,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17" t="s">
@@ -4930,7 +4933,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
@@ -5185,14 +5188,14 @@
         <v>45100</v>
       </c>
       <c r="H39" s="4">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I39" s="4">
         <v>2</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -5341,7 +5344,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
@@ -5359,15 +5362,15 @@
       <c r="G42" s="5">
         <v>45100</v>
       </c>
-      <c r="H42" s="4">
-        <v>20</v>
+      <c r="H42" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -5399,7 +5402,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
@@ -5417,15 +5420,15 @@
       <c r="G43" s="5">
         <v>45096</v>
       </c>
-      <c r="H43" s="4">
-        <v>90</v>
+      <c r="H43" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I43" s="4">
         <v>2</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -5457,7 +5460,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="17" t="s">
@@ -5475,15 +5478,15 @@
       <c r="G44" s="5">
         <v>45096</v>
       </c>
-      <c r="H44" s="4">
-        <v>80</v>
+      <c r="H44" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I44" s="4">
         <v>2</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -5515,7 +5518,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5574,7 +5577,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
@@ -5869,7 +5872,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
@@ -5887,15 +5890,15 @@
       <c r="G51" s="5">
         <v>45097</v>
       </c>
-      <c r="H51" s="4">
-        <v>80</v>
+      <c r="H51" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I51" s="4">
         <v>5</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -5947,14 +5950,14 @@
         <v>45097</v>
       </c>
       <c r="H52" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I52" s="4">
         <v>5</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -6046,7 +6049,7 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="21" t="s">
@@ -6459,7 +6462,7 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -6577,7 +6580,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -6695,7 +6698,7 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
     </row>
-    <row r="65" spans="1:40" ht="16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
@@ -6891,14 +6894,14 @@
         <v>45100</v>
       </c>
       <c r="H68" s="4">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I68" s="4">
         <v>4</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -6945,7 +6948,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>179.29999999999995</v>
+        <v>178.6</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -6991,8 +6994,8 @@
       <c r="AB70" s="49"/>
       <c r="AC70" s="49"/>
     </row>
-    <row r="71" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G72" s="27" t="s">
         <v>87</v>
       </c>
@@ -7013,7 +7016,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7022,7 +7025,7 @@
       </c>
       <c r="H74" s="25">
         <f>COUNTIF(H15:H68,"未着手")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.3">
@@ -7040,7 +7043,7 @@
       </c>
       <c r="H76" s="25">
         <f>COUNTIF(H15:H68,20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.3">
@@ -7049,7 +7052,7 @@
       </c>
       <c r="H77" s="25">
         <f>COUNTIF(H15:H68,30)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.3">
@@ -7058,7 +7061,7 @@
       </c>
       <c r="H78" s="25">
         <f>COUNTIF(H15:H68,40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.3">
@@ -7076,7 +7079,7 @@
       </c>
       <c r="H80" s="25">
         <f>COUNTIF(H15:H68,60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.3">
@@ -7094,10 +7097,10 @@
       </c>
       <c r="H82" s="25">
         <f>COUNTIF(H15:H68,80)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G83" s="34">
         <v>90</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G84" s="32"/>
       <c r="H84" s="33"/>
     </row>
@@ -7119,13 +7122,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G86" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.86481481481481481</v>
+        <v>0.875925925925926</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7136,7 +7139,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>46.7</v>
+        <v>47.3</v>
       </c>
     </row>
   </sheetData>
@@ -7165,15 +7168,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="8" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="5.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.08203125" customWidth="1"/>
-    <col min="23" max="23" width="11.9140625" customWidth="1"/>
+    <col min="2" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="8" width="5.6328125" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="5.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -7324,7 +7329,9 @@
       <c r="I3" s="43">
         <v>0.85</v>
       </c>
-      <c r="J3" s="40"/>
+      <c r="J3" s="40">
+        <v>0.89</v>
+      </c>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
@@ -7461,7 +7468,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>179.29999999999995</v>
+        <v>178.6</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7482,7 +7489,9 @@
       <c r="I6" s="41">
         <v>18</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="41">
+        <v>18</v>
+      </c>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -7513,8 +7522,12 @@
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="I7" s="41">
+        <v>170.9</v>
+      </c>
+      <c r="J7" s="41">
+        <v>178.6</v>
+      </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -7527,11 +7540,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.89203980099502467</v>
+        <v>0.88855721393034826</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.81872146118721445</v>
+        <v>0.81552511415525109</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7570,18 +7583,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.9140625" customWidth="1"/>
-    <col min="6" max="6" width="25.4140625" customWidth="1"/>
-    <col min="7" max="7" width="6.9140625" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.90625" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>117</v>
       </c>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F5E399-1878-45AE-933E-F52CDA3CC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5EAB4F-2C03-43B6-B27A-0E03D0C01274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="137">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -926,6 +926,13 @@
     <t>6/1の前が6/28になる</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2884,13 +2891,13 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="9" max="10" width="6.81640625" customWidth="1"/>
-    <col min="11" max="40" width="3.453125" customWidth="1"/>
+    <col min="9" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="40" width="3.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -3121,7 +3128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -3165,7 +3172,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3222,7 +3229,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3279,7 +3286,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3336,7 +3343,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -3380,7 +3387,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -3437,7 +3444,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3494,7 +3501,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -3551,7 +3558,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3595,7 +3602,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -3652,7 +3659,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3709,7 +3716,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -3812,7 +3819,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
@@ -3871,7 +3878,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
@@ -3989,7 +3996,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
@@ -4107,7 +4114,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -4225,7 +4232,7 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
     </row>
-    <row r="23" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
@@ -4284,7 +4291,7 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
@@ -4402,7 +4409,7 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
@@ -4579,7 +4586,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
     </row>
-    <row r="29" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
@@ -4597,15 +4604,15 @@
       <c r="G29" s="5">
         <v>45097</v>
       </c>
-      <c r="H29" s="4">
-        <v>90</v>
+      <c r="H29" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="I29" s="4">
         <v>4</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -4638,7 +4645,7 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -4697,7 +4704,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
     </row>
-    <row r="31" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -4756,7 +4763,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="15" t="s">
@@ -4874,7 +4881,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="17" t="s">
@@ -4933,7 +4940,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="17" t="s">
@@ -5344,7 +5351,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="17" t="s">
@@ -5402,7 +5409,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="17" t="s">
@@ -5460,7 +5467,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="17" t="s">
@@ -5518,7 +5525,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="19" t="s">
@@ -5577,7 +5584,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="19" t="s">
@@ -5872,7 +5879,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
@@ -6049,7 +6056,7 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="21" t="s">
@@ -6462,7 +6469,7 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
     </row>
-    <row r="61" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -6580,7 +6587,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
     </row>
-    <row r="63" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -6698,7 +6705,7 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
     </row>
-    <row r="65" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="16" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
@@ -6948,7 +6955,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>178.6</v>
+        <v>179</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -6994,8 +7001,8 @@
       <c r="AB70" s="49"/>
       <c r="AC70" s="49"/>
     </row>
-    <row r="71" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G72" s="27" t="s">
         <v>87</v>
       </c>
@@ -7016,7 +7023,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7100,16 +7107,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G83" s="34">
         <v>90</v>
       </c>
       <c r="H83" s="31">
         <f>COUNTIF(H15:H68,90)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G84" s="32"/>
       <c r="H84" s="33"/>
     </row>
@@ -7122,13 +7129,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G86" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.875925925925926</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7139,7 +7146,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
     </row>
   </sheetData>
@@ -7172,13 +7179,13 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="5.6328125" customWidth="1"/>
-    <col min="7" max="8" width="5.6328125" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="5.6328125" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" customWidth="1"/>
-    <col min="23" max="23" width="11.90625" customWidth="1"/>
+    <col min="2" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.08203125" customWidth="1"/>
+    <col min="23" max="23" width="11.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -7468,7 +7475,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>178.6</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7540,11 +7547,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.88855721393034826</v>
+        <v>0.89054726368159209</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.81552511415525109</v>
+        <v>0.81735159817351599</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7583,18 +7590,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="4.9140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.9140625" customWidth="1"/>
+    <col min="6" max="6" width="25.4140625" customWidth="1"/>
+    <col min="7" max="7" width="6.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>117</v>
       </c>
@@ -7630,7 +7637,9 @@
       <c r="F3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="52" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -7648,7 +7657,9 @@
       <c r="F4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -7679,7 +7690,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5EAB4F-2C03-43B6-B27A-0E03D0C01274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A5E784-E89F-405D-A3BA-94AF0D4AA834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="149">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -933,6 +933,99 @@
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logサーブレット　追加機能</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各サーブレットログインIDの確認</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバターのテキスト表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバターとアイコンを作る</t>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリーを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバターを表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーにカロリー表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サジェスト機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文の作成</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1071,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1333,6 +1426,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1342,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,6 +1617,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1706,6 +1813,9 @@
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0%">
                   <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0%">
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,9 +2996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3778,15 +3888,15 @@
       <c r="G15" s="5">
         <v>45089</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
+      <c r="H15" s="4">
+        <v>50</v>
       </c>
       <c r="I15" s="4">
         <v>2</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>(I15*IF(H15="終了",100,IF(H15="未着手",0,H15)))/100</f>
+        <v>1</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -3956,14 +4066,14 @@
         <v>45097</v>
       </c>
       <c r="H18" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I18" s="4">
         <v>10</v>
       </c>
       <c r="J18" s="4">
         <f>(I18*IF(H18="終了",100,IF(H18="未着手",0,H18)))/100</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -4486,15 +4596,15 @@
       <c r="G27" s="5">
         <v>45097</v>
       </c>
-      <c r="H27" s="4">
-        <v>80</v>
+      <c r="H27" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I27" s="4">
         <v>4</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -4722,15 +4832,15 @@
       <c r="G31" s="5">
         <v>45100</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>28</v>
+      <c r="H31" s="4">
+        <v>10</v>
       </c>
       <c r="I31" s="4">
         <v>3</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -5076,15 +5186,15 @@
       <c r="G37" s="5">
         <v>45097</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>28</v>
+      <c r="H37" s="4">
+        <v>50</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -5136,14 +5246,14 @@
         <v>45098</v>
       </c>
       <c r="H38" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -5194,15 +5304,15 @@
       <c r="G39" s="5">
         <v>45100</v>
       </c>
-      <c r="H39" s="4">
-        <v>90</v>
+      <c r="H39" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I39" s="4">
         <v>2</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -5369,15 +5479,15 @@
       <c r="G42" s="5">
         <v>45100</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>28</v>
+      <c r="H42" s="4">
+        <v>60</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -5779,15 +5889,15 @@
       <c r="G49" s="5">
         <v>45096</v>
       </c>
-      <c r="H49" s="4">
-        <v>90</v>
+      <c r="H49" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I49" s="4">
         <v>4</v>
       </c>
       <c r="J49" s="4">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -5957,14 +6067,14 @@
         <v>45097</v>
       </c>
       <c r="H52" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I52" s="4">
         <v>5</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -6251,15 +6361,15 @@
       <c r="G57" s="5">
         <v>45099</v>
       </c>
-      <c r="H57" s="4">
-        <v>80</v>
+      <c r="H57" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I57" s="4">
         <v>7</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -6310,15 +6420,15 @@
       <c r="G58" s="5">
         <v>45099</v>
       </c>
-      <c r="H58" s="4">
-        <v>80</v>
+      <c r="H58" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I58" s="4">
         <v>7</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -6369,15 +6479,15 @@
       <c r="G59" s="5">
         <v>45097</v>
       </c>
-      <c r="H59" s="4">
-        <v>90</v>
+      <c r="H59" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I59" s="4">
         <v>2</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -6428,15 +6538,15 @@
       <c r="G60" s="5">
         <v>45097</v>
       </c>
-      <c r="H60" s="4">
-        <v>90</v>
+      <c r="H60" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I60" s="4">
         <v>2</v>
       </c>
       <c r="J60" s="4">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -6901,14 +7011,14 @@
         <v>45100</v>
       </c>
       <c r="H68" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I68" s="4">
         <v>4</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -6955,7 +7065,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>179</v>
+        <v>185.79999999999995</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -7023,7 +7133,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7032,7 +7142,7 @@
       </c>
       <c r="H74" s="25">
         <f>COUNTIF(H15:H68,"未着手")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.3">
@@ -7077,7 +7187,7 @@
       </c>
       <c r="H79" s="25">
         <f>COUNTIF(H15:H68,50)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.3">
@@ -7095,7 +7205,7 @@
       </c>
       <c r="H81" s="25">
         <f>COUNTIF(H15:H68,70)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.3">
@@ -7104,7 +7214,7 @@
       </c>
       <c r="H82" s="25">
         <f>COUNTIF(H15:H68,80)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -7113,7 +7223,7 @@
       </c>
       <c r="H83" s="31">
         <f>COUNTIF(H15:H68,90)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -7135,7 +7245,7 @@
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.87777777777777777</v>
+        <v>0.91851851851851851</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7146,7 +7256,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>47.4</v>
+        <v>49.6</v>
       </c>
     </row>
   </sheetData>
@@ -7176,7 +7286,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7339,7 +7449,9 @@
       <c r="J3" s="40">
         <v>0.89</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="40">
+        <v>0.92</v>
+      </c>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="43"/>
@@ -7475,7 +7587,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>179</v>
+        <v>185.79999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7547,11 +7659,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.89054726368159209</v>
+        <v>0.92437810945273613</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.81735159817351599</v>
+        <v>0.84840182648401807</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7588,7 +7700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7677,7 +7791,9 @@
       <c r="F5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -7692,7 +7808,9 @@
       <c r="D6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7708,7 +7826,9 @@
       <c r="D7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7724,7 +7844,9 @@
       <c r="D8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7740,7 +7862,9 @@
       <c r="D9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7756,7 +7880,9 @@
       <c r="D10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7772,7 +7898,9 @@
       <c r="D11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -7788,7 +7916,9 @@
       <c r="D12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -7804,7 +7934,9 @@
       <c r="D13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -7820,7 +7952,9 @@
       <c r="D14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="57" t="s">
+        <v>147</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -7836,7 +7970,9 @@
       <c r="D15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -7850,9 +7986,11 @@
         <v>125</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -7866,7 +8004,7 @@
         <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A5E784-E89F-405D-A3BA-94AF0D4AA834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17768A2-AC72-41DE-9C87-C937B5747FF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="150">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1026,6 +1026,16 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更のボタンの横並び</t>
+    <rPh sb="0" eb="6">
+      <t>コジンジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨコナラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1615,11 +1625,11 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3011,30 +3021,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2">
@@ -3129,24 +3139,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
@@ -3362,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J15" si="0">(I5*IF(H5="終了",100,IF(H5="未着手",0,H17)))/100</f>
+        <f t="shared" ref="J5:J13" si="0">(I5*IF(H5="終了",100,IF(H5="未着手",0,H17)))/100</f>
         <v>2</v>
       </c>
       <c r="K5" s="6"/>
@@ -7698,11 +7708,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7952,7 +7960,7 @@
       <c r="D14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="56" t="s">
         <v>147</v>
       </c>
       <c r="G14" s="1"/>
@@ -8006,7 +8014,9 @@
       <c r="D17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -8024,6 +8034,22 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17768A2-AC72-41DE-9C87-C937B5747FF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC39A6A-FB6F-4B8D-9D48-3B68EB44D5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="150">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -3006,9 +3006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4252,15 +4252,15 @@
       <c r="G21" s="5">
         <v>45093</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
+      <c r="H21" s="4">
+        <v>90</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>185.79999999999995</v>
+        <v>185.59999999999997</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="H83" s="31">
         <f>COUNTIF(H15:H68,90)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.91851851851851851</v>
+        <v>0.91666666666666685</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
     </row>
   </sheetData>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>185.79999999999995</v>
+        <v>185.59999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7669,11 +7669,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.92437810945273613</v>
+        <v>0.92338308457711427</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.84840182648401807</v>
+        <v>0.84748858447488573</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7710,7 +7710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC39A6A-FB6F-4B8D-9D48-3B68EB44D5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EE7508-51F5-4D53-A5D0-818DEBA27FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="150">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -3007,8 +3007,8 @@
   <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3898,15 +3898,15 @@
       <c r="G15" s="5">
         <v>45089</v>
       </c>
-      <c r="H15" s="4">
-        <v>50</v>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="4">
         <v>2</v>
       </c>
       <c r="J15" s="4">
         <f>(I15*IF(H15="終了",100,IF(H15="未着手",0,H15)))/100</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>185.59999999999997</v>
+        <v>186.59999999999997</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="H79" s="25">
         <f>COUNTIF(H15:H68,50)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.3">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.91666666666666685</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>49.5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>185.59999999999997</v>
+        <v>186.59999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7669,11 +7669,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.92338308457711427</v>
+        <v>0.9283582089552237</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.84748858447488573</v>
+        <v>0.85205479452054778</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7702,7 +7702,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EE7508-51F5-4D53-A5D0-818DEBA27FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B4E169-7BA3-4814-9D41-1F49BB0443C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,12 +1030,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>個人情報変更のボタンの横並び</t>
-    <rPh sb="0" eb="6">
-      <t>コジンジョウホウヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨコナラ</t>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3008,7 +3005,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4252,15 +4249,15 @@
       <c r="G21" s="5">
         <v>45093</v>
       </c>
-      <c r="H21" s="4">
-        <v>90</v>
+      <c r="H21" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -7075,7 +7072,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>186.59999999999997</v>
+        <v>186.79999999999995</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -7143,7 +7140,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7233,7 +7230,7 @@
       </c>
       <c r="H83" s="31">
         <f>COUNTIF(H15:H68,90)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -7255,7 +7252,7 @@
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.92592592592592593</v>
+        <v>0.9277777777777777</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7266,7 +7263,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>50</v>
+        <v>50.1</v>
       </c>
     </row>
   </sheetData>
@@ -7597,7 +7594,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>186.59999999999997</v>
+        <v>186.79999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7669,11 +7666,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.9283582089552237</v>
+        <v>0.92935323383084556</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.85205479452054778</v>
+        <v>0.85296803652968012</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -8015,9 +8012,7 @@
       <c r="D17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B4E169-7BA3-4814-9D41-1F49BB0443C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E932C26-6913-48E8-8104-2B96846FE607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
     <sheet name="予実管理グラフ" sheetId="6" r:id="rId2"/>
     <sheet name="画面情報" sheetId="7" r:id="rId3"/>
+    <sheet name="テスト" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">進捗管理!$C$14:$AN$68</definedName>
@@ -34,60 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="247">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>内部設計</t>
     <rPh sb="0" eb="4">
       <t>ナイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -97,7 +98,7 @@
     <rPh sb="2" eb="4">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>業務フローの確認</t>
@@ -107,7 +108,7 @@
     <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>要件定義の検討</t>
@@ -117,35 +118,35 @@
     <rPh sb="5" eb="7">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面設計</t>
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ペルソナ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面の遷移図</t>
@@ -155,22 +156,22 @@
     <rPh sb="3" eb="6">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>データベース設計</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>作成予定ファイルの一覧表</t>
@@ -183,7 +184,7 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ファイルの担当割り振り</t>
@@ -193,175 +194,175 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>猪瀬</t>
     <rPh sb="0" eb="2">
       <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カテゴリー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="3">
       <t>サギョウメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>dao</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>食事のデータアクセス</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>記録のデータアクセス</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>User情報アクセス</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>FoodDao関連のデータ操作</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>RegisterDao関連のデータ操作</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>UserDao関連のデータ操作</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>servlet</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カレンダー画面用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>品目登録画面用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>食事ログ画面用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロフィール画面用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>秘密の質問画面用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>トップ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>登録画面用</t>
     <rPh sb="2" eb="5">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>全画面共通</t>
@@ -371,18 +372,18 @@
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>品目登録画面画面用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グラフ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -395,30 +396,30 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログイン画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>秘密の質問用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カレンダー画面用（月移動、月変更）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グラフ用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログイン画面用</t>
@@ -428,19 +429,19 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ハンバーガーメニューバー用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>秘密の質問用(ポップアップ画面)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テキスト・アバター表示</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>トップ画面用(スライド)</t>
@@ -450,7 +451,7 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>登録画面用</t>
@@ -460,11 +461,11 @@
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -474,14 +475,14 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>木</t>
@@ -491,7 +492,7 @@
     <rPh sb="0" eb="1">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>金</t>
@@ -501,14 +502,14 @@
     <rPh sb="0" eb="1">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>土</t>
     <rPh sb="0" eb="1">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>日</t>
@@ -524,14 +525,14 @@
   </si>
   <si>
     <t>土</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>品目登録画面</t>
@@ -541,42 +542,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>登録画面メッセージ</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>進捗度</t>
     <rPh sb="0" eb="3">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>数</t>
     <rPh sb="0" eb="1">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>全体進捗度</t>
@@ -586,28 +587,28 @@
     <rPh sb="2" eb="5">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>土</t>
@@ -617,21 +618,21 @@
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>予定進捗率</t>
     <rPh sb="0" eb="5">
       <t>ヨテイシンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>総工数</t>
     <rPh sb="0" eb="3">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>当日工数</t>
@@ -641,7 +642,7 @@
     <rPh sb="2" eb="4">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>工数積算</t>
@@ -651,7 +652,7 @@
     <rPh sb="2" eb="4">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>工数積算＝（（工数:人日）ｘ（各進捗率））ｘ全部</t>
@@ -673,7 +674,7 @@
     <rPh sb="22" eb="24">
       <t>ゼンブ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>当日工数＝当日作業した工数</t>
@@ -686,7 +687,7 @@
     <rPh sb="11" eb="13">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>進捗率＝（工数積算）/（総工数）</t>
@@ -702,7 +703,7 @@
     <rPh sb="12" eb="15">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>予定進捗率＝予定されている進捗率</t>
@@ -715,7 +716,7 @@
     <rPh sb="13" eb="16">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>総工数</t>
@@ -725,90 +726,90 @@
     <rPh sb="1" eb="3">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テスト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>積算</t>
     <rPh sb="0" eb="2">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>工数</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>工数積算</t>
     <rPh sb="0" eb="4">
       <t>コウスウセキサン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>進捗率(テストなし）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>進捗率(テストあり）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>移動前</t>
     <rPh sb="0" eb="3">
       <t>イドウマエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>移動後</t>
     <rPh sb="0" eb="3">
       <t>イドウゴ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>トップページ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カレンダー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>秘密の質問</t>
@@ -818,49 +819,49 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新規確認</t>
     <rPh sb="0" eb="4">
       <t>シンキカクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>食事記録</t>
     <rPh sb="0" eb="4">
       <t>ショクジキロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グラフ表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プロフィール設定</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>品目登録</t>
     <rPh sb="0" eb="4">
       <t>ヒンモクトウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人情報変更</t>
@@ -873,41 +874,41 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="0" eb="6">
       <t>コジンジョウホウヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>後回しにしたことリスト</t>
     <rPh sb="0" eb="2">
       <t>アトマワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>log.jsp カテゴリー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>RecordDao</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Recordmodel</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2月と10月の日付がおかしい</t>
@@ -920,28 +921,28 @@
     <rPh sb="7" eb="9">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/1の前が6/28になる</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>秘密の質問ポップアップ</t>
@@ -951,11 +952,11 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カレンダーcss</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>logサーブレット　追加機能</t>
@@ -965,7 +966,7 @@
     <rPh sb="12" eb="14">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各サーブレットログインIDの確認</t>
@@ -975,49 +976,49 @@
     <rPh sb="14" eb="16">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アバターのテキスト表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アバターとアイコンを作る</t>
     <rPh sb="10" eb="11">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カロリーを表示する</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アバターを表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カレンダーにカロリー表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>サジェスト機能</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>説明文の作成</t>
@@ -1027,14 +1028,693 @@
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィール設定テキスト表示のバグ</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィール設定cssおかしくなる</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィール変更画面遷移のみ？</t>
+    <rPh sb="6" eb="10">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全てのページに移動可能</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イドウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メニューバークリック</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>更新可能</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンカノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワード確認の記入で別のものを打つ</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>動作なし</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クリアボタンクリック</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力エラー表示あり</t>
+  </si>
+  <si>
+    <t>空欄あり</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン画面遷移</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メール更新</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>最背面</t>
+  </si>
+  <si>
+    <t>可能</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>期限を過去に設定</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>トップ画面遷移</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロフィール更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サーバエラー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>int型に数字以外記入</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>スウジイガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面サイズが少し大きく、横にスクロールできてしまう</t>
+  </si>
+  <si>
+    <t>画面サイズ変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サーブレット未設定</t>
+  </si>
+  <si>
+    <t>ロゴクリック</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コメントがキャラの下側に来る</t>
+  </si>
+  <si>
+    <t>グラフ変化なし</t>
+  </si>
+  <si>
+    <t>年月変更</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エラーなし</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カテゴリ未選択</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録エラーなし</t>
+  </si>
+  <si>
+    <t>cssの影適用無し</t>
+    <rPh sb="4" eb="7">
+      <t>カゲテキヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カテゴリ選択プルダウンが表示されない</t>
+  </si>
+  <si>
+    <t>新たな品目登録</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>食事ログでも選択可能</t>
+  </si>
+  <si>
+    <t>品目登録可能</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンモクトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>不可</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カテゴリからの検索</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面がその日に設定</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>別日に登録</t>
+    <rPh sb="0" eb="2">
+      <t>ベツビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>再度登録時にカテゴリ選択プルダウンが表示されない</t>
+  </si>
+  <si>
+    <t>一品目登録</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログに表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>一品目登録</t>
+    <rPh sb="0" eb="5">
+      <t>イッピンメトウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録不可（サーバエラー）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>記入した食品該当なし</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エラー文表示</t>
+  </si>
+  <si>
+    <t>空欄</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>表示は変わらない</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付変更時</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヘンコウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログには登録済みの表示</t>
+    <rPh sb="4" eb="7">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付は今日に設定</t>
+  </si>
+  <si>
+    <t>メニューバーからの遷移</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カレンダーの日付の左端が重なる</t>
+  </si>
+  <si>
+    <t>カロリーだけ最前面に表示される</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メニューバー表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テキスト表示後数秒でカレンダー画面へ</t>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン時パスは日本語不可</t>
+  </si>
+  <si>
+    <t>パスワードが日本語でも登録可能</t>
+    <rPh sb="6" eb="9">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トウロクカノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リセット</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フィールド入力エラー文</t>
+  </si>
+  <si>
+    <t>未記入</t>
+    <rPh sb="0" eb="3">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エラー文表示</t>
+    <rPh sb="3" eb="6">
+      <t>ブンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワード未一致</t>
+    <rPh sb="5" eb="8">
+      <t>ミイッチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>✕</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>request.setCharacterEncoding("UTF-8");がdoPostに必要か？</t>
+    <rPh sb="46" eb="48">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>㊟他は問題なし</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>データベース上にStringで正しく登録されていない</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>答えを登録</t>
+    <rPh sb="0" eb="1">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>トップ画面（更新後パスでイン可能）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送信後、正しく更新する</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面更新後、記入リセット</t>
+  </si>
+  <si>
+    <t>正しい送信</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>動かない</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>空欄ありorミス送信</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>最背面表示</t>
+  </si>
+  <si>
+    <t>ポップアップ未作成</t>
+    <rPh sb="6" eb="9">
+      <t>ミサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>白画面</t>
+    <rPh sb="0" eb="3">
+      <t>シロガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>トップ画面遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>空欄あり更新</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロゴのサーブレット未設定</t>
+    <rPh sb="9" eb="12">
+      <t>ミセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロゴの未表示</t>
+    <rPh sb="3" eb="6">
+      <t>ミヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロゴ写真無し</t>
+    <rPh sb="2" eb="5">
+      <t>シャシンナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロゴのサイズ違い</t>
+    <rPh sb="6" eb="7">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ボックスの位置ずれ？</t>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新規登録画面遷移</t>
+    <rPh sb="0" eb="8">
+      <t>シンキトウロクガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン画面再読み込み</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ミス記入</t>
+    <rPh sb="2" eb="4">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エラー文表示</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1045,13 +1725,21 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1102,8 +1790,37 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1167,6 +1884,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,15 +2192,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,19 +2213,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,37 +2240,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1538,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -1571,34 +2321,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1607,19 +2357,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
@@ -1628,10 +2378,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{93DCE069-BDD4-4447-AD7F-58D549AD8427}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1823,6 +2655,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.0%">
                   <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0%">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0%">
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,9 +3841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4781,14 +5619,14 @@
         <v>45100</v>
       </c>
       <c r="H30" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I30" s="4">
         <v>3</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -4839,15 +5677,15 @@
       <c r="G31" s="5">
         <v>45100</v>
       </c>
-      <c r="H31" s="4">
-        <v>10</v>
+      <c r="H31" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I31" s="4">
         <v>3</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -5193,15 +6031,15 @@
       <c r="G37" s="5">
         <v>45097</v>
       </c>
-      <c r="H37" s="4">
-        <v>50</v>
+      <c r="H37" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -5252,15 +6090,15 @@
       <c r="G38" s="5">
         <v>45098</v>
       </c>
-      <c r="H38" s="4">
-        <v>50</v>
+      <c r="H38" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -5486,15 +6324,15 @@
       <c r="G42" s="5">
         <v>45100</v>
       </c>
-      <c r="H42" s="4">
-        <v>60</v>
+      <c r="H42" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -6132,15 +6970,15 @@
       <c r="G53" s="5">
         <v>45091</v>
       </c>
-      <c r="H53" s="4">
-        <v>90</v>
+      <c r="H53" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I53" s="4">
         <v>3</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -6191,15 +7029,15 @@
       <c r="G54" s="5">
         <v>45091</v>
       </c>
-      <c r="H54" s="4">
-        <v>90</v>
+      <c r="H54" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I54" s="4">
         <v>3</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -7017,15 +7855,15 @@
       <c r="G68" s="5">
         <v>45100</v>
       </c>
-      <c r="H68" s="4">
-        <v>80</v>
+      <c r="H68" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I68" s="4">
         <v>4</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -7072,7 +7910,7 @@
       </c>
       <c r="J69" s="44">
         <f>SUM(J3:J68)</f>
-        <v>186.79999999999995</v>
+        <v>194.9</v>
       </c>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -7140,7 +7978,7 @@
       </c>
       <c r="H73" s="36">
         <f>COUNTIF(H15:H68,"終了")</f>
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
@@ -7158,7 +7996,7 @@
       </c>
       <c r="H75" s="25">
         <f>COUNTIF(H15:H68,10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.3">
@@ -7185,7 +8023,7 @@
       </c>
       <c r="H78" s="25">
         <f>COUNTIF(H15:H68,40)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.3">
@@ -7194,7 +8032,7 @@
       </c>
       <c r="H79" s="25">
         <f>COUNTIF(H15:H68,50)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.3">
@@ -7203,7 +8041,7 @@
       </c>
       <c r="H80" s="25">
         <f>COUNTIF(H15:H68,60)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.3">
@@ -7230,7 +8068,7 @@
       </c>
       <c r="H83" s="31">
         <f>COUNTIF(H15:H68,90)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="7:10" ht="14" thickBot="1" x14ac:dyDescent="0.35">
@@ -7252,7 +8090,7 @@
       </c>
       <c r="H86" s="26">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/H85*100/100/100</f>
-        <v>0.9277777777777777</v>
+        <v>0.98518518518518516</v>
       </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
@@ -7263,7 +8101,7 @@
       </c>
       <c r="H88">
         <f>(H73*100+G75*H75+G76*H76+G77*H77+G78*H78+G79*H79+G80*H80+G81*H81+G82*H82+G83*H83)/100</f>
-        <v>50.1</v>
+        <v>53.2</v>
       </c>
     </row>
   </sheetData>
@@ -7282,7 +8120,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7293,7 +8131,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7459,8 +8297,12 @@
       <c r="K3" s="40">
         <v>0.92</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="L3" s="40">
+        <v>0.96</v>
+      </c>
+      <c r="M3" s="40">
+        <v>0.99</v>
+      </c>
       <c r="N3" s="43"/>
       <c r="O3" s="43"/>
       <c r="P3" s="40"/>
@@ -7594,7 +8436,7 @@
       </c>
       <c r="V5">
         <f>進捗管理!J69</f>
-        <v>186.79999999999995</v>
+        <v>194.9</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -7666,11 +8508,11 @@
       <c r="T7" s="41"/>
       <c r="V7" s="50">
         <f>V5/V3</f>
-        <v>0.92935323383084556</v>
+        <v>0.96965174129353238</v>
       </c>
       <c r="W7" s="50">
         <f>V5/X3</f>
-        <v>0.85296803652968012</v>
+        <v>0.88995433789954337</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7697,7 +8539,7 @@
       <c r="A21" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7708,7 +8550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8012,7 +8856,9 @@
       <c r="D17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -8028,7 +8874,9 @@
       <c r="D18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -8048,7 +8896,749 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB7D51-676D-4193-ABA5-3E56118CBBC6}">
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.4140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.08203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="6" style="58" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.6640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="G2" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="70">
+        <v>1</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="G3" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="72">
+        <v>2</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="G4" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="70">
+        <v>3</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="H5" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="72">
+        <v>4</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="H6" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="70">
+        <v>5</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="72">
+        <v>6</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="G8" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="70">
+        <v>7</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="H9" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="72">
+        <v>8</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="H10" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="70">
+        <v>9</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="H11" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="72">
+        <v>10</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="H12" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="70">
+        <v>11</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="H13" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="72">
+        <v>12</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="H14" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="70">
+        <v>13</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="83"/>
+      <c r="H15" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="72">
+        <v>14</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="70">
+        <v>15</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="72">
+        <v>16</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="I18" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="70">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="H19" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G30" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H31" s="58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H32" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H34" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" s="60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G39" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F42" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G46" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H49" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="G51" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H52" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H53" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="I53" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H54" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="G56" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H57" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H58" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F59" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F61" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="J61" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="K61" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E932C26-6913-48E8-8104-2B96846FE607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19214B12-DFBE-4CD9-A6D8-CF3A743B413F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -35,60 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="247">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>内部設計</t>
     <rPh sb="0" eb="4">
       <t>ナイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -98,7 +98,7 @@
     <rPh sb="2" eb="4">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>業務フローの確認</t>
@@ -108,7 +108,7 @@
     <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>要件定義の検討</t>
@@ -118,35 +118,35 @@
     <rPh sb="5" eb="7">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面設計</t>
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ペルソナ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面の遷移図</t>
@@ -156,22 +156,22 @@
     <rPh sb="3" eb="6">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>データベース設計</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成予定ファイルの一覧表</t>
@@ -184,7 +184,7 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ファイルの担当割り振り</t>
@@ -194,175 +194,175 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>猪瀬</t>
     <rPh sb="0" eb="2">
       <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カテゴリー</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="3">
       <t>サギョウメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>dao</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>食事のデータアクセス</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>記録のデータアクセス</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>User情報アクセス</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FoodDao関連のデータ操作</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>RegisterDao関連のデータ操作</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UserDao関連のデータ操作</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>servlet</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カレンダー画面用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>品目登録画面用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>食事ログ画面用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール画面用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>秘密の質問画面用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>トップ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>登録画面用</t>
     <rPh sb="2" eb="5">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>全画面共通</t>
@@ -372,18 +372,18 @@
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>品目登録画面画面用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>グラフ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -396,30 +396,30 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秘密の質問用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カレンダー画面用（月移動、月変更）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>グラフ用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン画面用</t>
@@ -429,19 +429,19 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハンバーガーメニューバー用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>秘密の質問用(ポップアップ画面)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テキスト・アバター表示</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>トップ画面用(スライド)</t>
@@ -451,7 +451,7 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>登録画面用</t>
@@ -461,11 +461,11 @@
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -475,14 +475,14 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>木</t>
@@ -492,7 +492,7 @@
     <rPh sb="0" eb="1">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>金</t>
@@ -502,14 +502,14 @@
     <rPh sb="0" eb="1">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>土</t>
     <rPh sb="0" eb="1">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日</t>
@@ -525,14 +525,14 @@
   </si>
   <si>
     <t>土</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>品目登録画面</t>
@@ -542,42 +542,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>登録画面メッセージ</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>進捗度</t>
     <rPh sb="0" eb="3">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>数</t>
     <rPh sb="0" eb="1">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>全体進捗度</t>
@@ -587,28 +587,28 @@
     <rPh sb="2" eb="5">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>土</t>
@@ -618,21 +618,21 @@
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>予定進捗率</t>
     <rPh sb="0" eb="5">
       <t>ヨテイシンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>総工数</t>
     <rPh sb="0" eb="3">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>当日工数</t>
@@ -642,7 +642,7 @@
     <rPh sb="2" eb="4">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>工数積算</t>
@@ -652,7 +652,7 @@
     <rPh sb="2" eb="4">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>工数積算＝（（工数:人日）ｘ（各進捗率））ｘ全部</t>
@@ -674,7 +674,7 @@
     <rPh sb="22" eb="24">
       <t>ゼンブ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>当日工数＝当日作業した工数</t>
@@ -687,7 +687,7 @@
     <rPh sb="11" eb="13">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>進捗率＝（工数積算）/（総工数）</t>
@@ -703,7 +703,7 @@
     <rPh sb="12" eb="15">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>予定進捗率＝予定されている進捗率</t>
@@ -716,7 +716,7 @@
     <rPh sb="13" eb="16">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>総工数</t>
@@ -726,90 +726,90 @@
     <rPh sb="1" eb="3">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>積算</t>
     <rPh sb="0" eb="2">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>工数</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>工数積算</t>
     <rPh sb="0" eb="4">
       <t>コウスウセキサン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>進捗率(テストなし）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>進捗率(テストあり）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>移動前</t>
     <rPh sb="0" eb="3">
       <t>イドウマエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>移動後</t>
     <rPh sb="0" eb="3">
       <t>イドウゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>トップページ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カレンダー</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>秘密の質問</t>
@@ -819,49 +819,49 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規確認</t>
     <rPh sb="0" eb="4">
       <t>シンキカクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>食事記録</t>
     <rPh sb="0" eb="4">
       <t>ショクジキロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>グラフ表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プロフィール設定</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>品目登録</t>
     <rPh sb="0" eb="4">
       <t>ヒンモクトウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>個人情報変更</t>
@@ -874,41 +874,41 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="0" eb="6">
       <t>コジンジョウホウヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>後回しにしたことリスト</t>
     <rPh sb="0" eb="2">
       <t>アトマワ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>log.jsp カテゴリー</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>RecordDao</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Recordmodel</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2月と10月の日付がおかしい</t>
@@ -921,28 +921,28 @@
     <rPh sb="7" eb="9">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>6/1の前が6/28になる</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>秘密の質問ポップアップ</t>
@@ -952,11 +952,11 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カレンダーcss</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>logサーブレット　追加機能</t>
@@ -966,7 +966,7 @@
     <rPh sb="12" eb="14">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>各サーブレットログインIDの確認</t>
@@ -976,49 +976,49 @@
     <rPh sb="14" eb="16">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>アバターのテキスト表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>アバターとアイコンを作る</t>
     <rPh sb="10" eb="11">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カロリーを表示する</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>アバターを表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カレンダーにカロリー表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>サジェスト機能</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>説明文の作成</t>
@@ -1028,21 +1028,21 @@
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プロフィール設定テキスト表示のバグ</t>
@@ -1052,21 +1052,21 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プロフィール設定cssおかしくなる</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プロフィール変更画面遷移のみ？</t>
@@ -1076,11 +1076,11 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>全てのページに移動可能</t>
@@ -1090,18 +1090,18 @@
     <rPh sb="7" eb="11">
       <t>イドウカノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>メニューバークリック</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>更新可能</t>
     <rPh sb="0" eb="4">
       <t>コウシンカノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>パスワード確認の記入で別のものを打つ</t>
@@ -1117,18 +1117,18 @@
     <rPh sb="16" eb="17">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>動作なし</t>
     <rPh sb="0" eb="2">
       <t>ドウサ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>クリアボタンクリック</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>入力エラー表示あり</t>
@@ -1138,21 +1138,21 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン画面遷移</t>
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>メール更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>最背面</t>
@@ -1162,7 +1162,7 @@
     <rPh sb="0" eb="2">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>期限を過去に設定</t>
@@ -1175,25 +1175,25 @@
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール更新</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>サーバエラー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>int型に数字以外記入</t>
@@ -1206,7 +1206,7 @@
     <rPh sb="9" eb="11">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面サイズが少し大きく、横にスクロールできてしまう</t>
@@ -1219,14 +1219,14 @@
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>サーブレット未設定</t>
   </si>
   <si>
     <t>ロゴクリック</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>コメントがキャラの下側に来る</t>
@@ -1242,11 +1242,11 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>エラーなし</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カテゴリ未選択</t>
@@ -1256,7 +1256,7 @@
     <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>登録エラーなし</t>
@@ -1269,7 +1269,7 @@
     <rPh sb="7" eb="8">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カテゴリ選択プルダウンが表示されない</t>
@@ -1285,7 +1285,7 @@
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>食事ログでも選択可能</t>
@@ -1298,25 +1298,25 @@
     <rPh sb="4" eb="6">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>不可</t>
     <rPh sb="0" eb="2">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カテゴリからの検索</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面がその日に設定</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>別日に登録</t>
@@ -1326,7 +1326,7 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>再度登録時にカテゴリ選択プルダウンが表示されない</t>
@@ -1342,25 +1342,25 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログに表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>一品目登録</t>
     <rPh sb="0" eb="5">
       <t>イッピンメトウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>登録不可（サーバエラー）</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>記入した食品該当なし</t>
@@ -1373,7 +1373,7 @@
     <rPh sb="6" eb="8">
       <t>ガイトウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1383,11 +1383,11 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>表示は変わらない</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日付変更時</t>
@@ -1397,7 +1397,7 @@
     <rPh sb="2" eb="5">
       <t>ヘンコウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログには登録済みの表示</t>
@@ -1407,7 +1407,7 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日付は今日に設定</t>
@@ -1417,21 +1417,21 @@
     <rPh sb="9" eb="11">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダーの日付の左端が重なる</t>
   </si>
   <si>
     <t>カロリーだけ最前面に表示される</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>メニューバー表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テキスト表示後数秒でカレンダー画面へ</t>
@@ -1444,7 +1444,7 @@
     <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン時パスは日本語不可</t>
@@ -1457,11 +1457,11 @@
     <rPh sb="11" eb="15">
       <t>トウロクカノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>リセット</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>フィールド入力エラー文</t>
@@ -1471,32 +1471,32 @@
     <rPh sb="0" eb="3">
       <t>ミキニュウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>エラー文表示</t>
     <rPh sb="3" eb="6">
       <t>ブンヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>パスワード未一致</t>
     <rPh sb="5" eb="8">
       <t>ミイッチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>✕</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>request.setCharacterEncoding("UTF-8");がdoPostに必要か？</t>
     <rPh sb="46" eb="48">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>㊟他は問題なし</t>
@@ -1506,18 +1506,18 @@
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>データベース上にStringで正しく登録されていない</t>
     <rPh sb="6" eb="7">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>答えを登録</t>
@@ -1527,14 +1527,14 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トップ画面（更新後パスでイン可能）</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>送信後、正しく更新する</t>
@@ -1547,7 +1547,7 @@
     <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面更新後、記入リセット</t>
@@ -1560,14 +1560,14 @@
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>動かない</t>
     <rPh sb="0" eb="1">
       <t>ウゴ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン画面</t>
@@ -1580,7 +1580,7 @@
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>最背面表示</t>
@@ -1590,14 +1590,14 @@
     <rPh sb="6" eb="9">
       <t>ミサクセイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>白画面</t>
     <rPh sb="0" eb="3">
       <t>シロガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
@@ -1607,7 +1607,7 @@
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>空欄あり更新</t>
@@ -1617,49 +1617,49 @@
     <rPh sb="4" eb="6">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ロゴのサーブレット未設定</t>
     <rPh sb="9" eb="12">
       <t>ミセッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ロゴの未表示</t>
     <rPh sb="3" eb="6">
       <t>ミヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ロゴ写真無し</t>
     <rPh sb="2" eb="5">
       <t>シャシンナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ロゴのサイズ違い</t>
     <rPh sb="6" eb="7">
       <t>チガ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ボックスの位置ずれ？</t>
     <rPh sb="5" eb="7">
       <t>イチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>新規登録画面遷移</t>
     <rPh sb="0" eb="8">
       <t>シンキトウロクガメンセンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン画面再読み込み</t>
@@ -1672,14 +1672,14 @@
     <rPh sb="9" eb="10">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ミス記入</t>
     <rPh sb="2" eb="4">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1689,32 +1689,32 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1725,13 +1725,21 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1820,7 +1828,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1914,6 +1922,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,14 +2210,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2213,19 +2227,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2240,37 +2254,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2288,7 +2302,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2321,34 +2335,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2357,107 +2371,119 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3841,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -3856,30 +3882,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="82" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2">
@@ -3974,24 +4000,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
+      <c r="A2" s="82"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
@@ -8120,7 +8146,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8539,7 +8565,7 @@
       <c r="A21" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8896,7 +8922,7 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8906,739 +8932,744 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB7D51-676D-4193-ABA5-3E56118CBBC6}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.08203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.9140625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="6" style="58" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="58"/>
+    <col min="1" max="1" width="4.4140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.08203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6" style="57" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.25" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="G2" s="78" t="s">
+      <c r="E2" s="76"/>
+      <c r="G2" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="76" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="70">
+      <c r="A3" s="68">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="G3" s="74" t="s">
+      <c r="E3" s="80"/>
+      <c r="G3" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="70">
+        <v>2</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="G4" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
+        <v>3</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="H5" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="70">
+        <v>4</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="H6" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
+        <v>5</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="80"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="70">
+        <v>6</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="G8" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="68">
+        <v>7</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="H9" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="87" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="72">
-        <v>2</v>
-      </c>
-      <c r="B4" s="74" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="70">
+        <v>8</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="H10" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="68">
+        <v>9</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="H11" s="85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="70">
+        <v>10</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="H12" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="68">
+        <v>11</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="80"/>
+      <c r="H13" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="70">
+        <v>12</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="H14" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="68">
+        <v>13</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="H15" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="70">
+        <v>14</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="D16" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="80"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="68">
+        <v>15</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="H17" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="70">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="G4" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="58" t="s">
+      <c r="E18" s="80"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="68">
+        <v>17</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="H19" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G30" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H31" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H32" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="70">
-        <v>3</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="H5" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="J5" s="58" t="s">
+      <c r="I33" s="57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H34" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" s="86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G39" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="I39" s="86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F42" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="85"/>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G46" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H49" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="G51" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H52" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H53" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="I53" s="57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H54" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="G56" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H57" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H58" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F59" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" s="86" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F61" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="J61" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="K5" s="58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="72">
-        <v>4</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="H6" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="70">
-        <v>5</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="83"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="72">
-        <v>6</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="G8" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="70">
-        <v>7</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="84"/>
-      <c r="H9" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="72">
-        <v>8</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="H10" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="70">
-        <v>9</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="H11" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="72">
-        <v>10</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="H12" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="70">
-        <v>11</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="H13" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="72">
-        <v>12</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="H14" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="70">
-        <v>13</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="H15" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="72">
-        <v>14</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="83"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="70">
-        <v>15</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="72">
-        <v>16</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="83"/>
-      <c r="I18" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="70">
-        <v>17</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="84"/>
-      <c r="H19" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H20" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H21" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G24" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G26" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H27" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G30" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" s="58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H31" s="58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H32" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="I32" s="58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="58" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34" s="60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="I35" s="58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" s="58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="G39" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H40" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" s="58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H41" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H43" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="I43" s="58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H44" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="I44" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="G46" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="I46" s="59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H47" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="I47" s="58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H48" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" s="59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H49" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" s="58" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="G51" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51" s="58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H52" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="I52" s="60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H53" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H54" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="I54" s="58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="G56" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="I56" s="58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H57" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H58" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" s="58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="I59" s="60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H60" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="I60" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="H61" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="J61" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K61" s="58" t="s">
+      <c r="K61" s="57" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19214B12-DFBE-4CD9-A6D8-CF3A743B413F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AE230B-E71D-41BD-83B8-CDFA32974430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,60 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="248">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>内部設計</t>
     <rPh sb="0" eb="4">
       <t>ナイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -98,7 +98,7 @@
     <rPh sb="2" eb="4">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>業務フローの確認</t>
@@ -108,7 +108,7 @@
     <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>要件定義の検討</t>
@@ -118,35 +118,35 @@
     <rPh sb="5" eb="7">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>画面設計</t>
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ペルソナ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>画面の遷移図</t>
@@ -156,22 +156,22 @@
     <rPh sb="3" eb="6">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>データベース設計</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>作成予定ファイルの一覧表</t>
@@ -184,7 +184,7 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ファイルの担当割り振り</t>
@@ -194,175 +194,175 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>猪瀬</t>
     <rPh sb="0" eb="2">
       <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カテゴリー</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="3">
       <t>サギョウメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>dao</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>食事のデータアクセス</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>記録のデータアクセス</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>User情報アクセス</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>FoodDao関連のデータ操作</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>RegisterDao関連のデータ操作</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>UserDao関連のデータ操作</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>servlet</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カレンダー画面用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>品目登録画面用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>食事ログ画面用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロフィール画面用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>秘密の質問画面用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>トップ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>登録画面用</t>
     <rPh sb="2" eb="5">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>全画面共通</t>
@@ -372,18 +372,18 @@
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>品目登録画面画面用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>グラフ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -396,30 +396,30 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秘密の質問用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カレンダー画面用（月移動、月変更）</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>グラフ用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン画面用</t>
@@ -429,19 +429,19 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ハンバーガーメニューバー用</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>秘密の質問用(ポップアップ画面)</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>テキスト・アバター表示</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>トップ画面用(スライド)</t>
@@ -451,7 +451,7 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>登録画面用</t>
@@ -461,11 +461,11 @@
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -475,14 +475,14 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>木</t>
@@ -492,7 +492,7 @@
     <rPh sb="0" eb="1">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>金</t>
@@ -502,14 +502,14 @@
     <rPh sb="0" eb="1">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>土</t>
     <rPh sb="0" eb="1">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>日</t>
@@ -525,14 +525,14 @@
   </si>
   <si>
     <t>土</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>品目登録画面</t>
@@ -542,42 +542,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>登録画面メッセージ</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>進捗度</t>
     <rPh sb="0" eb="3">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>数</t>
     <rPh sb="0" eb="1">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>全体進捗度</t>
@@ -587,28 +587,28 @@
     <rPh sb="2" eb="5">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>土</t>
@@ -618,21 +618,21 @@
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>予定進捗率</t>
     <rPh sb="0" eb="5">
       <t>ヨテイシンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>総工数</t>
     <rPh sb="0" eb="3">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>当日工数</t>
@@ -642,7 +642,7 @@
     <rPh sb="2" eb="4">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>工数積算</t>
@@ -652,7 +652,7 @@
     <rPh sb="2" eb="4">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>工数積算＝（（工数:人日）ｘ（各進捗率））ｘ全部</t>
@@ -674,7 +674,7 @@
     <rPh sb="22" eb="24">
       <t>ゼンブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>当日工数＝当日作業した工数</t>
@@ -687,7 +687,7 @@
     <rPh sb="11" eb="13">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>進捗率＝（工数積算）/（総工数）</t>
@@ -703,7 +703,7 @@
     <rPh sb="12" eb="15">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>予定進捗率＝予定されている進捗率</t>
@@ -716,7 +716,7 @@
     <rPh sb="13" eb="16">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>総工数</t>
@@ -726,90 +726,90 @@
     <rPh sb="1" eb="3">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>テスト</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>積算</t>
     <rPh sb="0" eb="2">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>工数</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>工数積算</t>
     <rPh sb="0" eb="4">
       <t>コウスウセキサン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>進捗率(テストなし）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>進捗率(テストあり）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>移動前</t>
     <rPh sb="0" eb="3">
       <t>イドウマエ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>移動後</t>
     <rPh sb="0" eb="3">
       <t>イドウゴ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>トップページ</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カレンダー</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>秘密の質問</t>
@@ -819,49 +819,49 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>新規確認</t>
     <rPh sb="0" eb="4">
       <t>シンキカクニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>食事記録</t>
     <rPh sb="0" eb="4">
       <t>ショクジキロク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>グラフ表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロフィール設定</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>品目登録</t>
     <rPh sb="0" eb="4">
       <t>ヒンモクトウロク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>個人情報変更</t>
@@ -874,41 +874,41 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="0" eb="6">
       <t>コジンジョウホウヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>後回しにしたことリスト</t>
     <rPh sb="0" eb="2">
       <t>アトマワ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>log.jsp カテゴリー</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>RecordDao</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Recordmodel</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>2月と10月の日付がおかしい</t>
@@ -921,28 +921,28 @@
     <rPh sb="7" eb="9">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>6/1の前が6/28になる</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>秘密の質問ポップアップ</t>
@@ -952,11 +952,11 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カレンダーcss</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>logサーブレット　追加機能</t>
@@ -966,7 +966,7 @@
     <rPh sb="12" eb="14">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>各サーブレットログインIDの確認</t>
@@ -976,49 +976,49 @@
     <rPh sb="14" eb="16">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アバターのテキスト表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アバターとアイコンを作る</t>
     <rPh sb="10" eb="11">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カロリーを表示する</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アバターを表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カレンダーにカロリー表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>サジェスト機能</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>説明文の作成</t>
@@ -1028,21 +1028,21 @@
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロフィール設定テキスト表示のバグ</t>
@@ -1052,21 +1052,21 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロフィール設定cssおかしくなる</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロフィール変更画面遷移のみ？</t>
@@ -1076,11 +1076,11 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>全てのページに移動可能</t>
@@ -1090,18 +1090,18 @@
     <rPh sb="7" eb="11">
       <t>イドウカノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メニューバークリック</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>更新可能</t>
     <rPh sb="0" eb="4">
       <t>コウシンカノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>パスワード確認の記入で別のものを打つ</t>
@@ -1117,18 +1117,18 @@
     <rPh sb="16" eb="17">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>動作なし</t>
     <rPh sb="0" eb="2">
       <t>ドウサ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>クリアボタンクリック</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>入力エラー表示あり</t>
@@ -1138,21 +1138,21 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン画面遷移</t>
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>最背面</t>
@@ -1162,7 +1162,7 @@
     <rPh sb="0" eb="2">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>期限を過去に設定</t>
@@ -1175,25 +1175,25 @@
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロフィール更新</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>サーバエラー</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>int型に数字以外記入</t>
@@ -1206,7 +1206,7 @@
     <rPh sb="9" eb="11">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面サイズが少し大きく、横にスクロールできてしまう</t>
@@ -1219,14 +1219,14 @@
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>サーブレット未設定</t>
   </si>
   <si>
     <t>ロゴクリック</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>コメントがキャラの下側に来る</t>
@@ -1242,11 +1242,11 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>エラーなし</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カテゴリ未選択</t>
@@ -1256,7 +1256,7 @@
     <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>登録エラーなし</t>
@@ -1269,7 +1269,7 @@
     <rPh sb="7" eb="8">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カテゴリ選択プルダウンが表示されない</t>
@@ -1285,7 +1285,7 @@
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>食事ログでも選択可能</t>
@@ -1298,25 +1298,25 @@
     <rPh sb="4" eb="6">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>不可</t>
     <rPh sb="0" eb="2">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カテゴリからの検索</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面がその日に設定</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>別日に登録</t>
@@ -1326,7 +1326,7 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>再度登録時にカテゴリ選択プルダウンが表示されない</t>
@@ -1342,25 +1342,25 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログに表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>一品目登録</t>
     <rPh sb="0" eb="5">
       <t>イッピンメトウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>登録不可（サーバエラー）</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>記入した食品該当なし</t>
@@ -1373,7 +1373,7 @@
     <rPh sb="6" eb="8">
       <t>ガイトウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1383,11 +1383,11 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>表示は変わらない</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>日付変更時</t>
@@ -1397,7 +1397,7 @@
     <rPh sb="2" eb="5">
       <t>ヘンコウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログには登録済みの表示</t>
@@ -1407,7 +1407,7 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>日付は今日に設定</t>
@@ -1417,21 +1417,21 @@
     <rPh sb="9" eb="11">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カレンダーの日付の左端が重なる</t>
   </si>
   <si>
     <t>カロリーだけ最前面に表示される</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メニューバー表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テキスト表示後数秒でカレンダー画面へ</t>
@@ -1444,7 +1444,7 @@
     <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン時パスは日本語不可</t>
@@ -1457,11 +1457,11 @@
     <rPh sb="11" eb="15">
       <t>トウロクカノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>リセット</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>フィールド入力エラー文</t>
@@ -1471,32 +1471,32 @@
     <rPh sb="0" eb="3">
       <t>ミキニュウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>エラー文表示</t>
     <rPh sb="3" eb="6">
       <t>ブンヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>パスワード未一致</t>
     <rPh sb="5" eb="8">
       <t>ミイッチ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>✕</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>request.setCharacterEncoding("UTF-8");がdoPostに必要か？</t>
     <rPh sb="46" eb="48">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>㊟他は問題なし</t>
@@ -1506,18 +1506,18 @@
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データベース上にStringで正しく登録されていない</t>
     <rPh sb="6" eb="7">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>答えを登録</t>
@@ -1527,14 +1527,14 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>トップ画面（更新後パスでイン可能）</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>送信後、正しく更新する</t>
@@ -1547,7 +1547,7 @@
     <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面更新後、記入リセット</t>
@@ -1560,14 +1560,14 @@
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>動かない</t>
     <rPh sb="0" eb="1">
       <t>ウゴ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン画面</t>
@@ -1580,7 +1580,7 @@
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>最背面表示</t>
@@ -1590,14 +1590,14 @@
     <rPh sb="6" eb="9">
       <t>ミサクセイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>白画面</t>
     <rPh sb="0" eb="3">
       <t>シロガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
@@ -1607,7 +1607,7 @@
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>空欄あり更新</t>
@@ -1617,49 +1617,49 @@
     <rPh sb="4" eb="6">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ロゴのサーブレット未設定</t>
     <rPh sb="9" eb="12">
       <t>ミセッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ロゴの未表示</t>
     <rPh sb="3" eb="6">
       <t>ミヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ロゴ写真無し</t>
     <rPh sb="2" eb="5">
       <t>シャシンナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ロゴのサイズ違い</t>
     <rPh sb="6" eb="7">
       <t>チガ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ボックスの位置ずれ？</t>
     <rPh sb="5" eb="7">
       <t>イチ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規登録画面遷移</t>
     <rPh sb="0" eb="8">
       <t>シンキトウロクガメンセンイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン画面再読み込み</t>
@@ -1672,14 +1672,14 @@
     <rPh sb="9" eb="10">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ミス記入</t>
     <rPh sb="2" eb="4">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1689,32 +1689,69 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>赤背景→修正した方が良い箇所。赤文字→優先すべき修正箇所。背景無し→動作確認</t>
+    <rPh sb="0" eb="3">
+      <t>アカハイケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ハイケイナ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1725,13 +1762,21 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1827,8 +1872,15 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1922,12 +1974,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,14 +2256,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2227,19 +2273,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2254,37 +2300,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2302,7 +2348,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2335,34 +2381,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2371,112 +2417,103 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
@@ -2484,6 +2521,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3869,7 +3924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3882,30 +3937,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="87" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2">
@@ -4000,24 +4055,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
@@ -8146,7 +8201,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8565,7 +8620,7 @@
       <c r="A21" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8922,7 +8977,7 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8933,7 +8988,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59:I61"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8955,6 +9010,9 @@
       <c r="A1" s="57" t="s">
         <v>246</v>
       </c>
+      <c r="H1" s="90" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="79" t="s">
@@ -8969,7 +9027,7 @@
       <c r="D2" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="88"/>
       <c r="G2" s="76" t="s">
         <v>245</v>
       </c>
@@ -8997,10 +9055,10 @@
       <c r="G3" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="83" t="s">
         <v>175</v>
       </c>
     </row>
@@ -9021,10 +9079,10 @@
       <c r="G4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="89" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9042,10 +9100,10 @@
         <v>219</v>
       </c>
       <c r="E5" s="80"/>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="83" t="s">
         <v>240</v>
       </c>
       <c r="J5" s="57" t="s">
@@ -9069,10 +9127,10 @@
         <v>219</v>
       </c>
       <c r="E6" s="80"/>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="83" t="s">
         <v>238</v>
       </c>
       <c r="J6" s="57" t="s">
@@ -9114,10 +9172,10 @@
       <c r="G8" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="85" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9135,10 +9193,10 @@
         <v>216</v>
       </c>
       <c r="E9" s="81"/>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="85" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9156,10 +9214,10 @@
         <v>219</v>
       </c>
       <c r="E10" s="80"/>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="83" t="s">
         <v>232</v>
       </c>
       <c r="J10" s="59" t="s">
@@ -9183,7 +9241,7 @@
         <v>219</v>
       </c>
       <c r="E11" s="80"/>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="83" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9201,10 +9259,10 @@
         <v>219</v>
       </c>
       <c r="E12" s="80"/>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="83" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9222,10 +9280,10 @@
         <v>219</v>
       </c>
       <c r="E13" s="80"/>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="83" t="s">
         <v>227</v>
       </c>
       <c r="J13" s="59" t="s">
@@ -9312,10 +9370,10 @@
       <c r="G17" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="I17" s="85" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9333,8 +9391,8 @@
         <v>219</v>
       </c>
       <c r="E18" s="80"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85" t="s">
+      <c r="H18" s="83"/>
+      <c r="I18" s="83" t="s">
         <v>218</v>
       </c>
       <c r="J18" s="57" t="s">
@@ -9354,8 +9412,8 @@
       <c r="C19" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="67" t="s">
-        <v>216</v>
+      <c r="D19" s="91" t="s">
+        <v>219</v>
       </c>
       <c r="E19" s="81"/>
       <c r="H19" s="57" t="s">
@@ -9385,10 +9443,10 @@
       <c r="F22" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="I22" s="87" t="s">
+      <c r="I22" s="85" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9404,18 +9462,18 @@
       <c r="G26" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="85" t="s">
+      <c r="H26" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I26" s="85" t="s">
+      <c r="I26" s="83" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="85" t="s">
+      <c r="I27" s="83" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9452,10 +9510,10 @@
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="I34" s="86" t="s">
+      <c r="I34" s="84" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9468,10 +9526,10 @@
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="I36" s="86" t="s">
+      <c r="I36" s="84" t="s">
         <v>192</v>
       </c>
     </row>
@@ -9487,10 +9545,10 @@
       <c r="G39" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="I39" s="86" t="s">
+      <c r="I39" s="84" t="s">
         <v>188</v>
       </c>
     </row>
@@ -9503,10 +9561,10 @@
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H41" s="87" t="s">
+      <c r="H41" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="I41" s="86" t="s">
+      <c r="I41" s="84" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9514,24 +9572,24 @@
       <c r="F42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="H42" s="88" t="s">
+      <c r="H42" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="I42" s="85"/>
+      <c r="I42" s="83"/>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H43" s="85" t="s">
+      <c r="H43" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="I43" s="85" t="s">
+      <c r="I43" s="83" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H44" s="85" t="s">
+      <c r="H44" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="85" t="s">
+      <c r="I44" s="83" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9539,34 +9597,34 @@
       <c r="G46" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="H46" s="86" t="s">
+      <c r="H46" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="I46" s="87" t="s">
+      <c r="I46" s="85" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H47" s="85" t="s">
+      <c r="H47" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="85" t="s">
+      <c r="I47" s="83" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="I48" s="87" t="s">
+      <c r="I48" s="85" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H49" s="85" t="s">
+      <c r="H49" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="I49" s="85" t="s">
+      <c r="I49" s="83" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9582,10 +9640,10 @@
       </c>
     </row>
     <row r="52" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H52" s="86" t="s">
+      <c r="H52" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="I52" s="86" t="s">
+      <c r="I52" s="84" t="s">
         <v>171</v>
       </c>
     </row>
@@ -9609,10 +9667,10 @@
       <c r="G56" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="85" t="s">
+      <c r="H56" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="I56" s="85" t="s">
+      <c r="I56" s="83" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9636,18 +9694,18 @@
       <c r="F59" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="H59" s="86" t="s">
+      <c r="H59" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="I59" s="86" t="s">
+      <c r="I59" s="84" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="60" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="H60" s="86" t="s">
+      <c r="H60" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="I60" s="87" t="s">
+      <c r="I60" s="85" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9655,10 +9713,10 @@
       <c r="F61" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="86" t="s">
+      <c r="H61" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="I61" s="87" t="s">
+      <c r="I61" s="85" t="s">
         <v>156</v>
       </c>
       <c r="J61" s="57" t="s">
@@ -9669,7 +9727,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AE230B-E71D-41BD-83B8-CDFA32974430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFCA417-50CC-4E71-928A-A4FECEF935F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -35,60 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="248">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>内部設計</t>
     <rPh sb="0" eb="4">
       <t>ナイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -98,7 +98,7 @@
     <rPh sb="2" eb="4">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>業務フローの確認</t>
@@ -108,7 +108,7 @@
     <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>要件定義の検討</t>
@@ -118,35 +118,35 @@
     <rPh sb="5" eb="7">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面設計</t>
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ペルソナ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面の遷移図</t>
@@ -156,22 +156,22 @@
     <rPh sb="3" eb="6">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>データベース設計</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>作成予定ファイルの一覧表</t>
@@ -184,7 +184,7 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ファイルの担当割り振り</t>
@@ -194,175 +194,175 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>猪瀬</t>
     <rPh sb="0" eb="2">
       <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カテゴリー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="3">
       <t>サギョウメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>dao</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>食事のデータアクセス</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>記録のデータアクセス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>User情報アクセス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>FoodDao関連のデータ操作</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>RegisterDao関連のデータ操作</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>UserDao関連のデータ操作</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>servlet</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カレンダー画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>品目登録画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>食事ログ画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロフィール画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>秘密の質問画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>トップ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>登録画面用</t>
     <rPh sb="2" eb="5">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>全画面共通</t>
@@ -372,18 +372,18 @@
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>品目登録画面画面用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>グラフ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -396,30 +396,30 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>秘密の質問用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カレンダー画面用（月移動、月変更）</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>グラフ用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン画面用</t>
@@ -429,19 +429,19 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ハンバーガーメニューバー用</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>秘密の質問用(ポップアップ画面)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テキスト・アバター表示</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>トップ画面用(スライド)</t>
@@ -451,7 +451,7 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>登録画面用</t>
@@ -461,11 +461,11 @@
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -475,14 +475,14 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>木</t>
@@ -492,7 +492,7 @@
     <rPh sb="0" eb="1">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>金</t>
@@ -502,14 +502,14 @@
     <rPh sb="0" eb="1">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>土</t>
     <rPh sb="0" eb="1">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>日</t>
@@ -525,14 +525,14 @@
   </si>
   <si>
     <t>土</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>品目登録画面</t>
@@ -542,42 +542,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>登録画面メッセージ</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>進捗度</t>
     <rPh sb="0" eb="3">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>数</t>
     <rPh sb="0" eb="1">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>全体進捗度</t>
@@ -587,28 +587,28 @@
     <rPh sb="2" eb="5">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>土</t>
@@ -618,21 +618,21 @@
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>予定進捗率</t>
     <rPh sb="0" eb="5">
       <t>ヨテイシンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>総工数</t>
     <rPh sb="0" eb="3">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>当日工数</t>
@@ -642,7 +642,7 @@
     <rPh sb="2" eb="4">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>工数積算</t>
@@ -652,7 +652,7 @@
     <rPh sb="2" eb="4">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>工数積算＝（（工数:人日）ｘ（各進捗率））ｘ全部</t>
@@ -674,7 +674,7 @@
     <rPh sb="22" eb="24">
       <t>ゼンブ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>当日工数＝当日作業した工数</t>
@@ -687,7 +687,7 @@
     <rPh sb="11" eb="13">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>進捗率＝（工数積算）/（総工数）</t>
@@ -703,7 +703,7 @@
     <rPh sb="12" eb="15">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>予定進捗率＝予定されている進捗率</t>
@@ -716,7 +716,7 @@
     <rPh sb="13" eb="16">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>総工数</t>
@@ -726,90 +726,90 @@
     <rPh sb="1" eb="3">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テスト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>積算</t>
     <rPh sb="0" eb="2">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>工数</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>工数積算</t>
     <rPh sb="0" eb="4">
       <t>コウスウセキサン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>進捗率(テストなし）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>進捗率(テストあり）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>移動前</t>
     <rPh sb="0" eb="3">
       <t>イドウマエ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>移動後</t>
     <rPh sb="0" eb="3">
       <t>イドウゴ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>トップページ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カレンダー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>秘密の質問</t>
@@ -819,49 +819,49 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>新規確認</t>
     <rPh sb="0" eb="4">
       <t>シンキカクニン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>食事記録</t>
     <rPh sb="0" eb="4">
       <t>ショクジキロク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>グラフ表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロフィール設定</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>品目登録</t>
     <rPh sb="0" eb="4">
       <t>ヒンモクトウロク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人情報変更</t>
@@ -874,41 +874,41 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="0" eb="6">
       <t>コジンジョウホウヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>後回しにしたことリスト</t>
     <rPh sb="0" eb="2">
       <t>アトマワ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>log.jsp カテゴリー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>RecordDao</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Recordmodel</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2月と10月の日付がおかしい</t>
@@ -921,28 +921,28 @@
     <rPh sb="7" eb="9">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>6/1の前が6/28になる</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>秘密の質問ポップアップ</t>
@@ -952,11 +952,11 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カレンダーcss</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>logサーブレット　追加機能</t>
@@ -966,7 +966,7 @@
     <rPh sb="12" eb="14">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>各サーブレットログインIDの確認</t>
@@ -976,49 +976,49 @@
     <rPh sb="14" eb="16">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アバターのテキスト表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アバターとアイコンを作る</t>
     <rPh sb="10" eb="11">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カロリーを表示する</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アバターを表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カレンダーにカロリー表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>サジェスト機能</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>説明文の作成</t>
@@ -1028,21 +1028,21 @@
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロフィール設定テキスト表示のバグ</t>
@@ -1052,21 +1052,21 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロフィール設定cssおかしくなる</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロフィール変更画面遷移のみ？</t>
@@ -1076,11 +1076,11 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>全てのページに移動可能</t>
@@ -1090,18 +1090,18 @@
     <rPh sb="7" eb="11">
       <t>イドウカノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>メニューバークリック</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>更新可能</t>
     <rPh sb="0" eb="4">
       <t>コウシンカノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>パスワード確認の記入で別のものを打つ</t>
@@ -1117,18 +1117,18 @@
     <rPh sb="16" eb="17">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>動作なし</t>
     <rPh sb="0" eb="2">
       <t>ドウサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>クリアボタンクリック</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>入力エラー表示あり</t>
@@ -1138,21 +1138,21 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン画面遷移</t>
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>メール更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>最背面</t>
@@ -1162,7 +1162,7 @@
     <rPh sb="0" eb="2">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>期限を過去に設定</t>
@@ -1175,25 +1175,25 @@
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロフィール更新</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>サーバエラー</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>int型に数字以外記入</t>
@@ -1206,7 +1206,7 @@
     <rPh sb="9" eb="11">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>画面サイズが少し大きく、横にスクロールできてしまう</t>
@@ -1219,14 +1219,14 @@
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>サーブレット未設定</t>
   </si>
   <si>
     <t>ロゴクリック</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>コメントがキャラの下側に来る</t>
@@ -1242,11 +1242,11 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>エラーなし</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カテゴリ未選択</t>
@@ -1256,7 +1256,7 @@
     <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>登録エラーなし</t>
@@ -1269,7 +1269,7 @@
     <rPh sb="7" eb="8">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カテゴリ選択プルダウンが表示されない</t>
@@ -1285,7 +1285,7 @@
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>食事ログでも選択可能</t>
@@ -1298,25 +1298,25 @@
     <rPh sb="4" eb="6">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>不可</t>
     <rPh sb="0" eb="2">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カテゴリからの検索</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>画面がその日に設定</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>別日に登録</t>
@@ -1326,7 +1326,7 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>再度登録時にカテゴリ選択プルダウンが表示されない</t>
@@ -1342,25 +1342,25 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログに表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>一品目登録</t>
     <rPh sb="0" eb="5">
       <t>イッピンメトウロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>登録不可（サーバエラー）</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>記入した食品該当なし</t>
@@ -1373,7 +1373,7 @@
     <rPh sb="6" eb="8">
       <t>ガイトウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1383,11 +1383,11 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表示は変わらない</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>日付変更時</t>
@@ -1397,7 +1397,7 @@
     <rPh sb="2" eb="5">
       <t>ヘンコウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログには登録済みの表示</t>
@@ -1407,7 +1407,7 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>日付は今日に設定</t>
@@ -1417,21 +1417,21 @@
     <rPh sb="9" eb="11">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カレンダーの日付の左端が重なる</t>
   </si>
   <si>
     <t>カロリーだけ最前面に表示される</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>メニューバー表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テキスト表示後数秒でカレンダー画面へ</t>
@@ -1444,7 +1444,7 @@
     <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン時パスは日本語不可</t>
@@ -1457,11 +1457,11 @@
     <rPh sb="11" eb="15">
       <t>トウロクカノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>リセット</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>フィールド入力エラー文</t>
@@ -1471,32 +1471,32 @@
     <rPh sb="0" eb="3">
       <t>ミキニュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>エラー文表示</t>
     <rPh sb="3" eb="6">
       <t>ブンヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>パスワード未一致</t>
     <rPh sb="5" eb="8">
       <t>ミイッチ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>✕</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>request.setCharacterEncoding("UTF-8");がdoPostに必要か？</t>
     <rPh sb="46" eb="48">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>㊟他は問題なし</t>
@@ -1506,18 +1506,18 @@
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>データベース上にStringで正しく登録されていない</t>
     <rPh sb="6" eb="7">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>答えを登録</t>
@@ -1527,14 +1527,14 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>トップ画面（更新後パスでイン可能）</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>送信後、正しく更新する</t>
@@ -1547,7 +1547,7 @@
     <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>画面更新後、記入リセット</t>
@@ -1560,14 +1560,14 @@
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>動かない</t>
     <rPh sb="0" eb="1">
       <t>ウゴ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン画面</t>
@@ -1580,7 +1580,7 @@
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>最背面表示</t>
@@ -1590,14 +1590,14 @@
     <rPh sb="6" eb="9">
       <t>ミサクセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>白画面</t>
     <rPh sb="0" eb="3">
       <t>シロガメン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
@@ -1607,7 +1607,7 @@
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>空欄あり更新</t>
@@ -1617,49 +1617,49 @@
     <rPh sb="4" eb="6">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ロゴのサーブレット未設定</t>
     <rPh sb="9" eb="12">
       <t>ミセッテイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ロゴの未表示</t>
     <rPh sb="3" eb="6">
       <t>ミヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ロゴ写真無し</t>
     <rPh sb="2" eb="5">
       <t>シャシンナ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ロゴのサイズ違い</t>
     <rPh sb="6" eb="7">
       <t>チガ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ボックスの位置ずれ？</t>
     <rPh sb="5" eb="7">
       <t>イチ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>新規登録画面遷移</t>
     <rPh sb="0" eb="8">
       <t>シンキトウロクガメンセンイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン画面再読み込み</t>
@@ -1672,14 +1672,14 @@
     <rPh sb="9" eb="10">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ミス記入</t>
     <rPh sb="2" eb="4">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1689,32 +1689,32 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>赤背景→修正した方が良い箇所。赤文字→優先すべき修正箇所。背景無し→動作確認</t>
@@ -1751,7 +1751,7 @@
     <rPh sb="34" eb="38">
       <t>ドウサカクニン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1762,13 +1762,21 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2256,10 +2264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2273,19 +2281,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2300,37 +2308,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2348,7 +2356,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2381,34 +2389,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2417,106 +2425,103 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
@@ -2525,20 +2530,23 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3922,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
@@ -3937,30 +3945,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="90" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2">
@@ -4055,24 +4063,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
@@ -8201,7 +8209,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8620,7 +8628,7 @@
       <c r="A21" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8977,7 +8985,7 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8987,9 +8995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB7D51-676D-4193-ABA5-3E56118CBBC6}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9010,7 +9016,7 @@
       <c r="A1" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="88" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9027,7 +9033,7 @@
       <c r="D2" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="87"/>
       <c r="G2" s="76" t="s">
         <v>245</v>
       </c>
@@ -9079,10 +9085,10 @@
       <c r="G4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="57" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9259,6 +9265,9 @@
         <v>219</v>
       </c>
       <c r="E12" s="80"/>
+      <c r="F12" s="91" t="s">
+        <v>129</v>
+      </c>
       <c r="H12" s="83" t="s">
         <v>157</v>
       </c>
@@ -9412,7 +9421,7 @@
       <c r="C19" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="89" t="s">
         <v>219</v>
       </c>
       <c r="E19" s="81"/>
@@ -9664,6 +9673,9 @@
       </c>
     </row>
     <row r="56" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F56" s="91" t="s">
+        <v>129</v>
+      </c>
       <c r="G56" s="60" t="s">
         <v>127</v>
       </c>
@@ -9727,7 +9739,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFCA417-50CC-4E71-928A-A4FECEF935F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65523F6D-90DA-4686-8242-F3D6284FFD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -35,60 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="248">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>内部設計</t>
     <rPh sb="0" eb="4">
       <t>ナイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -98,7 +98,7 @@
     <rPh sb="2" eb="4">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>業務フローの確認</t>
@@ -108,7 +108,7 @@
     <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>要件定義の検討</t>
@@ -118,35 +118,35 @@
     <rPh sb="5" eb="7">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面設計</t>
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ペルソナ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面の遷移図</t>
@@ -156,22 +156,22 @@
     <rPh sb="3" eb="6">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>データベース設計</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>作成予定ファイルの一覧表</t>
@@ -184,7 +184,7 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ファイルの担当割り振り</t>
@@ -194,175 +194,175 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>猪瀬</t>
     <rPh sb="0" eb="2">
       <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カテゴリー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="3">
       <t>サギョウメイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>dao</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>食事のデータアクセス</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>記録のデータアクセス</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>User情報アクセス</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>FoodDao関連のデータ操作</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>RegisterDao関連のデータ操作</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>UserDao関連のデータ操作</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>servlet</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダー画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>品目登録画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>食事ログ画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プロフィール画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秘密の質問画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トップ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>登録画面用</t>
     <rPh sb="2" eb="5">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>全画面共通</t>
@@ -372,18 +372,18 @@
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>品目登録画面画面用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>グラフ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -396,30 +396,30 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログイン画面用</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>秘密の質問用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダー画面用（月移動、月変更）</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>グラフ用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログイン画面用</t>
@@ -429,19 +429,19 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ハンバーガーメニューバー用</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秘密の質問用(ポップアップ画面)</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テキスト・アバター表示</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トップ画面用(スライド)</t>
@@ -451,7 +451,7 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>登録画面用</t>
@@ -461,11 +461,11 @@
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -475,14 +475,14 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>木</t>
@@ -492,7 +492,7 @@
     <rPh sb="0" eb="1">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>金</t>
@@ -502,14 +502,14 @@
     <rPh sb="0" eb="1">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>土</t>
     <rPh sb="0" eb="1">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日</t>
@@ -525,14 +525,14 @@
   </si>
   <si>
     <t>土</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>品目登録画面</t>
@@ -542,42 +542,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>登録画面メッセージ</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>進捗度</t>
     <rPh sb="0" eb="3">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>数</t>
     <rPh sb="0" eb="1">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>全体進捗度</t>
@@ -587,28 +587,28 @@
     <rPh sb="2" eb="5">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>土</t>
@@ -618,21 +618,21 @@
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>予定進捗率</t>
     <rPh sb="0" eb="5">
       <t>ヨテイシンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>総工数</t>
     <rPh sb="0" eb="3">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>当日工数</t>
@@ -642,7 +642,7 @@
     <rPh sb="2" eb="4">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>工数積算</t>
@@ -652,7 +652,7 @@
     <rPh sb="2" eb="4">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>工数積算＝（（工数:人日）ｘ（各進捗率））ｘ全部</t>
@@ -674,7 +674,7 @@
     <rPh sb="22" eb="24">
       <t>ゼンブ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>当日工数＝当日作業した工数</t>
@@ -687,7 +687,7 @@
     <rPh sb="11" eb="13">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>進捗率＝（工数積算）/（総工数）</t>
@@ -703,7 +703,7 @@
     <rPh sb="12" eb="15">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>予定進捗率＝予定されている進捗率</t>
@@ -716,7 +716,7 @@
     <rPh sb="13" eb="16">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>総工数</t>
@@ -726,90 +726,90 @@
     <rPh sb="1" eb="3">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスト</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>積算</t>
     <rPh sb="0" eb="2">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>工数</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>工数積算</t>
     <rPh sb="0" eb="4">
       <t>コウスウセキサン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>進捗率(テストなし）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>進捗率(テストあり）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>移動前</t>
     <rPh sb="0" eb="3">
       <t>イドウマエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>移動後</t>
     <rPh sb="0" eb="3">
       <t>イドウゴ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トップページ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秘密の質問</t>
@@ -819,49 +819,49 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>新規確認</t>
     <rPh sb="0" eb="4">
       <t>シンキカクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>食事記録</t>
     <rPh sb="0" eb="4">
       <t>ショクジキロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>グラフ表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール設定</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>品目登録</t>
     <rPh sb="0" eb="4">
       <t>ヒンモクトウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>個人情報変更</t>
@@ -874,41 +874,41 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="0" eb="6">
       <t>コジンジョウホウヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>後回しにしたことリスト</t>
     <rPh sb="0" eb="2">
       <t>アトマワ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>log.jsp カテゴリー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>RecordDao</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Recordmodel</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>2月と10月の日付がおかしい</t>
@@ -921,28 +921,28 @@
     <rPh sb="7" eb="9">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>6/1の前が6/28になる</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秘密の質問ポップアップ</t>
@@ -952,11 +952,11 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダーcss</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>logサーブレット　追加機能</t>
@@ -966,7 +966,7 @@
     <rPh sb="12" eb="14">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>各サーブレットログインIDの確認</t>
@@ -976,49 +976,49 @@
     <rPh sb="14" eb="16">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アバターのテキスト表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アバターとアイコンを作る</t>
     <rPh sb="10" eb="11">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カロリーを表示する</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アバターを表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダーにカロリー表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>サジェスト機能</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>説明文の作成</t>
@@ -1028,21 +1028,21 @@
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール設定テキスト表示のバグ</t>
@@ -1052,21 +1052,21 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール設定cssおかしくなる</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール変更画面遷移のみ？</t>
@@ -1076,11 +1076,11 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>全てのページに移動可能</t>
@@ -1090,18 +1090,18 @@
     <rPh sb="7" eb="11">
       <t>イドウカノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>メニューバークリック</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>更新可能</t>
     <rPh sb="0" eb="4">
       <t>コウシンカノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>パスワード確認の記入で別のものを打つ</t>
@@ -1117,18 +1117,18 @@
     <rPh sb="16" eb="17">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>動作なし</t>
     <rPh sb="0" eb="2">
       <t>ドウサ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>クリアボタンクリック</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>入力エラー表示あり</t>
@@ -1138,21 +1138,21 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログイン画面遷移</t>
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>メール更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>最背面</t>
@@ -1162,7 +1162,7 @@
     <rPh sb="0" eb="2">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>期限を過去に設定</t>
@@ -1175,25 +1175,25 @@
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プロフィール更新</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>サーバエラー</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>int型に数字以外記入</t>
@@ -1206,7 +1206,7 @@
     <rPh sb="9" eb="11">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面サイズが少し大きく、横にスクロールできてしまう</t>
@@ -1219,14 +1219,14 @@
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>サーブレット未設定</t>
   </si>
   <si>
     <t>ロゴクリック</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>コメントがキャラの下側に来る</t>
@@ -1242,11 +1242,11 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>エラーなし</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>カテゴリ未選択</t>
@@ -1256,7 +1256,7 @@
     <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>登録エラーなし</t>
@@ -1269,7 +1269,7 @@
     <rPh sb="7" eb="8">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>カテゴリ選択プルダウンが表示されない</t>
@@ -1285,7 +1285,7 @@
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>食事ログでも選択可能</t>
@@ -1298,25 +1298,25 @@
     <rPh sb="4" eb="6">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>不可</t>
     <rPh sb="0" eb="2">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>カテゴリからの検索</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面がその日に設定</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>別日に登録</t>
@@ -1326,7 +1326,7 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>再度登録時にカテゴリ選択プルダウンが表示されない</t>
@@ -1342,25 +1342,25 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログに表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>一品目登録</t>
     <rPh sb="0" eb="5">
       <t>イッピンメトウロク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>登録不可（サーバエラー）</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>記入した食品該当なし</t>
@@ -1373,7 +1373,7 @@
     <rPh sb="6" eb="8">
       <t>ガイトウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1383,11 +1383,11 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>表示は変わらない</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付変更時</t>
@@ -1397,7 +1397,7 @@
     <rPh sb="2" eb="5">
       <t>ヘンコウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログには登録済みの表示</t>
@@ -1407,7 +1407,7 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付は今日に設定</t>
@@ -1417,21 +1417,21 @@
     <rPh sb="9" eb="11">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>カレンダーの日付の左端が重なる</t>
   </si>
   <si>
     <t>カロリーだけ最前面に表示される</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>メニューバー表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>テキスト表示後数秒でカレンダー画面へ</t>
@@ -1444,7 +1444,7 @@
     <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログイン時パスは日本語不可</t>
@@ -1457,11 +1457,11 @@
     <rPh sb="11" eb="15">
       <t>トウロクカノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>リセット</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>フィールド入力エラー文</t>
@@ -1471,32 +1471,32 @@
     <rPh sb="0" eb="3">
       <t>ミキニュウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>エラー文表示</t>
     <rPh sb="3" eb="6">
       <t>ブンヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>パスワード未一致</t>
     <rPh sb="5" eb="8">
       <t>ミイッチ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>✕</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>request.setCharacterEncoding("UTF-8");がdoPostに必要か？</t>
     <rPh sb="46" eb="48">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>㊟他は問題なし</t>
@@ -1506,18 +1506,18 @@
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>データベース上にStringで正しく登録されていない</t>
     <rPh sb="6" eb="7">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>答えを登録</t>
@@ -1527,14 +1527,14 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>トップ画面（更新後パスでイン可能）</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>送信後、正しく更新する</t>
@@ -1547,7 +1547,7 @@
     <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面更新後、記入リセット</t>
@@ -1560,14 +1560,14 @@
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>動かない</t>
     <rPh sb="0" eb="1">
       <t>ウゴ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログイン画面</t>
@@ -1580,7 +1580,7 @@
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>最背面表示</t>
@@ -1590,14 +1590,14 @@
     <rPh sb="6" eb="9">
       <t>ミサクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>白画面</t>
     <rPh sb="0" eb="3">
       <t>シロガメン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
@@ -1607,7 +1607,7 @@
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>空欄あり更新</t>
@@ -1617,49 +1617,49 @@
     <rPh sb="4" eb="6">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ロゴのサーブレット未設定</t>
     <rPh sb="9" eb="12">
       <t>ミセッテイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ロゴの未表示</t>
     <rPh sb="3" eb="6">
       <t>ミヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ロゴ写真無し</t>
     <rPh sb="2" eb="5">
       <t>シャシンナ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ロゴのサイズ違い</t>
     <rPh sb="6" eb="7">
       <t>チガ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ボックスの位置ずれ？</t>
     <rPh sb="5" eb="7">
       <t>イチ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>新規登録画面遷移</t>
     <rPh sb="0" eb="8">
       <t>シンキトウロクガメンセンイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログイン画面再読み込み</t>
@@ -1672,14 +1672,14 @@
     <rPh sb="9" eb="10">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ミス記入</t>
     <rPh sb="2" eb="4">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1689,32 +1689,32 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>赤背景→修正した方が良い箇所。赤文字→優先すべき修正箇所。背景無し→動作確認</t>
@@ -1751,7 +1751,7 @@
     <rPh sb="34" eb="38">
       <t>ドウサカクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1762,13 +1762,21 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2264,14 +2272,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2281,19 +2289,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2308,37 +2316,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2356,7 +2364,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2389,34 +2397,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2425,106 +2433,103 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
@@ -2533,20 +2538,32 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3930,7 +3947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5EA1D7-B839-4E60-8484-CA2A2D565D0C}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
@@ -8209,7 +8226,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8219,9 +8236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BAFAD-F373-4C35-8EBE-F5CD64F8EC93}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8628,7 +8643,7 @@
       <c r="A21" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8639,9 +8654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C59B3-9C70-4AA0-B161-F8EB7C8401B8}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8985,7 +8998,7 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8995,7 +9008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB7D51-676D-4193-ABA5-3E56118CBBC6}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9003,7 +9016,7 @@
     <col min="2" max="3" width="16.08203125" style="57" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" style="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.9140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6" style="80" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" style="57" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="67.25" style="57" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.6640625" style="57" bestFit="1" customWidth="1"/>
@@ -9058,6 +9071,9 @@
         <v>219</v>
       </c>
       <c r="E3" s="80"/>
+      <c r="F3" s="93" t="s">
+        <v>129</v>
+      </c>
       <c r="G3" s="72" t="s">
         <v>115</v>
       </c>
@@ -9106,6 +9122,7 @@
         <v>219</v>
       </c>
       <c r="E5" s="80"/>
+      <c r="F5" s="91"/>
       <c r="H5" s="83" t="s">
         <v>241</v>
       </c>
@@ -9133,6 +9150,7 @@
         <v>219</v>
       </c>
       <c r="E6" s="80"/>
+      <c r="F6" s="91"/>
       <c r="H6" s="83" t="s">
         <v>239</v>
       </c>
@@ -9175,6 +9193,7 @@
         <v>219</v>
       </c>
       <c r="E8" s="80"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="73" t="s">
         <v>119</v>
       </c>
@@ -9199,6 +9218,7 @@
         <v>216</v>
       </c>
       <c r="E9" s="81"/>
+      <c r="F9" s="91"/>
       <c r="H9" s="84" t="s">
         <v>176</v>
       </c>
@@ -9220,6 +9240,7 @@
         <v>219</v>
       </c>
       <c r="E10" s="80"/>
+      <c r="F10" s="91"/>
       <c r="H10" s="83" t="s">
         <v>233</v>
       </c>
@@ -9247,6 +9268,7 @@
         <v>219</v>
       </c>
       <c r="E11" s="80"/>
+      <c r="F11" s="91"/>
       <c r="H11" s="83" t="s">
         <v>230</v>
       </c>
@@ -9265,7 +9287,7 @@
         <v>219</v>
       </c>
       <c r="E12" s="80"/>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="94" t="s">
         <v>129</v>
       </c>
       <c r="H12" s="83" t="s">
@@ -9289,6 +9311,7 @@
         <v>219</v>
       </c>
       <c r="E13" s="80"/>
+      <c r="F13" s="91"/>
       <c r="H13" s="83" t="s">
         <v>228</v>
       </c>
@@ -9373,7 +9396,7 @@
         <v>219</v>
       </c>
       <c r="E17" s="80"/>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="92" t="s">
         <v>129</v>
       </c>
       <c r="G17" s="71" t="s">
@@ -9400,6 +9423,7 @@
         <v>219</v>
       </c>
       <c r="E18" s="80"/>
+      <c r="F18" s="92"/>
       <c r="H18" s="83"/>
       <c r="I18" s="83" t="s">
         <v>218</v>
@@ -9449,7 +9473,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="91" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="84" t="s">
@@ -9468,6 +9492,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="91"/>
       <c r="G26" s="65" t="s">
         <v>118</v>
       </c>
@@ -9479,6 +9504,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="91"/>
       <c r="H27" s="83" t="s">
         <v>174</v>
       </c>
@@ -9519,6 +9545,7 @@
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F34" s="91"/>
       <c r="H34" s="84" t="s">
         <v>197</v>
       </c>
@@ -9535,6 +9562,7 @@
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F36" s="91"/>
       <c r="H36" s="84" t="s">
         <v>193</v>
       </c>
@@ -9551,6 +9579,9 @@
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F39" s="93" t="s">
+        <v>129</v>
+      </c>
       <c r="G39" s="63" t="s">
         <v>125</v>
       </c>
@@ -9570,6 +9601,9 @@
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F41" s="93" t="s">
+        <v>129</v>
+      </c>
       <c r="H41" s="85" t="s">
         <v>185</v>
       </c>
@@ -9578,7 +9612,7 @@
       </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="91" t="s">
         <v>129</v>
       </c>
       <c r="H42" s="86" t="s">
@@ -9587,6 +9621,7 @@
       <c r="I42" s="83"/>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F43" s="91"/>
       <c r="H43" s="83" t="s">
         <v>163</v>
       </c>
@@ -9595,6 +9630,7 @@
       </c>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F44" s="91"/>
       <c r="H44" s="83" t="s">
         <v>181</v>
       </c>
@@ -9603,6 +9639,7 @@
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F46" s="91"/>
       <c r="G46" s="62" t="s">
         <v>123</v>
       </c>
@@ -9614,6 +9651,7 @@
       </c>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F47" s="91"/>
       <c r="H47" s="83" t="s">
         <v>174</v>
       </c>
@@ -9622,6 +9660,7 @@
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F48" s="91"/>
       <c r="H48" s="84" t="s">
         <v>176</v>
       </c>
@@ -9630,6 +9669,7 @@
       </c>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F49" s="91"/>
       <c r="H49" s="83" t="s">
         <v>174</v>
       </c>
@@ -9649,6 +9689,7 @@
       </c>
     </row>
     <row r="52" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F52" s="91"/>
       <c r="H52" s="84" t="s">
         <v>172</v>
       </c>
@@ -9673,7 +9714,7 @@
       </c>
     </row>
     <row r="56" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F56" s="91" t="s">
+      <c r="F56" s="94" t="s">
         <v>129</v>
       </c>
       <c r="G56" s="60" t="s">
@@ -9703,7 +9744,7 @@
       </c>
     </row>
     <row r="59" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="91" t="s">
         <v>129</v>
       </c>
       <c r="H59" s="84" t="s">
@@ -9714,6 +9755,7 @@
       </c>
     </row>
     <row r="60" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F60" s="91"/>
       <c r="H60" s="84" t="s">
         <v>159</v>
       </c>
@@ -9722,7 +9764,7 @@
       </c>
     </row>
     <row r="61" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="91" t="s">
         <v>129</v>
       </c>
       <c r="H61" s="84" t="s">
@@ -9739,7 +9781,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <mergeCells count="1">
+    <mergeCell ref="F17:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65523F6D-90DA-4686-8242-F3D6284FFD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1049C2-8272-4B5E-BAE2-BB44D72D781C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,60 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="248">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>内部設計</t>
     <rPh sb="0" eb="4">
       <t>ナイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -98,7 +98,7 @@
     <rPh sb="2" eb="4">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>業務フローの確認</t>
@@ -108,7 +108,7 @@
     <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>要件定義の検討</t>
@@ -118,35 +118,35 @@
     <rPh sb="5" eb="7">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面設計</t>
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ペルソナ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面の遷移図</t>
@@ -156,22 +156,22 @@
     <rPh sb="3" eb="6">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データベース設計</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>作成予定ファイルの一覧表</t>
@@ -184,7 +184,7 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ファイルの担当割り振り</t>
@@ -194,175 +194,175 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>猪瀬</t>
     <rPh sb="0" eb="2">
       <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カテゴリー</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="3">
       <t>サギョウメイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>dao</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>食事のデータアクセス</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>記録のデータアクセス</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>User情報アクセス</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>FoodDao関連のデータ操作</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>RegisterDao関連のデータ操作</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>UserDao関連のデータ操作</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>servlet</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カレンダー画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>品目登録画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>食事ログ画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロフィール画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秘密の質問画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>トップ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>登録画面用</t>
     <rPh sb="2" eb="5">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>全画面共通</t>
@@ -372,18 +372,18 @@
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>品目登録画面画面用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>グラフ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -396,30 +396,30 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン画面用</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>秘密の質問用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カレンダー画面用（月移動、月変更）</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>グラフ用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン画面用</t>
@@ -429,19 +429,19 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ハンバーガーメニューバー用</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秘密の質問用(ポップアップ画面)</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テキスト・アバター表示</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>トップ画面用(スライド)</t>
@@ -451,7 +451,7 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>登録画面用</t>
@@ -461,11 +461,11 @@
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
@@ -475,14 +475,14 @@
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>木</t>
@@ -492,7 +492,7 @@
     <rPh sb="0" eb="1">
       <t>モク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>金</t>
@@ -502,14 +502,14 @@
     <rPh sb="0" eb="1">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>土</t>
     <rPh sb="0" eb="1">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>日</t>
@@ -525,14 +525,14 @@
   </si>
   <si>
     <t>土</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>品目登録画面</t>
@@ -542,42 +542,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>登録画面メッセージ</t>
     <rPh sb="0" eb="4">
       <t>トウロクガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗度</t>
     <rPh sb="0" eb="3">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>数</t>
     <rPh sb="0" eb="1">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>全体進捗度</t>
@@ -587,28 +587,28 @@
     <rPh sb="2" eb="5">
       <t>シンチョクド</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>火</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>土</t>
@@ -618,21 +618,21 @@
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>予定進捗率</t>
     <rPh sb="0" eb="5">
       <t>ヨテイシンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>総工数</t>
     <rPh sb="0" eb="3">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>当日工数</t>
@@ -642,7 +642,7 @@
     <rPh sb="2" eb="4">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>工数積算</t>
@@ -652,7 +652,7 @@
     <rPh sb="2" eb="4">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>工数積算＝（（工数:人日）ｘ（各進捗率））ｘ全部</t>
@@ -674,7 +674,7 @@
     <rPh sb="22" eb="24">
       <t>ゼンブ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>当日工数＝当日作業した工数</t>
@@ -687,7 +687,7 @@
     <rPh sb="11" eb="13">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗率＝（工数積算）/（総工数）</t>
@@ -703,7 +703,7 @@
     <rPh sb="12" eb="15">
       <t>ソウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>予定進捗率＝予定されている進捗率</t>
@@ -716,7 +716,7 @@
     <rPh sb="13" eb="16">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>総工数</t>
@@ -726,90 +726,90 @@
     <rPh sb="1" eb="3">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>積算</t>
     <rPh sb="0" eb="2">
       <t>セキサン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>工数</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>工数積算</t>
     <rPh sb="0" eb="4">
       <t>コウスウセキサン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗率(テストなし）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗率(テストあり）</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>移動前</t>
     <rPh sb="0" eb="3">
       <t>イドウマエ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>移動後</t>
     <rPh sb="0" eb="3">
       <t>イドウゴ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>トップページ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カレンダー</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秘密の質問</t>
@@ -819,49 +819,49 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規確認</t>
     <rPh sb="0" eb="4">
       <t>シンキカクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>食事記録</t>
     <rPh sb="0" eb="4">
       <t>ショクジキロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>グラフ表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロフィール設定</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>品目登録</t>
     <rPh sb="0" eb="4">
       <t>ヒンモクトウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>個人情報変更</t>
@@ -874,41 +874,41 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>個人情報変更</t>
     <rPh sb="0" eb="6">
       <t>コジンジョウホウヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>後回しにしたことリスト</t>
     <rPh sb="0" eb="2">
       <t>アトマワ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>log.jsp カテゴリー</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>RecordDao</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Recordmodel</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2月と10月の日付がおかしい</t>
@@ -921,28 +921,28 @@
     <rPh sb="7" eb="9">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>6/1の前が6/28になる</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>秘密の質問ポップアップ</t>
@@ -952,11 +952,11 @@
     <rPh sb="3" eb="5">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カレンダーcss</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>logサーブレット　追加機能</t>
@@ -966,7 +966,7 @@
     <rPh sb="12" eb="14">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>各サーブレットログインIDの確認</t>
@@ -976,49 +976,49 @@
     <rPh sb="14" eb="16">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アバターのテキスト表示</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アバターとアイコンを作る</t>
     <rPh sb="10" eb="11">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カロリーを表示する</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アバターを表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カレンダーにカロリー表示</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>サジェスト機能</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>説明文の作成</t>
@@ -1028,21 +1028,21 @@
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロフィール設定テキスト表示のバグ</t>
@@ -1052,21 +1052,21 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロフィール設定cssおかしくなる</t>
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロフィール変更画面遷移のみ？</t>
@@ -1076,11 +1076,11 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>全てのページに移動可能</t>
@@ -1090,18 +1090,18 @@
     <rPh sb="7" eb="11">
       <t>イドウカノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>メニューバークリック</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>更新可能</t>
     <rPh sb="0" eb="4">
       <t>コウシンカノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>パスワード確認の記入で別のものを打つ</t>
@@ -1117,18 +1117,18 @@
     <rPh sb="16" eb="17">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>動作なし</t>
     <rPh sb="0" eb="2">
       <t>ドウサ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>クリアボタンクリック</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>入力エラー表示あり</t>
@@ -1138,21 +1138,21 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン画面遷移</t>
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>メール更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>最背面</t>
@@ -1162,7 +1162,7 @@
     <rPh sb="0" eb="2">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>期限を過去に設定</t>
@@ -1175,25 +1175,25 @@
     <rPh sb="6" eb="8">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロフィール更新</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サーバエラー</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>int型に数字以外記入</t>
@@ -1206,7 +1206,7 @@
     <rPh sb="9" eb="11">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面サイズが少し大きく、横にスクロールできてしまう</t>
@@ -1219,14 +1219,14 @@
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サーブレット未設定</t>
   </si>
   <si>
     <t>ロゴクリック</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コメントがキャラの下側に来る</t>
@@ -1242,11 +1242,11 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>エラーなし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>カテゴリ未選択</t>
@@ -1256,7 +1256,7 @@
     <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>登録エラーなし</t>
@@ -1269,7 +1269,7 @@
     <rPh sb="7" eb="8">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>カテゴリ選択プルダウンが表示されない</t>
@@ -1285,7 +1285,7 @@
     <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>食事ログでも選択可能</t>
@@ -1298,25 +1298,25 @@
     <rPh sb="4" eb="6">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>不可</t>
     <rPh sb="0" eb="2">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>カテゴリからの検索</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面がその日に設定</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>別日に登録</t>
@@ -1326,7 +1326,7 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>再度登録時にカテゴリ選択プルダウンが表示されない</t>
@@ -1342,25 +1342,25 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログに表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>一品目登録</t>
     <rPh sb="0" eb="5">
       <t>イッピンメトウロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>登録不可（サーバエラー）</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>記入した食品該当なし</t>
@@ -1373,7 +1373,7 @@
     <rPh sb="6" eb="8">
       <t>ガイトウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1383,11 +1383,11 @@
     <rPh sb="0" eb="2">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>表示は変わらない</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>日付変更時</t>
@@ -1397,7 +1397,7 @@
     <rPh sb="2" eb="5">
       <t>ヘンコウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログには登録済みの表示</t>
@@ -1407,7 +1407,7 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>日付は今日に設定</t>
@@ -1417,21 +1417,21 @@
     <rPh sb="9" eb="11">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>カレンダーの日付の左端が重なる</t>
   </si>
   <si>
     <t>カロリーだけ最前面に表示される</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>メニューバー表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テキスト表示後数秒でカレンダー画面へ</t>
@@ -1444,7 +1444,7 @@
     <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン時パスは日本語不可</t>
@@ -1457,11 +1457,11 @@
     <rPh sb="11" eb="15">
       <t>トウロクカノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リセット</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>フィールド入力エラー文</t>
@@ -1471,32 +1471,32 @@
     <rPh sb="0" eb="3">
       <t>ミキニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>エラー文表示</t>
     <rPh sb="3" eb="6">
       <t>ブンヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>パスワード未一致</t>
     <rPh sb="5" eb="8">
       <t>ミイッチ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>✕</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>request.setCharacterEncoding("UTF-8");がdoPostに必要か？</t>
     <rPh sb="46" eb="48">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>㊟他は問題なし</t>
@@ -1506,18 +1506,18 @@
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>データベース上にStringで正しく登録されていない</t>
     <rPh sb="6" eb="7">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>答えを登録</t>
@@ -1527,14 +1527,14 @@
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>トップ画面（更新後パスでイン可能）</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>送信後、正しく更新する</t>
@@ -1547,7 +1547,7 @@
     <rPh sb="7" eb="9">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面更新後、記入リセット</t>
@@ -1560,14 +1560,14 @@
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>動かない</t>
     <rPh sb="0" eb="1">
       <t>ウゴ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン画面</t>
@@ -1580,7 +1580,7 @@
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>最背面表示</t>
@@ -1590,14 +1590,14 @@
     <rPh sb="6" eb="9">
       <t>ミサクセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>白画面</t>
     <rPh sb="0" eb="3">
       <t>シロガメン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>トップ画面遷移</t>
@@ -1607,7 +1607,7 @@
     <rPh sb="5" eb="7">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>空欄あり更新</t>
@@ -1617,49 +1617,49 @@
     <rPh sb="4" eb="6">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ロゴのサーブレット未設定</t>
     <rPh sb="9" eb="12">
       <t>ミセッテイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ロゴの未表示</t>
     <rPh sb="3" eb="6">
       <t>ミヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ロゴ写真無し</t>
     <rPh sb="2" eb="5">
       <t>シャシンナ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ロゴのサイズ違い</t>
     <rPh sb="6" eb="7">
       <t>チガ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ボックスの位置ずれ？</t>
     <rPh sb="5" eb="7">
       <t>イチ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規登録画面遷移</t>
     <rPh sb="0" eb="8">
       <t>シンキトウロクガメンセンイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログイン画面再読み込み</t>
@@ -1672,14 +1672,14 @@
     <rPh sb="9" eb="10">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ミス記入</t>
     <rPh sb="2" eb="4">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>エラー文表示</t>
@@ -1689,32 +1689,32 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>赤背景→修正した方が良い箇所。赤文字→優先すべき修正箇所。背景無し→動作確認</t>
@@ -1751,7 +1751,7 @@
     <rPh sb="34" eb="38">
       <t>ドウサカクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1762,13 +1762,21 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2272,14 +2280,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2289,19 +2297,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,37 +2324,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2364,7 +2372,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2397,34 +2405,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2433,106 +2441,103 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
@@ -2541,28 +2546,34 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3962,30 +3973,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="G1" s="93"/>
+      <c r="H1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="93" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2">
@@ -4080,24 +4091,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
       <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
@@ -8226,7 +8237,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8643,7 +8654,7 @@
       <c r="A21" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8998,7 +9009,7 @@
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9071,7 +9082,7 @@
         <v>219</v>
       </c>
       <c r="E3" s="80"/>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="91" t="s">
         <v>129</v>
       </c>
       <c r="G3" s="72" t="s">
@@ -9122,7 +9133,7 @@
         <v>219</v>
       </c>
       <c r="E5" s="80"/>
-      <c r="F5" s="91"/>
+      <c r="F5" s="90"/>
       <c r="H5" s="83" t="s">
         <v>241</v>
       </c>
@@ -9150,7 +9161,7 @@
         <v>219</v>
       </c>
       <c r="E6" s="80"/>
-      <c r="F6" s="91"/>
+      <c r="F6" s="90"/>
       <c r="H6" s="83" t="s">
         <v>239</v>
       </c>
@@ -9193,7 +9204,9 @@
         <v>219</v>
       </c>
       <c r="E8" s="80"/>
-      <c r="F8" s="91"/>
+      <c r="F8" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="G8" s="73" t="s">
         <v>119</v>
       </c>
@@ -9218,7 +9231,7 @@
         <v>216</v>
       </c>
       <c r="E9" s="81"/>
-      <c r="F9" s="91"/>
+      <c r="F9" s="90"/>
       <c r="H9" s="84" t="s">
         <v>176</v>
       </c>
@@ -9240,7 +9253,7 @@
         <v>219</v>
       </c>
       <c r="E10" s="80"/>
-      <c r="F10" s="91"/>
+      <c r="F10" s="90"/>
       <c r="H10" s="83" t="s">
         <v>233</v>
       </c>
@@ -9268,7 +9281,7 @@
         <v>219</v>
       </c>
       <c r="E11" s="80"/>
-      <c r="F11" s="91"/>
+      <c r="F11" s="90"/>
       <c r="H11" s="83" t="s">
         <v>230</v>
       </c>
@@ -9287,7 +9300,7 @@
         <v>219</v>
       </c>
       <c r="E12" s="80"/>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="92" t="s">
         <v>129</v>
       </c>
       <c r="H12" s="83" t="s">
@@ -9311,7 +9324,7 @@
         <v>219</v>
       </c>
       <c r="E13" s="80"/>
-      <c r="F13" s="91"/>
+      <c r="F13" s="90"/>
       <c r="H13" s="83" t="s">
         <v>228</v>
       </c>
@@ -9396,7 +9409,7 @@
         <v>219</v>
       </c>
       <c r="E17" s="80"/>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="94" t="s">
         <v>129</v>
       </c>
       <c r="G17" s="71" t="s">
@@ -9423,7 +9436,7 @@
         <v>219</v>
       </c>
       <c r="E18" s="80"/>
-      <c r="F18" s="92"/>
+      <c r="F18" s="94"/>
       <c r="H18" s="83"/>
       <c r="I18" s="83" t="s">
         <v>218</v>
@@ -9473,7 +9486,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="90" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="84" t="s">
@@ -9492,7 +9505,9 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F26" s="91"/>
+      <c r="F26" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="G26" s="65" t="s">
         <v>118</v>
       </c>
@@ -9504,7 +9519,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F27" s="91"/>
+      <c r="F27" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H27" s="83" t="s">
         <v>174</v>
       </c>
@@ -9545,7 +9562,9 @@
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F34" s="91"/>
+      <c r="F34" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H34" s="84" t="s">
         <v>197</v>
       </c>
@@ -9562,7 +9581,9 @@
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F36" s="91"/>
+      <c r="F36" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H36" s="84" t="s">
         <v>193</v>
       </c>
@@ -9579,7 +9600,7 @@
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F39" s="93" t="s">
+      <c r="F39" s="91" t="s">
         <v>129</v>
       </c>
       <c r="G39" s="63" t="s">
@@ -9601,7 +9622,7 @@
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F41" s="93" t="s">
+      <c r="F41" s="91" t="s">
         <v>129</v>
       </c>
       <c r="H41" s="85" t="s">
@@ -9612,7 +9633,7 @@
       </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="91" t="s">
+      <c r="F42" s="90" t="s">
         <v>129</v>
       </c>
       <c r="H42" s="86" t="s">
@@ -9621,7 +9642,9 @@
       <c r="I42" s="83"/>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F43" s="91"/>
+      <c r="F43" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H43" s="83" t="s">
         <v>163</v>
       </c>
@@ -9630,7 +9653,9 @@
       </c>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F44" s="91"/>
+      <c r="F44" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H44" s="83" t="s">
         <v>181</v>
       </c>
@@ -9639,7 +9664,7 @@
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F46" s="91"/>
+      <c r="F46" s="90"/>
       <c r="G46" s="62" t="s">
         <v>123</v>
       </c>
@@ -9651,7 +9676,7 @@
       </c>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F47" s="91"/>
+      <c r="F47" s="90"/>
       <c r="H47" s="83" t="s">
         <v>174</v>
       </c>
@@ -9660,7 +9685,9 @@
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F48" s="91"/>
+      <c r="F48" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H48" s="84" t="s">
         <v>176</v>
       </c>
@@ -9669,7 +9696,7 @@
       </c>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F49" s="91"/>
+      <c r="F49" s="90"/>
       <c r="H49" s="83" t="s">
         <v>174</v>
       </c>
@@ -9689,7 +9716,9 @@
       </c>
     </row>
     <row r="52" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F52" s="91"/>
+      <c r="F52" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H52" s="84" t="s">
         <v>172</v>
       </c>
@@ -9714,7 +9743,7 @@
       </c>
     </row>
     <row r="56" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F56" s="94" t="s">
+      <c r="F56" s="92" t="s">
         <v>129</v>
       </c>
       <c r="G56" s="60" t="s">
@@ -9744,7 +9773,7 @@
       </c>
     </row>
     <row r="59" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="91" t="s">
+      <c r="F59" s="90" t="s">
         <v>129</v>
       </c>
       <c r="H59" s="84" t="s">
@@ -9755,7 +9784,9 @@
       </c>
     </row>
     <row r="60" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="91"/>
+      <c r="F60" s="95" t="s">
+        <v>129</v>
+      </c>
       <c r="H60" s="84" t="s">
         <v>159</v>
       </c>
@@ -9764,7 +9795,7 @@
       </c>
     </row>
     <row r="61" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="91" t="s">
+      <c r="F61" s="90" t="s">
         <v>129</v>
       </c>
       <c r="H61" s="84" t="s">
@@ -9784,7 +9815,7 @@
   <mergeCells count="1">
     <mergeCell ref="F17:F18"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/mippy進捗管理表 .xlsx
+++ b/doc/mippy進捗管理表 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1049C2-8272-4B5E-BAE2-BB44D72D781C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98A7E7-1B96-4588-AA01-7CC405F49B3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="5" r:id="rId1"/>
@@ -35,60 +35,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="247">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タスク</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>内部設計</t>
     <rPh sb="0" eb="4">
       <t>ナイブセッケイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プログラミング</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -98,7 +98,7 @@
     <rPh sb="2" eb="4">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>業務フローの確認</t>
@@ -108,7 +108,7 @@
     <rPh sb="6" eb="8">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>要件定義の検討</t>
@@ -118,35 +118,35 @@
     <rPh sb="5" eb="7">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>画面設計</t>
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ペルソナ設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>画面の遷移図</t>
@@ -156,22 +156,22 @@
     <rPh sb="3" eb="6">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>データベース設計</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>作成予定ファイルの一覧表</t>
@@ -184,7 +184,7 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ファイルの担当割り振り</t>
@@ -194,175 +194,175 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>クォン</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>猪瀬</t>
     <rPh sb="0" eb="2">
       <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>石松</t>
     <rPh sb="0" eb="2">
       <t>イシマツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カテゴリー</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="3">
       <t>サギョウメイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>dao</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>食事のデータアクセス</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>記録のデータアクセス</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>User情報アクセス</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>FoodDao関連のデータ操作</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>RegisterDao関連のデータ操作</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>UserDao関連のデータ操作</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>servlet</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>jsp</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カレンダー画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>品目登録画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>グラフ画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>個人情報変更画面用</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>食事ログ画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="7">
       <t>ガメンヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>プロフィール画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>秘密の質問画面用</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>トップ画面用</t>
     <rPh sb="3" eb="6">